--- a/Datasets/Stalder/Data/Stalder_JR.xlsx
+++ b/Datasets/Stalder/Data/Stalder_JR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julerickert/Documents/Akademie_Projekt/Datasets/Stalder/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE9E267-1892-9649-AFFF-90EE5ED00615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBB92CE-1EDE-7241-90EA-07864F151757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="18000" xr2:uid="{83D778BB-B2D8-FD4F-A694-2AEDDD4D8C05}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="300">
   <si>
     <t>ID</t>
   </si>
@@ -420,6 +420,522 @@
   </si>
   <si>
     <t>8.5152370</t>
+  </si>
+  <si>
+    <t>Kanton Schwyz.</t>
+  </si>
+  <si>
+    <t>Kanton Schwyz</t>
+  </si>
+  <si>
+    <t>47.0221533</t>
+  </si>
+  <si>
+    <t>8.6603458</t>
+  </si>
+  <si>
+    <t>Mundart des Schwyzers.</t>
+  </si>
+  <si>
+    <t>Schwyz</t>
+  </si>
+  <si>
+    <t>8.6519248</t>
+  </si>
+  <si>
+    <t>47.0201367</t>
+  </si>
+  <si>
+    <t>Kanton Unterwalden</t>
+  </si>
+  <si>
+    <t>46.9340766</t>
+  </si>
+  <si>
+    <t>8.4109342</t>
+  </si>
+  <si>
+    <t>Stans</t>
+  </si>
+  <si>
+    <t>8.3657315</t>
+  </si>
+  <si>
+    <t>46.9571865</t>
+  </si>
+  <si>
+    <t>1. Mundart der Unterwaldner nid dem Wald, besonders in Stans.</t>
+  </si>
+  <si>
+    <t>2. Mundart der Unterwaldner ob dem Wald, besonders um Alpnacht.</t>
+  </si>
+  <si>
+    <t>Alpnacht</t>
+  </si>
+  <si>
+    <t>8.2710013</t>
+  </si>
+  <si>
+    <t>46.9385666</t>
+  </si>
+  <si>
+    <t>Kanton Glarus.</t>
+  </si>
+  <si>
+    <t>Kanton Glarus</t>
+  </si>
+  <si>
+    <t>47.0390658</t>
+  </si>
+  <si>
+    <t>9.0577494</t>
+  </si>
+  <si>
+    <t>Mundart um Glarus und Mollis.</t>
+  </si>
+  <si>
+    <t>Glarus und Mollis</t>
+  </si>
+  <si>
+    <t>9.0684781</t>
+  </si>
+  <si>
+    <t>47.0426000</t>
+  </si>
+  <si>
+    <t>9.0749763</t>
+  </si>
+  <si>
+    <t>47.0938435</t>
+  </si>
+  <si>
+    <t>Kanton Zug.</t>
+  </si>
+  <si>
+    <t>47.1672610</t>
+  </si>
+  <si>
+    <t>8.5195114</t>
+  </si>
+  <si>
+    <t>Mundart der Städter in Zug.</t>
+  </si>
+  <si>
+    <t>Zug</t>
+  </si>
+  <si>
+    <t>Kanton Zug</t>
+  </si>
+  <si>
+    <t>Kanton Freiburg.</t>
+  </si>
+  <si>
+    <t>Kanton Freiburg</t>
+  </si>
+  <si>
+    <t>7.0911975</t>
+  </si>
+  <si>
+    <t>46.7049355</t>
+  </si>
+  <si>
+    <t>1. Mundart des freiburgerischen Unterländers.</t>
+  </si>
+  <si>
+    <t>Freiburgerisches Unterland</t>
+  </si>
+  <si>
+    <t>46.8103076</t>
+  </si>
+  <si>
+    <t>7.1049302</t>
+  </si>
+  <si>
+    <t>2. Mundart des freiburgerischen Oberländers.</t>
+  </si>
+  <si>
+    <t>Freiburgerisches Oberland</t>
+  </si>
+  <si>
+    <t>46.6870394</t>
+  </si>
+  <si>
+    <t>7.2862047</t>
+  </si>
+  <si>
+    <t>Kanton Solothurn</t>
+  </si>
+  <si>
+    <t>Kanton Solothurn.</t>
+  </si>
+  <si>
+    <t>47.2125425</t>
+  </si>
+  <si>
+    <t>7.5361693</t>
+  </si>
+  <si>
+    <t>Die allgemeine Mundart der Solothurner.</t>
+  </si>
+  <si>
+    <t>Solothurn</t>
+  </si>
+  <si>
+    <t>Kanton Basel.</t>
+  </si>
+  <si>
+    <t>Kanton Basel</t>
+  </si>
+  <si>
+    <t>47.5585089</t>
+  </si>
+  <si>
+    <t>7.5899381</t>
+  </si>
+  <si>
+    <t>Mundart der Basler.</t>
+  </si>
+  <si>
+    <t>Basel</t>
+  </si>
+  <si>
+    <t>Kanton Schafhausen.</t>
+  </si>
+  <si>
+    <t>Mundart der Städter.</t>
+  </si>
+  <si>
+    <t>Kanton Schafhausen</t>
+  </si>
+  <si>
+    <t>Schafhausen</t>
+  </si>
+  <si>
+    <t>8.5587139</t>
+  </si>
+  <si>
+    <t>47.7237273</t>
+  </si>
+  <si>
+    <t>8.6335583</t>
+  </si>
+  <si>
+    <t>47.6983160</t>
+  </si>
+  <si>
+    <t>Heute: Schaffhausen</t>
+  </si>
+  <si>
+    <t>Kanton Appenzell.</t>
+  </si>
+  <si>
+    <t>Mundart der Appenzeller beider Rhoden.</t>
+  </si>
+  <si>
+    <t>Kanton Appenzell</t>
+  </si>
+  <si>
+    <t>47.3354456</t>
+  </si>
+  <si>
+    <t>9.4063332</t>
+  </si>
+  <si>
+    <t>Appenzell beider Rhoden</t>
+  </si>
+  <si>
+    <t>Kanton St. Gallen.</t>
+  </si>
+  <si>
+    <t>Kanton St. Gallen</t>
+  </si>
+  <si>
+    <t>9.1940418</t>
+  </si>
+  <si>
+    <t>47.2070233</t>
+  </si>
+  <si>
+    <t>1. Mundart der Einwohner der Stadt St. Gallen und der alten Landschaft.</t>
+  </si>
+  <si>
+    <t>St. Gallen und Alte Landschaft</t>
+  </si>
+  <si>
+    <t>9.2593361</t>
+  </si>
+  <si>
+    <t>47.4468309</t>
+  </si>
+  <si>
+    <t>2. Mundart der Toggenburger.</t>
+  </si>
+  <si>
+    <t>a. Der Ober-Toggenburger.</t>
+  </si>
+  <si>
+    <t>Toggenburg</t>
+  </si>
+  <si>
+    <t>Ober-Toggenburg</t>
+  </si>
+  <si>
+    <t>47.2807754</t>
+  </si>
+  <si>
+    <t>9.1494862</t>
+  </si>
+  <si>
+    <t>9.2492357</t>
+  </si>
+  <si>
+    <t>47.2163554</t>
+  </si>
+  <si>
+    <t>b. Der Mittler-Toggenburger.</t>
+  </si>
+  <si>
+    <t>9.1792208</t>
+  </si>
+  <si>
+    <t>47.2966263</t>
+  </si>
+  <si>
+    <t>Mittel-Toggenburg</t>
+  </si>
+  <si>
+    <t>Unter-Toggenburg</t>
+  </si>
+  <si>
+    <t>9.1717795</t>
+  </si>
+  <si>
+    <t>47.3759998</t>
+  </si>
+  <si>
+    <t>c. Der Unter-Toggenburger.</t>
+  </si>
+  <si>
+    <t>3. Mundart der Rheinthaler am obern Rheinufer.</t>
+  </si>
+  <si>
+    <t>Rheintal am oberen Rheinufer</t>
+  </si>
+  <si>
+    <t>9.6341735</t>
+  </si>
+  <si>
+    <t>47.4376112</t>
+  </si>
+  <si>
+    <t>Kanton Graubünden.</t>
+  </si>
+  <si>
+    <t>Kanton Graubünden</t>
+  </si>
+  <si>
+    <t>9.5854060</t>
+  </si>
+  <si>
+    <t>46.6798963</t>
+  </si>
+  <si>
+    <t>1. Mundart des obern Bundes, voran im Rheinwald.</t>
+  </si>
+  <si>
+    <t>Rheinwald im Oberen Bund</t>
+  </si>
+  <si>
+    <t>46.5465072</t>
+  </si>
+  <si>
+    <t>9.2772119</t>
+  </si>
+  <si>
+    <t>Gotteshausbund zu Chur</t>
+  </si>
+  <si>
+    <t>2. Mundart des Gotteshausbundes, voran zu Chur.</t>
+  </si>
+  <si>
+    <t>9.5288008</t>
+  </si>
+  <si>
+    <t>46.8524186</t>
+  </si>
+  <si>
+    <t>3. Mundart des Zehngerichtenbundes, voran im Brättigäu.</t>
+  </si>
+  <si>
+    <t>Zehngerichtenbund im Brättigäu</t>
+  </si>
+  <si>
+    <t>9.8534858</t>
+  </si>
+  <si>
+    <t>46.8853251</t>
+  </si>
+  <si>
+    <t>Kanton Aargau.</t>
+  </si>
+  <si>
+    <t>Kanton Aargau</t>
+  </si>
+  <si>
+    <t>8.2010719</t>
+  </si>
+  <si>
+    <t>47.4122828</t>
+  </si>
+  <si>
+    <t>1. Mundart des eigentlichen Aargauers.</t>
+  </si>
+  <si>
+    <t>Aargau</t>
+  </si>
+  <si>
+    <t>a. Mundart des Oberaargauers um Zofingen und Aarau.</t>
+  </si>
+  <si>
+    <t>Oberaargau um Zofingen und Aarau</t>
+  </si>
+  <si>
+    <t>8.0469388</t>
+  </si>
+  <si>
+    <t>47.3903461</t>
+  </si>
+  <si>
+    <t>7.9417237</t>
+  </si>
+  <si>
+    <t>47.2886479</t>
+  </si>
+  <si>
+    <t>b. Mundart des Unteraargauers in der Gegend um Brugg.</t>
+  </si>
+  <si>
+    <t>Unteraargau in der Gegend um Brugg</t>
+  </si>
+  <si>
+    <t>8.2107383</t>
+  </si>
+  <si>
+    <t>47.4868253</t>
+  </si>
+  <si>
+    <t>2. Mundart des Freiämters.</t>
+  </si>
+  <si>
+    <t>Freiamt</t>
+  </si>
+  <si>
+    <t>stal2</t>
+  </si>
+  <si>
+    <t>stal3</t>
+  </si>
+  <si>
+    <t>stal4</t>
+  </si>
+  <si>
+    <t>stal5</t>
+  </si>
+  <si>
+    <t>stal6</t>
+  </si>
+  <si>
+    <t>stal7</t>
+  </si>
+  <si>
+    <t>stal8</t>
+  </si>
+  <si>
+    <t>stal9</t>
+  </si>
+  <si>
+    <t>stal10</t>
+  </si>
+  <si>
+    <t>stal11</t>
+  </si>
+  <si>
+    <t>stal12</t>
+  </si>
+  <si>
+    <t>stal13</t>
+  </si>
+  <si>
+    <t>stal14</t>
+  </si>
+  <si>
+    <t>stal15</t>
+  </si>
+  <si>
+    <t>stal16</t>
+  </si>
+  <si>
+    <t>stal17</t>
+  </si>
+  <si>
+    <t>stal18</t>
+  </si>
+  <si>
+    <t>stal19</t>
+  </si>
+  <si>
+    <t>stal20</t>
+  </si>
+  <si>
+    <t>stal21</t>
+  </si>
+  <si>
+    <t>stal22</t>
+  </si>
+  <si>
+    <t>stal23</t>
+  </si>
+  <si>
+    <t>stal24</t>
+  </si>
+  <si>
+    <t>stal25</t>
+  </si>
+  <si>
+    <t>stal26</t>
+  </si>
+  <si>
+    <t>stal27</t>
+  </si>
+  <si>
+    <t>stal28</t>
+  </si>
+  <si>
+    <t>stal29</t>
+  </si>
+  <si>
+    <t>stal30</t>
+  </si>
+  <si>
+    <t>stal31</t>
+  </si>
+  <si>
+    <t>stal32</t>
+  </si>
+  <si>
+    <t>stal33</t>
+  </si>
+  <si>
+    <t>stal34</t>
+  </si>
+  <si>
+    <t>stal35</t>
+  </si>
+  <si>
+    <t>stal36</t>
+  </si>
+  <si>
+    <t>stal37</t>
   </si>
 </sst>
 </file>
@@ -498,7 +1014,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -506,10 +1022,8 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -824,11 +1338,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677BF33D-024D-394D-9965-483490377549}">
-  <dimension ref="A1:AB23"/>
+  <dimension ref="A1:AB59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -948,10 +1462,10 @@
       <c r="M2">
         <v>999</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="5">
         <v>-1</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="5">
         <v>-1</v>
       </c>
       <c r="V2" t="s">
@@ -989,10 +1503,10 @@
       <c r="M3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>41</v>
       </c>
       <c r="V3" t="s">
@@ -1030,10 +1544,10 @@
       <c r="M4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="8" t="s">
         <v>47</v>
       </c>
       <c r="V4" t="s">
@@ -1071,10 +1585,10 @@
       <c r="M5" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="5" t="s">
         <v>54</v>
       </c>
       <c r="V5" t="s">
@@ -1109,10 +1623,10 @@
       <c r="M6" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="5" t="s">
         <v>58</v>
       </c>
       <c r="V6" t="s">
@@ -1153,10 +1667,10 @@
       <c r="O7" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="Q7" s="5" t="s">
         <v>60</v>
       </c>
       <c r="V7" t="s">
@@ -1191,10 +1705,10 @@
       <c r="M8" t="s">
         <v>42</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="5" t="s">
         <v>63</v>
       </c>
       <c r="V8" t="s">
@@ -1264,7 +1778,7 @@
       <c r="L10" t="s">
         <v>39</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="M10" t="s">
         <v>42</v>
       </c>
       <c r="N10" s="5" t="s">
@@ -1302,7 +1816,7 @@
       <c r="L11" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="M11" t="s">
         <v>38</v>
       </c>
       <c r="N11" s="5" t="s">
@@ -1708,8 +2222,8 @@
       <c r="D22">
         <v>293</v>
       </c>
-      <c r="E22" t="s">
-        <v>35</v>
+      <c r="E22">
+        <v>294</v>
       </c>
       <c r="J22" t="s">
         <v>48</v>
@@ -1771,6 +2285,1383 @@
         <v>124</v>
       </c>
       <c r="W23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B24" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24">
+        <v>295</v>
+      </c>
+      <c r="E24">
+        <v>296</v>
+      </c>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" t="s">
+        <v>129</v>
+      </c>
+      <c r="L24" t="s">
+        <v>51</v>
+      </c>
+      <c r="M24" t="s">
+        <v>38</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="V24" t="s">
+        <v>128</v>
+      </c>
+      <c r="W24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B25" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25">
+        <v>295</v>
+      </c>
+      <c r="E25">
+        <v>296</v>
+      </c>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" t="s">
+        <v>133</v>
+      </c>
+      <c r="L25" t="s">
+        <v>51</v>
+      </c>
+      <c r="M25" t="s">
+        <v>42</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="V25" t="s">
+        <v>132</v>
+      </c>
+      <c r="W25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B26" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26">
+        <v>297</v>
+      </c>
+      <c r="E26">
+        <v>300</v>
+      </c>
+      <c r="J26" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" t="s">
+        <v>136</v>
+      </c>
+      <c r="L26" t="s">
+        <v>51</v>
+      </c>
+      <c r="M26" t="s">
+        <v>38</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="V26" t="s">
+        <v>136</v>
+      </c>
+      <c r="W26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B27" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27">
+        <v>297</v>
+      </c>
+      <c r="E27">
+        <v>298</v>
+      </c>
+      <c r="J27" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" t="s">
+        <v>139</v>
+      </c>
+      <c r="L27" t="s">
+        <v>51</v>
+      </c>
+      <c r="M27" t="s">
+        <v>38</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V27" t="s">
+        <v>142</v>
+      </c>
+      <c r="W27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B28" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28">
+        <v>299</v>
+      </c>
+      <c r="E28">
+        <v>300</v>
+      </c>
+      <c r="J28" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28" t="s">
+        <v>144</v>
+      </c>
+      <c r="L28" t="s">
+        <v>51</v>
+      </c>
+      <c r="M28" t="s">
+        <v>38</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="V28" t="s">
+        <v>143</v>
+      </c>
+      <c r="W28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B29" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29">
+        <v>300</v>
+      </c>
+      <c r="E29">
+        <v>302</v>
+      </c>
+      <c r="J29" t="s">
+        <v>48</v>
+      </c>
+      <c r="K29" t="s">
+        <v>148</v>
+      </c>
+      <c r="L29" t="s">
+        <v>51</v>
+      </c>
+      <c r="M29" t="s">
+        <v>38</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="V29" t="s">
+        <v>147</v>
+      </c>
+      <c r="W29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B30" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>300</v>
+      </c>
+      <c r="E30">
+        <v>302</v>
+      </c>
+      <c r="J30" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30" t="s">
+        <v>152</v>
+      </c>
+      <c r="L30" t="s">
+        <v>51</v>
+      </c>
+      <c r="M30" t="s">
+        <v>38</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="V30" t="s">
+        <v>151</v>
+      </c>
+      <c r="W30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B31" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31">
+        <v>302</v>
+      </c>
+      <c r="E31">
+        <v>304</v>
+      </c>
+      <c r="J31" t="s">
+        <v>48</v>
+      </c>
+      <c r="K31" t="s">
+        <v>162</v>
+      </c>
+      <c r="L31" t="s">
+        <v>51</v>
+      </c>
+      <c r="M31" t="s">
+        <v>38</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="V31" t="s">
+        <v>157</v>
+      </c>
+      <c r="W31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B32" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32">
+        <v>302</v>
+      </c>
+      <c r="E32">
+        <v>304</v>
+      </c>
+      <c r="J32" t="s">
+        <v>48</v>
+      </c>
+      <c r="K32" t="s">
+        <v>161</v>
+      </c>
+      <c r="L32" t="s">
+        <v>39</v>
+      </c>
+      <c r="M32" t="s">
+        <v>42</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="V32" t="s">
+        <v>160</v>
+      </c>
+      <c r="W32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B33" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33">
+        <v>304</v>
+      </c>
+      <c r="E33">
+        <v>307</v>
+      </c>
+      <c r="J33" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33" t="s">
+        <v>164</v>
+      </c>
+      <c r="L33" t="s">
+        <v>51</v>
+      </c>
+      <c r="M33" t="s">
+        <v>38</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="V33" t="s">
+        <v>163</v>
+      </c>
+      <c r="W33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B34" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34">
+        <v>304</v>
+      </c>
+      <c r="E34">
+        <v>305</v>
+      </c>
+      <c r="J34" t="s">
+        <v>48</v>
+      </c>
+      <c r="K34" t="s">
+        <v>168</v>
+      </c>
+      <c r="L34" t="s">
+        <v>51</v>
+      </c>
+      <c r="M34" t="s">
+        <v>38</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="V34" t="s">
+        <v>167</v>
+      </c>
+      <c r="W34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B35" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35">
+        <v>305</v>
+      </c>
+      <c r="E35">
+        <v>307</v>
+      </c>
+      <c r="J35" t="s">
+        <v>48</v>
+      </c>
+      <c r="K35" t="s">
+        <v>172</v>
+      </c>
+      <c r="L35" t="s">
+        <v>51</v>
+      </c>
+      <c r="M35" t="s">
+        <v>38</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="V35" t="s">
+        <v>171</v>
+      </c>
+      <c r="W35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B36" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36">
+        <v>307</v>
+      </c>
+      <c r="E36">
+        <v>309</v>
+      </c>
+      <c r="J36" t="s">
+        <v>48</v>
+      </c>
+      <c r="K36" t="s">
+        <v>175</v>
+      </c>
+      <c r="L36" t="s">
+        <v>51</v>
+      </c>
+      <c r="M36" t="s">
+        <v>52</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="V36" t="s">
+        <v>176</v>
+      </c>
+      <c r="W36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B37" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37">
+        <v>307</v>
+      </c>
+      <c r="E37">
+        <v>309</v>
+      </c>
+      <c r="J37" t="s">
+        <v>48</v>
+      </c>
+      <c r="K37" t="s">
+        <v>180</v>
+      </c>
+      <c r="L37" t="s">
+        <v>51</v>
+      </c>
+      <c r="M37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="V37" t="s">
+        <v>179</v>
+      </c>
+      <c r="W37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B38" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38">
+        <v>309</v>
+      </c>
+      <c r="E38">
+        <v>310</v>
+      </c>
+      <c r="J38" t="s">
+        <v>48</v>
+      </c>
+      <c r="K38" t="s">
+        <v>182</v>
+      </c>
+      <c r="L38" t="s">
+        <v>51</v>
+      </c>
+      <c r="M38" t="s">
+        <v>38</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="V38" t="s">
+        <v>181</v>
+      </c>
+      <c r="W38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B39" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39">
+        <v>309</v>
+      </c>
+      <c r="E39">
+        <v>310</v>
+      </c>
+      <c r="J39" t="s">
+        <v>48</v>
+      </c>
+      <c r="K39" t="s">
+        <v>186</v>
+      </c>
+      <c r="L39" t="s">
+        <v>51</v>
+      </c>
+      <c r="M39" t="s">
+        <v>42</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="V39" t="s">
+        <v>185</v>
+      </c>
+      <c r="W39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B40" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40">
+        <v>311</v>
+      </c>
+      <c r="E40">
+        <v>312</v>
+      </c>
+      <c r="J40" t="s">
+        <v>48</v>
+      </c>
+      <c r="K40" t="s">
+        <v>189</v>
+      </c>
+      <c r="L40" t="s">
+        <v>51</v>
+      </c>
+      <c r="M40" t="s">
+        <v>38</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="V40" t="s">
+        <v>187</v>
+      </c>
+      <c r="W40" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B41" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41">
+        <v>311</v>
+      </c>
+      <c r="E41">
+        <v>312</v>
+      </c>
+      <c r="J41" t="s">
+        <v>48</v>
+      </c>
+      <c r="K41" t="s">
+        <v>190</v>
+      </c>
+      <c r="L41" t="s">
+        <v>39</v>
+      </c>
+      <c r="M41" t="s">
+        <v>42</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="V41" t="s">
+        <v>188</v>
+      </c>
+      <c r="W41" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B42" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42">
+        <v>312</v>
+      </c>
+      <c r="E42">
+        <v>314</v>
+      </c>
+      <c r="J42" t="s">
+        <v>48</v>
+      </c>
+      <c r="K42" t="s">
+        <v>198</v>
+      </c>
+      <c r="L42" t="s">
+        <v>51</v>
+      </c>
+      <c r="M42" t="s">
+        <v>38</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="V42" t="s">
+        <v>196</v>
+      </c>
+      <c r="W42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B43" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43">
+        <v>312</v>
+      </c>
+      <c r="E43">
+        <v>314</v>
+      </c>
+      <c r="J43" t="s">
+        <v>48</v>
+      </c>
+      <c r="K43" t="s">
+        <v>201</v>
+      </c>
+      <c r="L43" t="s">
+        <v>51</v>
+      </c>
+      <c r="M43" t="s">
+        <v>38</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="V43" t="s">
+        <v>197</v>
+      </c>
+      <c r="W43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B44" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44">
+        <v>314</v>
+      </c>
+      <c r="E44">
+        <v>323</v>
+      </c>
+      <c r="J44" t="s">
+        <v>48</v>
+      </c>
+      <c r="K44" t="s">
+        <v>203</v>
+      </c>
+      <c r="L44" t="s">
+        <v>51</v>
+      </c>
+      <c r="M44" t="s">
+        <v>52</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="V44" t="s">
+        <v>202</v>
+      </c>
+      <c r="W44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B45" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45">
+        <v>314</v>
+      </c>
+      <c r="E45">
+        <v>316</v>
+      </c>
+      <c r="J45" t="s">
+        <v>48</v>
+      </c>
+      <c r="K45" t="s">
+        <v>207</v>
+      </c>
+      <c r="L45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M45" t="s">
+        <v>38</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="V45" t="s">
+        <v>206</v>
+      </c>
+      <c r="W45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B46" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46">
+        <v>316</v>
+      </c>
+      <c r="E46">
+        <v>323</v>
+      </c>
+      <c r="J46" t="s">
+        <v>48</v>
+      </c>
+      <c r="K46" t="s">
+        <v>212</v>
+      </c>
+      <c r="L46" t="s">
+        <v>51</v>
+      </c>
+      <c r="M46" t="s">
+        <v>38</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="V46" t="s">
+        <v>210</v>
+      </c>
+      <c r="W46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B47" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47">
+        <v>316</v>
+      </c>
+      <c r="E47">
+        <v>317</v>
+      </c>
+      <c r="J47" t="s">
+        <v>48</v>
+      </c>
+      <c r="K47" t="s">
+        <v>213</v>
+      </c>
+      <c r="L47" t="s">
+        <v>51</v>
+      </c>
+      <c r="M47" t="s">
+        <v>38</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="V47" t="s">
+        <v>211</v>
+      </c>
+      <c r="W47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B48" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48">
+        <v>318</v>
+      </c>
+      <c r="E48">
+        <v>319</v>
+      </c>
+      <c r="J48" t="s">
+        <v>48</v>
+      </c>
+      <c r="K48" t="s">
+        <v>221</v>
+      </c>
+      <c r="L48" t="s">
+        <v>51</v>
+      </c>
+      <c r="M48" t="s">
+        <v>38</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="V48" t="s">
+        <v>218</v>
+      </c>
+      <c r="W48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B49" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49">
+        <v>319</v>
+      </c>
+      <c r="E49">
+        <v>321</v>
+      </c>
+      <c r="J49" t="s">
+        <v>48</v>
+      </c>
+      <c r="K49" t="s">
+        <v>222</v>
+      </c>
+      <c r="L49" t="s">
+        <v>51</v>
+      </c>
+      <c r="M49" t="s">
+        <v>38</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="V49" t="s">
+        <v>225</v>
+      </c>
+      <c r="W49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B50" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50">
+        <v>321</v>
+      </c>
+      <c r="E50">
+        <v>323</v>
+      </c>
+      <c r="J50" t="s">
+        <v>48</v>
+      </c>
+      <c r="K50" t="s">
+        <v>227</v>
+      </c>
+      <c r="L50" t="s">
+        <v>51</v>
+      </c>
+      <c r="M50" t="s">
+        <v>38</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="V50" t="s">
+        <v>226</v>
+      </c>
+      <c r="W50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B51" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51">
+        <v>323</v>
+      </c>
+      <c r="E51">
+        <v>328</v>
+      </c>
+      <c r="J51" t="s">
+        <v>48</v>
+      </c>
+      <c r="K51" t="s">
+        <v>231</v>
+      </c>
+      <c r="L51" t="s">
+        <v>51</v>
+      </c>
+      <c r="M51" t="s">
+        <v>52</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="V51" t="s">
+        <v>230</v>
+      </c>
+      <c r="W51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B52" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52">
+        <v>323</v>
+      </c>
+      <c r="E52">
+        <v>324</v>
+      </c>
+      <c r="J52" t="s">
+        <v>48</v>
+      </c>
+      <c r="K52" t="s">
+        <v>235</v>
+      </c>
+      <c r="L52" t="s">
+        <v>51</v>
+      </c>
+      <c r="M52" t="s">
+        <v>38</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="O52" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="V52" t="s">
+        <v>234</v>
+      </c>
+      <c r="W52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B53" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53">
+        <v>324</v>
+      </c>
+      <c r="E53">
+        <v>326</v>
+      </c>
+      <c r="J53" t="s">
+        <v>48</v>
+      </c>
+      <c r="K53" t="s">
+        <v>238</v>
+      </c>
+      <c r="L53" t="s">
+        <v>51</v>
+      </c>
+      <c r="M53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="V53" t="s">
+        <v>239</v>
+      </c>
+      <c r="W53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B54" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54">
+        <v>326</v>
+      </c>
+      <c r="E54">
+        <v>328</v>
+      </c>
+      <c r="J54" t="s">
+        <v>48</v>
+      </c>
+      <c r="K54" t="s">
+        <v>243</v>
+      </c>
+      <c r="L54" t="s">
+        <v>51</v>
+      </c>
+      <c r="M54" t="s">
+        <v>38</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="V54" t="s">
+        <v>242</v>
+      </c>
+      <c r="W54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B55" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55">
+        <v>328</v>
+      </c>
+      <c r="E55" t="s">
+        <v>35</v>
+      </c>
+      <c r="J55" t="s">
+        <v>48</v>
+      </c>
+      <c r="K55" t="s">
+        <v>247</v>
+      </c>
+      <c r="L55" t="s">
+        <v>51</v>
+      </c>
+      <c r="M55" t="s">
+        <v>38</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="V55" t="s">
+        <v>246</v>
+      </c>
+      <c r="W55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B56" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C56" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56">
+        <v>328</v>
+      </c>
+      <c r="E56">
+        <v>331</v>
+      </c>
+      <c r="J56" t="s">
+        <v>48</v>
+      </c>
+      <c r="K56" t="s">
+        <v>251</v>
+      </c>
+      <c r="L56" t="s">
+        <v>51</v>
+      </c>
+      <c r="M56" t="s">
+        <v>38</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="V56" t="s">
+        <v>250</v>
+      </c>
+      <c r="W56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B57" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57">
+        <v>328</v>
+      </c>
+      <c r="E57">
+        <v>329</v>
+      </c>
+      <c r="J57" t="s">
+        <v>48</v>
+      </c>
+      <c r="K57" t="s">
+        <v>253</v>
+      </c>
+      <c r="L57" t="s">
+        <v>51</v>
+      </c>
+      <c r="M57" t="s">
+        <v>38</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="O57" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="P57" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q57" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="V57" t="s">
+        <v>252</v>
+      </c>
+      <c r="W57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B58" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58">
+        <v>329</v>
+      </c>
+      <c r="E58">
+        <v>331</v>
+      </c>
+      <c r="J58" t="s">
+        <v>48</v>
+      </c>
+      <c r="K58" t="s">
+        <v>259</v>
+      </c>
+      <c r="L58" t="s">
+        <v>51</v>
+      </c>
+      <c r="M58" t="s">
+        <v>38</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="O58" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="V58" t="s">
+        <v>258</v>
+      </c>
+      <c r="W58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B59" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59">
+        <v>331</v>
+      </c>
+      <c r="J59" t="s">
+        <v>48</v>
+      </c>
+      <c r="K59" t="s">
+        <v>263</v>
+      </c>
+      <c r="V59" t="s">
+        <v>262</v>
+      </c>
+      <c r="W59" t="s">
         <v>57</v>
       </c>
     </row>

--- a/Datasets/Stalder/Data/Stalder_JR.xlsx
+++ b/Datasets/Stalder/Data/Stalder_JR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julerickert/Documents/Akademie_Projekt/Datasets/Stalder/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBB92CE-1EDE-7241-90EA-07864F151757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFCF24C-40B3-F04F-A624-CC4F66BABE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="18000" xr2:uid="{83D778BB-B2D8-FD4F-A694-2AEDDD4D8C05}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="332">
   <si>
     <t>ID</t>
   </si>
@@ -830,112 +830,208 @@
     <t>Freiamt</t>
   </si>
   <si>
-    <t>stal2</t>
-  </si>
-  <si>
-    <t>stal3</t>
-  </si>
-  <si>
-    <t>stal4</t>
-  </si>
-  <si>
-    <t>stal5</t>
-  </si>
-  <si>
-    <t>stal6</t>
-  </si>
-  <si>
-    <t>stal7</t>
-  </si>
-  <si>
-    <t>stal8</t>
-  </si>
-  <si>
-    <t>stal9</t>
-  </si>
-  <si>
-    <t>stal10</t>
-  </si>
-  <si>
-    <t>stal11</t>
-  </si>
-  <si>
-    <t>stal12</t>
-  </si>
-  <si>
-    <t>stal13</t>
-  </si>
-  <si>
-    <t>stal14</t>
-  </si>
-  <si>
-    <t>stal15</t>
-  </si>
-  <si>
-    <t>stal16</t>
-  </si>
-  <si>
-    <t>stal17</t>
-  </si>
-  <si>
-    <t>stal18</t>
-  </si>
-  <si>
-    <t>stal19</t>
-  </si>
-  <si>
-    <t>stal20</t>
-  </si>
-  <si>
-    <t>stal21</t>
-  </si>
-  <si>
-    <t>stal22</t>
-  </si>
-  <si>
-    <t>stal23</t>
-  </si>
-  <si>
-    <t>stal24</t>
-  </si>
-  <si>
-    <t>stal25</t>
-  </si>
-  <si>
-    <t>stal26</t>
-  </si>
-  <si>
-    <t>stal27</t>
-  </si>
-  <si>
-    <t>stal28</t>
-  </si>
-  <si>
-    <t>stal29</t>
-  </si>
-  <si>
-    <t>stal30</t>
-  </si>
-  <si>
-    <t>stal31</t>
-  </si>
-  <si>
-    <t>stal32</t>
-  </si>
-  <si>
-    <t>stal33</t>
-  </si>
-  <si>
-    <t>stal34</t>
-  </si>
-  <si>
-    <t>stal35</t>
-  </si>
-  <si>
-    <t>stal36</t>
-  </si>
-  <si>
-    <t>stal37</t>
+    <t>7.8852966</t>
+  </si>
+  <si>
+    <t>48.1795567</t>
+  </si>
+  <si>
+    <t>3. Mundart des Frickthalers.</t>
+  </si>
+  <si>
+    <t>Fricktal</t>
+  </si>
+  <si>
+    <t>8.0342415</t>
+  </si>
+  <si>
+    <t>47.5050523</t>
+  </si>
+  <si>
+    <t>Kanton Thurgau.</t>
+  </si>
+  <si>
+    <t>Kanton Thurgau</t>
+  </si>
+  <si>
+    <t>9.0660544</t>
+  </si>
+  <si>
+    <t>47.5778224</t>
+  </si>
+  <si>
+    <t>1. Die allgemeine Mundart der Oberthurgauer voran um Bischofzell.</t>
+  </si>
+  <si>
+    <t>Oberthurgau um Bischofzell</t>
+  </si>
+  <si>
+    <t>47.4919411</t>
+  </si>
+  <si>
+    <t>9.2389914</t>
+  </si>
+  <si>
+    <t>2. Mundart der Thurgauer am Untersee, voran um Steckborn und Ermatingen.</t>
+  </si>
+  <si>
+    <t>Thurgau am Untersee um Steckborn und Ermatingen</t>
+  </si>
+  <si>
+    <t>8.9836076</t>
+  </si>
+  <si>
+    <t>47.6633908</t>
+  </si>
+  <si>
+    <t>9.0799551</t>
+  </si>
+  <si>
+    <t>47.6678843</t>
+  </si>
+  <si>
+    <t>Kanton Wallis.</t>
+  </si>
+  <si>
+    <t>1. Mundart der Gombser.</t>
+  </si>
+  <si>
+    <t>Kanton Wallis</t>
+  </si>
+  <si>
+    <t>Goms</t>
+  </si>
+  <si>
+    <t>46.4695401</t>
+  </si>
+  <si>
+    <t>8.2462799</t>
+  </si>
+  <si>
+    <t>7.5941396</t>
+  </si>
+  <si>
+    <t>46.1837601</t>
+  </si>
+  <si>
+    <t>2. Mundart der Vispacher und Leuker.</t>
+  </si>
+  <si>
+    <t>Visp und Leuk</t>
+  </si>
+  <si>
+    <t>46.2938739</t>
+  </si>
+  <si>
+    <t>7.8811032</t>
+  </si>
+  <si>
+    <t>46.3135025</t>
+  </si>
+  <si>
+    <t>7.6358867</t>
+  </si>
+  <si>
+    <t>3. Mundart der Lötscher.</t>
+  </si>
+  <si>
+    <t>7.7927161</t>
+  </si>
+  <si>
+    <t>46.4069452</t>
+  </si>
+  <si>
+    <t>Lötschental</t>
+  </si>
+  <si>
+    <t>4. Mundart der Rarer.</t>
+  </si>
+  <si>
+    <t>Raron</t>
+  </si>
+  <si>
+    <t>7.8226936</t>
+  </si>
+  <si>
+    <t>46.3400652</t>
+  </si>
+  <si>
+    <t>II. Im Romanschen.</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>I. Im Dialekt des obern Bundes längs dem Vorderrhein oder im Dialekt des sogenannten Oberländers.</t>
+  </si>
+  <si>
+    <t>a. Wie man es schrieb in vorigen Jahrhunderten, und noch jetzo üblich ist, voran in den reformirten Bezirken des Oberlandes.</t>
+  </si>
+  <si>
+    <t>Unsicher bei zeitlicher Relevanz</t>
+  </si>
+  <si>
+    <t>b. Wie man es jetzo schreibt und redet, voran im katholischen Oberlande,</t>
+  </si>
+  <si>
+    <t>a. Im Dialekt des Domleschgers.</t>
+  </si>
+  <si>
+    <t>Domlesch</t>
+  </si>
+  <si>
+    <t>9.4446027</t>
+  </si>
+  <si>
+    <t>46.7493236</t>
+  </si>
+  <si>
+    <t>b. Im Dialekt des Oberhalbsteiners.</t>
+  </si>
+  <si>
+    <t>Oberhalbstein</t>
+  </si>
+  <si>
+    <t>9.5951599</t>
+  </si>
+  <si>
+    <t>46.5920619</t>
+  </si>
+  <si>
+    <t>II. Im Dialekt der Engadiner.</t>
+  </si>
+  <si>
+    <t>a. Im Dialekt der Oberengadiner.</t>
+  </si>
+  <si>
+    <t>Engadin</t>
+  </si>
+  <si>
+    <t>9.8496177</t>
+  </si>
+  <si>
+    <t>46.4982623</t>
+  </si>
+  <si>
+    <t>Oberengadin</t>
+  </si>
+  <si>
+    <t>9.8579863</t>
+  </si>
+  <si>
+    <t>46.5019694</t>
+  </si>
+  <si>
+    <t>b. Im Dialekt der Unterengadiner.</t>
+  </si>
+  <si>
+    <t>Unterengadin</t>
+  </si>
+  <si>
+    <t>10.2499570</t>
+  </si>
+  <si>
+    <t>46.7499990</t>
   </si>
 </sst>
 </file>
@@ -1338,15 +1434,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677BF33D-024D-394D-9965-483490377549}">
-  <dimension ref="A1:AB59"/>
+  <dimension ref="A1:AB78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U78" sqref="U78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="11" max="11" width="18.5" customWidth="1"/>
     <col min="14" max="14" width="11.1640625" style="5" customWidth="1"/>
     <col min="15" max="21" width="10.83203125" style="5"/>
   </cols>
@@ -2290,7 +2387,7 @@
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
-        <v>264</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
@@ -2328,7 +2425,7 @@
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
-        <v>265</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
@@ -2366,7 +2463,7 @@
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
-        <v>266</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
@@ -2404,7 +2501,7 @@
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
-        <v>267</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
@@ -2442,7 +2539,7 @@
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
-        <v>268</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
@@ -2480,7 +2577,7 @@
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
-        <v>269</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -2518,7 +2615,7 @@
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
-        <v>270</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
         <v>29</v>
@@ -2562,7 +2659,7 @@
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
-        <v>271</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
@@ -2600,7 +2697,7 @@
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
-        <v>272</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
         <v>29</v>
@@ -2638,7 +2735,7 @@
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
-        <v>273</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
@@ -2676,7 +2773,7 @@
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>274</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
         <v>29</v>
@@ -2714,7 +2811,7 @@
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
-        <v>275</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
         <v>29</v>
@@ -2752,7 +2849,7 @@
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
-        <v>276</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
         <v>29</v>
@@ -2790,7 +2887,7 @@
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
-        <v>277</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
         <v>29</v>
@@ -2828,7 +2925,7 @@
     </row>
     <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
         <v>29</v>
@@ -2866,7 +2963,7 @@
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
-        <v>279</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
         <v>29</v>
@@ -2904,7 +3001,7 @@
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
         <v>29</v>
@@ -2945,7 +3042,7 @@
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
-        <v>281</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
         <v>29</v>
@@ -2986,7 +3083,7 @@
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
-        <v>282</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
         <v>29</v>
@@ -3024,7 +3121,7 @@
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
-        <v>283</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s">
         <v>29</v>
@@ -3062,7 +3159,7 @@
     </row>
     <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
-        <v>284</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
         <v>29</v>
@@ -3100,7 +3197,7 @@
     </row>
     <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
-        <v>285</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
         <v>29</v>
@@ -3144,7 +3241,7 @@
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
-        <v>286</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
         <v>29</v>
@@ -3182,7 +3279,7 @@
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
-        <v>287</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
         <v>29</v>
@@ -3220,7 +3317,7 @@
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
-        <v>288</v>
+        <v>28</v>
       </c>
       <c r="C48" t="s">
         <v>29</v>
@@ -3258,7 +3355,7 @@
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B49" s="6" t="s">
-        <v>289</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
         <v>29</v>
@@ -3296,7 +3393,7 @@
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
-        <v>290</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
         <v>29</v>
@@ -3334,7 +3431,7 @@
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
-        <v>291</v>
+        <v>28</v>
       </c>
       <c r="C51" t="s">
         <v>29</v>
@@ -3372,7 +3469,7 @@
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B52" s="6" t="s">
-        <v>292</v>
+        <v>28</v>
       </c>
       <c r="C52" t="s">
         <v>29</v>
@@ -3410,7 +3507,7 @@
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
-        <v>293</v>
+        <v>28</v>
       </c>
       <c r="C53" t="s">
         <v>29</v>
@@ -3448,7 +3545,7 @@
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B54" s="6" t="s">
-        <v>294</v>
+        <v>28</v>
       </c>
       <c r="C54" t="s">
         <v>29</v>
@@ -3486,7 +3583,7 @@
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B55" s="6" t="s">
-        <v>295</v>
+        <v>28</v>
       </c>
       <c r="C55" t="s">
         <v>29</v>
@@ -3494,8 +3591,8 @@
       <c r="D55">
         <v>328</v>
       </c>
-      <c r="E55" t="s">
-        <v>35</v>
+      <c r="E55">
+        <v>335</v>
       </c>
       <c r="J55" t="s">
         <v>48</v>
@@ -3524,7 +3621,7 @@
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B56" s="6" t="s">
-        <v>296</v>
+        <v>28</v>
       </c>
       <c r="C56" t="s">
         <v>29</v>
@@ -3562,7 +3659,7 @@
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B57" s="6" t="s">
-        <v>297</v>
+        <v>28</v>
       </c>
       <c r="C57" t="s">
         <v>29</v>
@@ -3606,7 +3703,7 @@
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
-        <v>298</v>
+        <v>28</v>
       </c>
       <c r="C58" t="s">
         <v>29</v>
@@ -3644,7 +3741,7 @@
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B59" s="6" t="s">
-        <v>299</v>
+        <v>28</v>
       </c>
       <c r="C59" t="s">
         <v>29</v>
@@ -3652,17 +3749,769 @@
       <c r="D59">
         <v>331</v>
       </c>
+      <c r="E59">
+        <v>333</v>
+      </c>
       <c r="J59" t="s">
         <v>48</v>
       </c>
       <c r="K59" t="s">
         <v>263</v>
       </c>
+      <c r="L59" t="s">
+        <v>51</v>
+      </c>
+      <c r="M59" t="s">
+        <v>38</v>
+      </c>
+      <c r="N59" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="O59" s="5" t="s">
+        <v>264</v>
+      </c>
       <c r="V59" t="s">
         <v>262</v>
       </c>
       <c r="W59" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B60" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60">
+        <v>333</v>
+      </c>
+      <c r="E60">
+        <v>335</v>
+      </c>
+      <c r="J60" t="s">
+        <v>48</v>
+      </c>
+      <c r="K60" t="s">
+        <v>267</v>
+      </c>
+      <c r="L60" t="s">
+        <v>51</v>
+      </c>
+      <c r="M60" t="s">
+        <v>38</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="O60" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="V60" t="s">
+        <v>266</v>
+      </c>
+      <c r="W60" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B61" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61">
+        <v>335</v>
+      </c>
+      <c r="E61">
+        <v>339</v>
+      </c>
+      <c r="J61" t="s">
+        <v>48</v>
+      </c>
+      <c r="K61" t="s">
+        <v>271</v>
+      </c>
+      <c r="L61" t="s">
+        <v>51</v>
+      </c>
+      <c r="M61" t="s">
+        <v>38</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="V61" t="s">
+        <v>270</v>
+      </c>
+      <c r="W61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B62" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62">
+        <v>335</v>
+      </c>
+      <c r="E62">
+        <v>337</v>
+      </c>
+      <c r="J62" t="s">
+        <v>48</v>
+      </c>
+      <c r="K62" t="s">
+        <v>275</v>
+      </c>
+      <c r="L62" t="s">
+        <v>51</v>
+      </c>
+      <c r="M62" t="s">
+        <v>38</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="O62" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="V62" t="s">
+        <v>274</v>
+      </c>
+      <c r="W62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B63" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63">
+        <v>337</v>
+      </c>
+      <c r="E63">
+        <v>339</v>
+      </c>
+      <c r="J63" t="s">
+        <v>48</v>
+      </c>
+      <c r="K63" t="s">
+        <v>279</v>
+      </c>
+      <c r="L63" t="s">
+        <v>51</v>
+      </c>
+      <c r="M63" t="s">
+        <v>38</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="O63" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="P63" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q63" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="V63" t="s">
+        <v>278</v>
+      </c>
+      <c r="W63" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B64" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64">
+        <v>339</v>
+      </c>
+      <c r="E64">
+        <v>346</v>
+      </c>
+      <c r="J64" t="s">
+        <v>48</v>
+      </c>
+      <c r="K64" t="s">
+        <v>286</v>
+      </c>
+      <c r="L64" t="s">
+        <v>51</v>
+      </c>
+      <c r="M64" t="s">
+        <v>52</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="O64" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="V64" t="s">
+        <v>284</v>
+      </c>
+      <c r="W64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B65" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65">
+        <v>339</v>
+      </c>
+      <c r="E65">
+        <v>340</v>
+      </c>
+      <c r="J65" t="s">
+        <v>48</v>
+      </c>
+      <c r="K65" t="s">
+        <v>287</v>
+      </c>
+      <c r="L65" t="s">
+        <v>51</v>
+      </c>
+      <c r="M65" t="s">
+        <v>38</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="O65" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="V65" t="s">
+        <v>285</v>
+      </c>
+      <c r="W65" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B66" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66">
+        <v>340</v>
+      </c>
+      <c r="E66">
+        <v>342</v>
+      </c>
+      <c r="J66" t="s">
+        <v>48</v>
+      </c>
+      <c r="K66" t="s">
+        <v>293</v>
+      </c>
+      <c r="L66" t="s">
+        <v>51</v>
+      </c>
+      <c r="M66" t="s">
+        <v>38</v>
+      </c>
+      <c r="N66" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="O66" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="P66" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q66" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="V66" t="s">
+        <v>292</v>
+      </c>
+      <c r="W66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B67" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67">
+        <v>342</v>
+      </c>
+      <c r="E67">
+        <v>344</v>
+      </c>
+      <c r="J67" t="s">
+        <v>48</v>
+      </c>
+      <c r="K67" t="s">
+        <v>301</v>
+      </c>
+      <c r="L67" t="s">
+        <v>51</v>
+      </c>
+      <c r="M67" t="s">
+        <v>38</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="O67" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="V67" t="s">
+        <v>298</v>
+      </c>
+      <c r="W67" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B68" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68">
+        <v>344</v>
+      </c>
+      <c r="E68">
+        <v>346</v>
+      </c>
+      <c r="J68" t="s">
+        <v>48</v>
+      </c>
+      <c r="K68" t="s">
+        <v>303</v>
+      </c>
+      <c r="L68" t="s">
+        <v>51</v>
+      </c>
+      <c r="M68" t="s">
+        <v>38</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="O68" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="V68" t="s">
+        <v>302</v>
+      </c>
+      <c r="W68" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B69" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69">
+        <v>347</v>
+      </c>
+      <c r="E69">
+        <v>360</v>
+      </c>
+      <c r="J69" t="s">
+        <v>48</v>
+      </c>
+      <c r="K69">
+        <v>999</v>
+      </c>
+      <c r="L69">
+        <v>999</v>
+      </c>
+      <c r="M69">
+        <v>999</v>
+      </c>
+      <c r="N69" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="O69" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="V69" t="s">
+        <v>306</v>
+      </c>
+      <c r="W69" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B70" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70">
+        <v>349</v>
+      </c>
+      <c r="E70">
+        <v>360</v>
+      </c>
+      <c r="J70" t="s">
+        <v>48</v>
+      </c>
+      <c r="K70" t="s">
+        <v>231</v>
+      </c>
+      <c r="L70" t="s">
+        <v>51</v>
+      </c>
+      <c r="M70" t="s">
+        <v>52</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O70" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="V70" t="s">
+        <v>230</v>
+      </c>
+      <c r="W70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B71" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" t="s">
+        <v>29</v>
+      </c>
+      <c r="D71">
+        <v>350</v>
+      </c>
+      <c r="E71">
+        <v>353</v>
+      </c>
+      <c r="J71" t="s">
+        <v>48</v>
+      </c>
+      <c r="K71" t="s">
+        <v>78</v>
+      </c>
+      <c r="L71" t="s">
+        <v>51</v>
+      </c>
+      <c r="M71" t="s">
+        <v>52</v>
+      </c>
+      <c r="N71" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O71" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="V71" t="s">
+        <v>308</v>
+      </c>
+      <c r="W71" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B72" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72">
+        <v>350</v>
+      </c>
+      <c r="E72">
+        <v>351</v>
+      </c>
+      <c r="J72" t="s">
+        <v>48</v>
+      </c>
+      <c r="K72" t="s">
+        <v>78</v>
+      </c>
+      <c r="L72" t="s">
+        <v>51</v>
+      </c>
+      <c r="M72" t="s">
+        <v>52</v>
+      </c>
+      <c r="N72" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O72" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="V72" t="s">
+        <v>309</v>
+      </c>
+      <c r="W72" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B73" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73">
+        <v>351</v>
+      </c>
+      <c r="E73">
+        <v>353</v>
+      </c>
+      <c r="J73" t="s">
+        <v>48</v>
+      </c>
+      <c r="K73" t="s">
+        <v>78</v>
+      </c>
+      <c r="L73" t="s">
+        <v>51</v>
+      </c>
+      <c r="M73" t="s">
+        <v>52</v>
+      </c>
+      <c r="N73" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O73" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="V73" t="s">
+        <v>311</v>
+      </c>
+      <c r="W73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B74" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74">
+        <v>353</v>
+      </c>
+      <c r="E74">
+        <v>354</v>
+      </c>
+      <c r="J74" t="s">
+        <v>48</v>
+      </c>
+      <c r="K74" t="s">
+        <v>313</v>
+      </c>
+      <c r="L74" t="s">
+        <v>51</v>
+      </c>
+      <c r="M74" t="s">
+        <v>42</v>
+      </c>
+      <c r="N74" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="O74" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="V74" t="s">
+        <v>312</v>
+      </c>
+      <c r="W74" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B75" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75">
+        <v>354</v>
+      </c>
+      <c r="E75">
+        <v>355</v>
+      </c>
+      <c r="J75" t="s">
+        <v>48</v>
+      </c>
+      <c r="K75" t="s">
+        <v>317</v>
+      </c>
+      <c r="L75" t="s">
+        <v>51</v>
+      </c>
+      <c r="M75" t="s">
+        <v>38</v>
+      </c>
+      <c r="N75" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="O75" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="V75" t="s">
+        <v>316</v>
+      </c>
+      <c r="W75" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B76" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76">
+        <v>356</v>
+      </c>
+      <c r="E76">
+        <v>360</v>
+      </c>
+      <c r="J76" t="s">
+        <v>48</v>
+      </c>
+      <c r="K76" t="s">
+        <v>322</v>
+      </c>
+      <c r="L76" t="s">
+        <v>51</v>
+      </c>
+      <c r="M76" t="s">
+        <v>52</v>
+      </c>
+      <c r="N76" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="O76" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="V76" t="s">
+        <v>320</v>
+      </c>
+      <c r="W76" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B77" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77">
+        <v>356</v>
+      </c>
+      <c r="E77">
+        <v>357</v>
+      </c>
+      <c r="J77" t="s">
+        <v>48</v>
+      </c>
+      <c r="K77" t="s">
+        <v>325</v>
+      </c>
+      <c r="L77" t="s">
+        <v>51</v>
+      </c>
+      <c r="M77" t="s">
+        <v>38</v>
+      </c>
+      <c r="N77" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="O77" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="V77" t="s">
+        <v>321</v>
+      </c>
+      <c r="W77" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B78" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" t="s">
+        <v>29</v>
+      </c>
+      <c r="D78">
+        <v>357</v>
+      </c>
+      <c r="E78">
+        <v>360</v>
+      </c>
+      <c r="J78" t="s">
+        <v>48</v>
+      </c>
+      <c r="K78" t="s">
+        <v>329</v>
+      </c>
+      <c r="L78" t="s">
+        <v>51</v>
+      </c>
+      <c r="M78" t="s">
+        <v>38</v>
+      </c>
+      <c r="N78" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="O78" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="V78" t="s">
+        <v>328</v>
+      </c>
+      <c r="W78" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Datasets/Stalder/Data/Stalder_JR.xlsx
+++ b/Datasets/Stalder/Data/Stalder_JR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julerickert/Documents/Akademie_Projekt/Datasets/Stalder/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFCF24C-40B3-F04F-A624-CC4F66BABE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD0F37E-6D08-934E-A86C-D4AF3F70EFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="18000" xr2:uid="{83D778BB-B2D8-FD4F-A694-2AEDDD4D8C05}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{83D778BB-B2D8-FD4F-A694-2AEDDD4D8C05}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="459">
   <si>
     <t>ID</t>
   </si>
@@ -1032,6 +1032,387 @@
   </si>
   <si>
     <t>46.7499990</t>
+  </si>
+  <si>
+    <t>III. In einem französelnden Patois oder in einem mehr oder weniger romanschen Patois.</t>
+  </si>
+  <si>
+    <t>Französische Schweiz</t>
+  </si>
+  <si>
+    <t>6.8055351</t>
+  </si>
+  <si>
+    <t>46.7263374</t>
+  </si>
+  <si>
+    <t>Tal Delsperg</t>
+  </si>
+  <si>
+    <t>7.3393789</t>
+  </si>
+  <si>
+    <t>47.3610789</t>
+  </si>
+  <si>
+    <t>Heute: Délemont/Delsberg</t>
+  </si>
+  <si>
+    <t>7.0007545</t>
+  </si>
+  <si>
+    <t>47.1928822</t>
+  </si>
+  <si>
+    <t>Freiberge</t>
+  </si>
+  <si>
+    <t>Immertal</t>
+  </si>
+  <si>
+    <t>7.0513459</t>
+  </si>
+  <si>
+    <t>47.1652476</t>
+  </si>
+  <si>
+    <t>Heute: Vallon de Saint-Imier</t>
+  </si>
+  <si>
+    <t>Münstertal</t>
+  </si>
+  <si>
+    <t>7.3718330</t>
+  </si>
+  <si>
+    <t>47.2783427</t>
+  </si>
+  <si>
+    <t>Heute: Moutier</t>
+  </si>
+  <si>
+    <t>Kanton Freyburg.</t>
+  </si>
+  <si>
+    <t>7.0594665</t>
+  </si>
+  <si>
+    <t>46.5776088</t>
+  </si>
+  <si>
+    <t>1. In der oberländischen Mundart oder In reman Gruyèrin.</t>
+  </si>
+  <si>
+    <t>7.0843310</t>
+  </si>
+  <si>
+    <t>46.8291023</t>
+  </si>
+  <si>
+    <t>Freiburgisches Oberland um Gruyère</t>
+  </si>
+  <si>
+    <t>Freiburgisches Mittelland</t>
+  </si>
+  <si>
+    <t>Unsicher bei Georef</t>
+  </si>
+  <si>
+    <t>Freiburgisches Niederland</t>
+  </si>
+  <si>
+    <t>6.8718685</t>
+  </si>
+  <si>
+    <t>46.8437222</t>
+  </si>
+  <si>
+    <t>Heute: Broye</t>
+  </si>
+  <si>
+    <t>3. In der niederländischen Mundart. oder In patei broyâ.</t>
+  </si>
+  <si>
+    <t>2. In der mittelländischen Mundart. oder In reman quètzou.</t>
+  </si>
+  <si>
+    <t>3. Im Patois aus dem Immerthale. (val de saint Imier.)</t>
+  </si>
+  <si>
+    <t>2. Im Patois aus den Freibergen. (Franche montagne.)</t>
+  </si>
+  <si>
+    <t>1. Im Patois aus dem Thale Delsperg. (de la vallée de Délemont.)</t>
+  </si>
+  <si>
+    <t>4. Im Patois aus dem Münsterthale. (val de Moûtier.)</t>
+  </si>
+  <si>
+    <t>Kanton Waadt.</t>
+  </si>
+  <si>
+    <t>1. Im Patois von St. Croix und Bülle im Distrikd Grandson.</t>
+  </si>
+  <si>
+    <t>St. Croix und Bülle</t>
+  </si>
+  <si>
+    <t>6.5013325</t>
+  </si>
+  <si>
+    <t>46.8215905</t>
+  </si>
+  <si>
+    <t>7.0570085</t>
+  </si>
+  <si>
+    <t>46.6155412</t>
+  </si>
+  <si>
+    <t>Kanton Waadt</t>
+  </si>
+  <si>
+    <t>6.5794791</t>
+  </si>
+  <si>
+    <t>46.6134039</t>
+  </si>
+  <si>
+    <t>1. Im Patois von St. Cierge im Distrikt Moudon.</t>
+  </si>
+  <si>
+    <t>St. Cierge</t>
+  </si>
+  <si>
+    <t>6.7400309</t>
+  </si>
+  <si>
+    <t>46.6880246</t>
+  </si>
+  <si>
+    <t>3. Im Patois von Valorbe im Distrikt Orbe.</t>
+  </si>
+  <si>
+    <t>Valorbe</t>
+  </si>
+  <si>
+    <t>6.3786647</t>
+  </si>
+  <si>
+    <t>46.7118325</t>
+  </si>
+  <si>
+    <t>Heute: Vallorbe</t>
+  </si>
+  <si>
+    <t>4. Im Patois von Montreux im Distrikt Vevey.</t>
+  </si>
+  <si>
+    <t>Montreux</t>
+  </si>
+  <si>
+    <t>6.9141832</t>
+  </si>
+  <si>
+    <t>46.4323658</t>
+  </si>
+  <si>
+    <t>Orment-Dessus</t>
+  </si>
+  <si>
+    <t>5. Im Patois von Orment-Dessus im Distrikt Aigle.</t>
+  </si>
+  <si>
+    <t>7.1598010</t>
+  </si>
+  <si>
+    <t>46.3527993</t>
+  </si>
+  <si>
+    <t>Heute: Ormont-Dessus</t>
+  </si>
+  <si>
+    <t>Im Patois aus dem Unterwallis.</t>
+  </si>
+  <si>
+    <t>Unterwallis</t>
+  </si>
+  <si>
+    <t>6.9556952</t>
+  </si>
+  <si>
+    <t>46.1533903</t>
+  </si>
+  <si>
+    <t>Kanton Neuenburg</t>
+  </si>
+  <si>
+    <t>Kanton Neuenburg.</t>
+  </si>
+  <si>
+    <t>Im Patois aus den Neuenburger Gebirgen.</t>
+  </si>
+  <si>
+    <t>Neuenburger Gebirge</t>
+  </si>
+  <si>
+    <t>6.7931216</t>
+  </si>
+  <si>
+    <t>47.0019480</t>
+  </si>
+  <si>
+    <t>6.9165462</t>
+  </si>
+  <si>
+    <t>47.0519296</t>
+  </si>
+  <si>
+    <t>Kanton Genf.</t>
+  </si>
+  <si>
+    <t>Im Patois aus den nächsten Umgebungen der Stadt.</t>
+  </si>
+  <si>
+    <t>Kanton Genf</t>
+  </si>
+  <si>
+    <t>Nächste Umgebung Genfs</t>
+  </si>
+  <si>
+    <t>6.1317628</t>
+  </si>
+  <si>
+    <t>46.2003855</t>
+  </si>
+  <si>
+    <t>Seitenzahl in Buch falsch</t>
+  </si>
+  <si>
+    <t>IV. Im italiänischen Dialekt.</t>
+  </si>
+  <si>
+    <t>Im Dialekt aus dem Hochgerichte Bergell.</t>
+  </si>
+  <si>
+    <t>Italienische Schweiz</t>
+  </si>
+  <si>
+    <t>8.8796392</t>
+  </si>
+  <si>
+    <t>46.3132183</t>
+  </si>
+  <si>
+    <t>Hochgericht Bergell</t>
+  </si>
+  <si>
+    <t>9.7049832</t>
+  </si>
+  <si>
+    <t>46.2949438</t>
+  </si>
+  <si>
+    <t>Kanton Tessin.</t>
+  </si>
+  <si>
+    <t>Kanton Tessin</t>
+  </si>
+  <si>
+    <t>8.7899704</t>
+  </si>
+  <si>
+    <t>46.3258228</t>
+  </si>
+  <si>
+    <t>Leventina</t>
+  </si>
+  <si>
+    <t>8.7127071</t>
+  </si>
+  <si>
+    <t>46.5085690</t>
+  </si>
+  <si>
+    <t>1. Im Dialekt aus dem Distrikt Leventina.</t>
+  </si>
+  <si>
+    <t>2. Im Dialekt aus dem Distrikt Blegno.</t>
+  </si>
+  <si>
+    <t>Blegno</t>
+  </si>
+  <si>
+    <t>8.9367965</t>
+  </si>
+  <si>
+    <t>46.5301954</t>
+  </si>
+  <si>
+    <t>Heute: Blenio</t>
+  </si>
+  <si>
+    <t>3. Im Dialekt aus dem Disktrikt Bellinzona.</t>
+  </si>
+  <si>
+    <t>Bellinzona</t>
+  </si>
+  <si>
+    <t>9.0225414</t>
+  </si>
+  <si>
+    <t>46.1925511</t>
+  </si>
+  <si>
+    <t>4. Im Dialekt aus dem Distrikt Locarno.</t>
+  </si>
+  <si>
+    <t>Locarno</t>
+  </si>
+  <si>
+    <t>8.7895706</t>
+  </si>
+  <si>
+    <t>46.1678987</t>
+  </si>
+  <si>
+    <t>Voran im Dialekt der Hirten aus dem Thale Verzaska im nämlichen Distrikt.</t>
+  </si>
+  <si>
+    <t>Tal Verzaska</t>
+  </si>
+  <si>
+    <t>8.7968047</t>
+  </si>
+  <si>
+    <t>46.3071373</t>
+  </si>
+  <si>
+    <t>Heute: Verzasca</t>
+  </si>
+  <si>
+    <t>5. Im Dialekt aus dem Distrikt Vallemaggia, voran im Thale Lavizzara.</t>
+  </si>
+  <si>
+    <t>Tal Lavizzara in Vallemaggia</t>
+  </si>
+  <si>
+    <t>8.6528525</t>
+  </si>
+  <si>
+    <t>46.3993458</t>
+  </si>
+  <si>
+    <t>6. Im Dialekt aus dem Distrikt Lugano, voran um den See gleichen Namens.</t>
+  </si>
+  <si>
+    <t>Lugano</t>
+  </si>
+  <si>
+    <t>8.9572852</t>
+  </si>
+  <si>
+    <t>46.0040189</t>
   </si>
 </sst>
 </file>
@@ -1434,16 +1815,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677BF33D-024D-394D-9965-483490377549}">
-  <dimension ref="A1:AB78"/>
+  <dimension ref="A1:AB111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U78" sqref="U78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N111" sqref="N111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="11" max="11" width="18.5" customWidth="1"/>
+    <col min="13" max="13" width="23.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.1640625" style="5" customWidth="1"/>
     <col min="15" max="21" width="10.83203125" style="5"/>
   </cols>
@@ -4514,6 +4896,1314 @@
         <v>82</v>
       </c>
     </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B79" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" t="s">
+        <v>29</v>
+      </c>
+      <c r="D79">
+        <v>361</v>
+      </c>
+      <c r="E79">
+        <v>404</v>
+      </c>
+      <c r="J79" t="s">
+        <v>48</v>
+      </c>
+      <c r="K79" t="s">
+        <v>333</v>
+      </c>
+      <c r="L79" t="s">
+        <v>51</v>
+      </c>
+      <c r="M79" t="s">
+        <v>52</v>
+      </c>
+      <c r="N79" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="O79" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="V79" t="s">
+        <v>332</v>
+      </c>
+      <c r="W79" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B80" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80">
+        <v>363</v>
+      </c>
+      <c r="E80">
+        <v>374</v>
+      </c>
+      <c r="J80" t="s">
+        <v>48</v>
+      </c>
+      <c r="K80" t="s">
+        <v>65</v>
+      </c>
+      <c r="L80" t="s">
+        <v>51</v>
+      </c>
+      <c r="M80" t="s">
+        <v>52</v>
+      </c>
+      <c r="N80" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O80" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="V80" t="s">
+        <v>64</v>
+      </c>
+      <c r="W80" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B81" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81">
+        <v>364</v>
+      </c>
+      <c r="E81">
+        <v>366</v>
+      </c>
+      <c r="J81" t="s">
+        <v>48</v>
+      </c>
+      <c r="K81" t="s">
+        <v>336</v>
+      </c>
+      <c r="L81" t="s">
+        <v>51</v>
+      </c>
+      <c r="M81" t="s">
+        <v>38</v>
+      </c>
+      <c r="N81" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="O81" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="V81" t="s">
+        <v>368</v>
+      </c>
+      <c r="W81" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="82" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B82" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" t="s">
+        <v>29</v>
+      </c>
+      <c r="D82">
+        <v>366</v>
+      </c>
+      <c r="E82">
+        <v>369</v>
+      </c>
+      <c r="J82" t="s">
+        <v>48</v>
+      </c>
+      <c r="K82" t="s">
+        <v>342</v>
+      </c>
+      <c r="L82" t="s">
+        <v>51</v>
+      </c>
+      <c r="M82" t="s">
+        <v>38</v>
+      </c>
+      <c r="N82" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="O82" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="V82" t="s">
+        <v>367</v>
+      </c>
+      <c r="W82" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B83" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" t="s">
+        <v>29</v>
+      </c>
+      <c r="D83">
+        <v>369</v>
+      </c>
+      <c r="E83">
+        <v>372</v>
+      </c>
+      <c r="J83" t="s">
+        <v>48</v>
+      </c>
+      <c r="K83" t="s">
+        <v>343</v>
+      </c>
+      <c r="L83" t="s">
+        <v>51</v>
+      </c>
+      <c r="M83" t="s">
+        <v>38</v>
+      </c>
+      <c r="N83" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="O83" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="V83" t="s">
+        <v>366</v>
+      </c>
+      <c r="W83" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="84" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B84" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" t="s">
+        <v>29</v>
+      </c>
+      <c r="D84">
+        <v>372</v>
+      </c>
+      <c r="E84">
+        <v>374</v>
+      </c>
+      <c r="J84" t="s">
+        <v>48</v>
+      </c>
+      <c r="K84" t="s">
+        <v>347</v>
+      </c>
+      <c r="L84" t="s">
+        <v>51</v>
+      </c>
+      <c r="M84" t="s">
+        <v>38</v>
+      </c>
+      <c r="N84" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="O84" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="V84" t="s">
+        <v>369</v>
+      </c>
+      <c r="W84" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="85" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B85" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" t="s">
+        <v>29</v>
+      </c>
+      <c r="D85">
+        <v>374</v>
+      </c>
+      <c r="E85">
+        <v>388</v>
+      </c>
+      <c r="J85" t="s">
+        <v>48</v>
+      </c>
+      <c r="K85" t="s">
+        <v>164</v>
+      </c>
+      <c r="L85" t="s">
+        <v>51</v>
+      </c>
+      <c r="M85" t="s">
+        <v>38</v>
+      </c>
+      <c r="N85" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="O85" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="V85" t="s">
+        <v>351</v>
+      </c>
+      <c r="W85" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B86" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" t="s">
+        <v>29</v>
+      </c>
+      <c r="D86">
+        <v>377</v>
+      </c>
+      <c r="E86">
+        <v>380</v>
+      </c>
+      <c r="J86" t="s">
+        <v>48</v>
+      </c>
+      <c r="K86" t="s">
+        <v>357</v>
+      </c>
+      <c r="L86" t="s">
+        <v>51</v>
+      </c>
+      <c r="M86" t="s">
+        <v>38</v>
+      </c>
+      <c r="N86" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="O86" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="V86" t="s">
+        <v>354</v>
+      </c>
+      <c r="W86" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="87" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B87" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" t="s">
+        <v>29</v>
+      </c>
+      <c r="D87">
+        <v>381</v>
+      </c>
+      <c r="E87">
+        <v>384</v>
+      </c>
+      <c r="J87" t="s">
+        <v>48</v>
+      </c>
+      <c r="K87" t="s">
+        <v>358</v>
+      </c>
+      <c r="L87" t="s">
+        <v>51</v>
+      </c>
+      <c r="M87" t="s">
+        <v>38</v>
+      </c>
+      <c r="N87" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="O87" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="V87" t="s">
+        <v>365</v>
+      </c>
+      <c r="W87" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="88" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B88" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88" t="s">
+        <v>29</v>
+      </c>
+      <c r="D88">
+        <v>384</v>
+      </c>
+      <c r="E88">
+        <v>388</v>
+      </c>
+      <c r="J88" t="s">
+        <v>48</v>
+      </c>
+      <c r="K88" t="s">
+        <v>360</v>
+      </c>
+      <c r="L88" t="s">
+        <v>51</v>
+      </c>
+      <c r="M88" t="s">
+        <v>38</v>
+      </c>
+      <c r="N88" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="O88" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="V88" t="s">
+        <v>364</v>
+      </c>
+      <c r="W88" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="89" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B89" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" t="s">
+        <v>29</v>
+      </c>
+      <c r="D89">
+        <v>388</v>
+      </c>
+      <c r="E89">
+        <v>399</v>
+      </c>
+      <c r="J89" t="s">
+        <v>48</v>
+      </c>
+      <c r="K89" t="s">
+        <v>377</v>
+      </c>
+      <c r="L89" t="s">
+        <v>51</v>
+      </c>
+      <c r="M89" t="s">
+        <v>52</v>
+      </c>
+      <c r="N89" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="O89" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="V89" t="s">
+        <v>370</v>
+      </c>
+      <c r="W89" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B90" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" t="s">
+        <v>29</v>
+      </c>
+      <c r="D90">
+        <v>388</v>
+      </c>
+      <c r="E90">
+        <v>391</v>
+      </c>
+      <c r="J90" t="s">
+        <v>48</v>
+      </c>
+      <c r="K90" t="s">
+        <v>372</v>
+      </c>
+      <c r="L90" t="s">
+        <v>51</v>
+      </c>
+      <c r="M90" t="s">
+        <v>42</v>
+      </c>
+      <c r="N90" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="O90" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="P90" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q90" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="V90" t="s">
+        <v>371</v>
+      </c>
+      <c r="W90" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B91" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" t="s">
+        <v>29</v>
+      </c>
+      <c r="D91">
+        <v>391</v>
+      </c>
+      <c r="E91">
+        <v>394</v>
+      </c>
+      <c r="J91" t="s">
+        <v>48</v>
+      </c>
+      <c r="K91" t="s">
+        <v>381</v>
+      </c>
+      <c r="L91" t="s">
+        <v>51</v>
+      </c>
+      <c r="M91" t="s">
+        <v>38</v>
+      </c>
+      <c r="N91" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="O91" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="V91" t="s">
+        <v>380</v>
+      </c>
+      <c r="W91" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B92" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92" t="s">
+        <v>29</v>
+      </c>
+      <c r="D92">
+        <v>394</v>
+      </c>
+      <c r="E92">
+        <v>396</v>
+      </c>
+      <c r="J92" t="s">
+        <v>48</v>
+      </c>
+      <c r="K92" t="s">
+        <v>385</v>
+      </c>
+      <c r="L92" t="s">
+        <v>51</v>
+      </c>
+      <c r="M92" t="s">
+        <v>42</v>
+      </c>
+      <c r="N92" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="O92" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="V92" t="s">
+        <v>384</v>
+      </c>
+      <c r="W92" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="93" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B93" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93" t="s">
+        <v>29</v>
+      </c>
+      <c r="D93">
+        <v>397</v>
+      </c>
+      <c r="E93">
+        <v>398</v>
+      </c>
+      <c r="J93" t="s">
+        <v>48</v>
+      </c>
+      <c r="K93" t="s">
+        <v>390</v>
+      </c>
+      <c r="L93" t="s">
+        <v>51</v>
+      </c>
+      <c r="M93" t="s">
+        <v>42</v>
+      </c>
+      <c r="N93" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="O93" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="V93" t="s">
+        <v>389</v>
+      </c>
+      <c r="W93" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B94" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" t="s">
+        <v>29</v>
+      </c>
+      <c r="D94">
+        <v>398</v>
+      </c>
+      <c r="E94">
+        <v>399</v>
+      </c>
+      <c r="J94" t="s">
+        <v>48</v>
+      </c>
+      <c r="K94" t="s">
+        <v>393</v>
+      </c>
+      <c r="L94" t="s">
+        <v>51</v>
+      </c>
+      <c r="M94" t="s">
+        <v>42</v>
+      </c>
+      <c r="N94" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="O94" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="V94" t="s">
+        <v>394</v>
+      </c>
+      <c r="W94" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="95" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B95" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95" t="s">
+        <v>29</v>
+      </c>
+      <c r="D95">
+        <v>400</v>
+      </c>
+      <c r="E95">
+        <v>401</v>
+      </c>
+      <c r="J95" t="s">
+        <v>48</v>
+      </c>
+      <c r="K95" t="s">
+        <v>286</v>
+      </c>
+      <c r="L95" t="s">
+        <v>51</v>
+      </c>
+      <c r="M95" t="s">
+        <v>52</v>
+      </c>
+      <c r="N95" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="O95" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="V95" t="s">
+        <v>284</v>
+      </c>
+      <c r="W95" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="96" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B96" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96" t="s">
+        <v>29</v>
+      </c>
+      <c r="D96">
+        <v>400</v>
+      </c>
+      <c r="E96">
+        <v>401</v>
+      </c>
+      <c r="J96" t="s">
+        <v>48</v>
+      </c>
+      <c r="K96" t="s">
+        <v>399</v>
+      </c>
+      <c r="L96" t="s">
+        <v>51</v>
+      </c>
+      <c r="M96" t="s">
+        <v>38</v>
+      </c>
+      <c r="N96" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="O96" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="V96" t="s">
+        <v>398</v>
+      </c>
+      <c r="W96" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="97" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B97" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C97" t="s">
+        <v>29</v>
+      </c>
+      <c r="D97">
+        <v>401</v>
+      </c>
+      <c r="E97">
+        <v>402</v>
+      </c>
+      <c r="J97" t="s">
+        <v>48</v>
+      </c>
+      <c r="K97" t="s">
+        <v>402</v>
+      </c>
+      <c r="L97" t="s">
+        <v>51</v>
+      </c>
+      <c r="M97" t="s">
+        <v>38</v>
+      </c>
+      <c r="N97" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="O97" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="V97" t="s">
+        <v>403</v>
+      </c>
+      <c r="W97" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z97" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="98" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B98" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" t="s">
+        <v>29</v>
+      </c>
+      <c r="D98">
+        <v>401</v>
+      </c>
+      <c r="E98">
+        <v>402</v>
+      </c>
+      <c r="J98" t="s">
+        <v>48</v>
+      </c>
+      <c r="K98" t="s">
+        <v>405</v>
+      </c>
+      <c r="L98" t="s">
+        <v>51</v>
+      </c>
+      <c r="M98" t="s">
+        <v>38</v>
+      </c>
+      <c r="N98" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="O98" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="V98" t="s">
+        <v>404</v>
+      </c>
+      <c r="W98" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z98" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="99" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B99" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99" t="s">
+        <v>29</v>
+      </c>
+      <c r="D99">
+        <v>403</v>
+      </c>
+      <c r="E99">
+        <v>404</v>
+      </c>
+      <c r="J99" t="s">
+        <v>48</v>
+      </c>
+      <c r="K99" t="s">
+        <v>412</v>
+      </c>
+      <c r="L99" t="s">
+        <v>51</v>
+      </c>
+      <c r="M99" t="s">
+        <v>38</v>
+      </c>
+      <c r="N99" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="O99" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="V99" t="s">
+        <v>410</v>
+      </c>
+      <c r="W99" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="100" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B100" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" t="s">
+        <v>29</v>
+      </c>
+      <c r="D100">
+        <v>403</v>
+      </c>
+      <c r="E100">
+        <v>404</v>
+      </c>
+      <c r="J100" t="s">
+        <v>48</v>
+      </c>
+      <c r="K100" t="s">
+        <v>413</v>
+      </c>
+      <c r="L100" t="s">
+        <v>51</v>
+      </c>
+      <c r="M100" t="s">
+        <v>42</v>
+      </c>
+      <c r="N100" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="O100" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="V100" t="s">
+        <v>411</v>
+      </c>
+      <c r="W100" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="101" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B101" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101" t="s">
+        <v>29</v>
+      </c>
+      <c r="D101">
+        <v>405</v>
+      </c>
+      <c r="E101">
+        <v>418</v>
+      </c>
+      <c r="J101" t="s">
+        <v>48</v>
+      </c>
+      <c r="K101" t="s">
+        <v>419</v>
+      </c>
+      <c r="L101" t="s">
+        <v>51</v>
+      </c>
+      <c r="M101" t="s">
+        <v>52</v>
+      </c>
+      <c r="N101" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="O101" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="V101" t="s">
+        <v>417</v>
+      </c>
+      <c r="W101" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B102" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C102" t="s">
+        <v>29</v>
+      </c>
+      <c r="D102">
+        <v>407</v>
+      </c>
+      <c r="E102">
+        <v>408</v>
+      </c>
+      <c r="J102" t="s">
+        <v>48</v>
+      </c>
+      <c r="K102" t="s">
+        <v>231</v>
+      </c>
+      <c r="L102" t="s">
+        <v>51</v>
+      </c>
+      <c r="M102" t="s">
+        <v>52</v>
+      </c>
+      <c r="N102" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="O102" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="V102" t="s">
+        <v>230</v>
+      </c>
+      <c r="W102" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B103" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C103" t="s">
+        <v>29</v>
+      </c>
+      <c r="D103">
+        <v>407</v>
+      </c>
+      <c r="E103">
+        <v>408</v>
+      </c>
+      <c r="J103" t="s">
+        <v>48</v>
+      </c>
+      <c r="K103" t="s">
+        <v>422</v>
+      </c>
+      <c r="L103" t="s">
+        <v>51</v>
+      </c>
+      <c r="M103" t="s">
+        <v>38</v>
+      </c>
+      <c r="N103" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="O103" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="V103" t="s">
+        <v>418</v>
+      </c>
+      <c r="W103" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="104" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B104" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C104" t="s">
+        <v>29</v>
+      </c>
+      <c r="D104">
+        <v>408</v>
+      </c>
+      <c r="E104">
+        <v>418</v>
+      </c>
+      <c r="J104" t="s">
+        <v>48</v>
+      </c>
+      <c r="K104" t="s">
+        <v>426</v>
+      </c>
+      <c r="L104" t="s">
+        <v>51</v>
+      </c>
+      <c r="M104" t="s">
+        <v>38</v>
+      </c>
+      <c r="N104" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="O104" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="V104" t="s">
+        <v>425</v>
+      </c>
+      <c r="W104" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B105" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C105" t="s">
+        <v>29</v>
+      </c>
+      <c r="D105">
+        <v>408</v>
+      </c>
+      <c r="E105">
+        <v>409</v>
+      </c>
+      <c r="J105" t="s">
+        <v>48</v>
+      </c>
+      <c r="K105" t="s">
+        <v>429</v>
+      </c>
+      <c r="L105" t="s">
+        <v>51</v>
+      </c>
+      <c r="M105" t="s">
+        <v>38</v>
+      </c>
+      <c r="N105" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="O105" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="V105" t="s">
+        <v>432</v>
+      </c>
+      <c r="W105" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="106" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B106" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" t="s">
+        <v>29</v>
+      </c>
+      <c r="D106">
+        <v>410</v>
+      </c>
+      <c r="E106">
+        <v>411</v>
+      </c>
+      <c r="J106" t="s">
+        <v>48</v>
+      </c>
+      <c r="K106" t="s">
+        <v>434</v>
+      </c>
+      <c r="L106" t="s">
+        <v>51</v>
+      </c>
+      <c r="M106" t="s">
+        <v>38</v>
+      </c>
+      <c r="N106" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="O106" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="V106" t="s">
+        <v>433</v>
+      </c>
+      <c r="W106" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z106" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="107" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B107" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C107" t="s">
+        <v>29</v>
+      </c>
+      <c r="D107">
+        <v>411</v>
+      </c>
+      <c r="E107">
+        <v>412</v>
+      </c>
+      <c r="J107" t="s">
+        <v>48</v>
+      </c>
+      <c r="K107" t="s">
+        <v>439</v>
+      </c>
+      <c r="L107" t="s">
+        <v>51</v>
+      </c>
+      <c r="M107" t="s">
+        <v>38</v>
+      </c>
+      <c r="N107" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="O107" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="V107" t="s">
+        <v>438</v>
+      </c>
+      <c r="W107" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="108" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B108" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C108" t="s">
+        <v>29</v>
+      </c>
+      <c r="D108">
+        <v>412</v>
+      </c>
+      <c r="E108">
+        <v>413</v>
+      </c>
+      <c r="J108" t="s">
+        <v>48</v>
+      </c>
+      <c r="K108" t="s">
+        <v>443</v>
+      </c>
+      <c r="L108" t="s">
+        <v>51</v>
+      </c>
+      <c r="M108" t="s">
+        <v>38</v>
+      </c>
+      <c r="N108" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="O108" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="V108" t="s">
+        <v>442</v>
+      </c>
+      <c r="W108" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="109" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B109" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C109" t="s">
+        <v>29</v>
+      </c>
+      <c r="D109">
+        <v>414</v>
+      </c>
+      <c r="E109">
+        <v>415</v>
+      </c>
+      <c r="J109" t="s">
+        <v>48</v>
+      </c>
+      <c r="K109" t="s">
+        <v>447</v>
+      </c>
+      <c r="L109" t="s">
+        <v>51</v>
+      </c>
+      <c r="M109" t="s">
+        <v>38</v>
+      </c>
+      <c r="N109" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="O109" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="V109" t="s">
+        <v>446</v>
+      </c>
+      <c r="W109" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z109" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="110" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B110" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C110" t="s">
+        <v>29</v>
+      </c>
+      <c r="D110">
+        <v>415</v>
+      </c>
+      <c r="E110">
+        <v>416</v>
+      </c>
+      <c r="J110" t="s">
+        <v>48</v>
+      </c>
+      <c r="K110" t="s">
+        <v>452</v>
+      </c>
+      <c r="L110" t="s">
+        <v>51</v>
+      </c>
+      <c r="M110" t="s">
+        <v>38</v>
+      </c>
+      <c r="N110" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="O110" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="V110" t="s">
+        <v>451</v>
+      </c>
+      <c r="W110" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="111" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B111" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C111" t="s">
+        <v>29</v>
+      </c>
+      <c r="D111">
+        <v>416</v>
+      </c>
+      <c r="E111">
+        <v>418</v>
+      </c>
+      <c r="J111" t="s">
+        <v>48</v>
+      </c>
+      <c r="K111" t="s">
+        <v>456</v>
+      </c>
+      <c r="L111" t="s">
+        <v>51</v>
+      </c>
+      <c r="M111" t="s">
+        <v>38</v>
+      </c>
+      <c r="N111" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="O111" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="V111" t="s">
+        <v>455</v>
+      </c>
+      <c r="W111" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Datasets/Stalder/Data/Stalder_JR.xlsx
+++ b/Datasets/Stalder/Data/Stalder_JR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julerickert/Documents/Akademie_Projekt/Datasets/Stalder/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD0F37E-6D08-934E-A86C-D4AF3F70EFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C580C1FB-856E-F347-97BE-4A1872897709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{83D778BB-B2D8-FD4F-A694-2AEDDD4D8C05}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{83D778BB-B2D8-FD4F-A694-2AEDDD4D8C05}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="458">
   <si>
     <t>ID</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>Nicht unbedingt zeitlich relevant</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>Nicht unbedingt zeitlich relevant / Der Althochdeutsche Tatian ist eine Übersetzung der Evangelienharmonie Tatians ins Althochdeutsche. Die Übersetzung wurde um das Jahr 830 im Kloster Fulda unter der Leitung von Hrabanus Maurus angefertigt und befindet sich seit dem 10. Jahrhundert im Kloster St. Gallen (Cod. Sang. 56) {-Wikipedia}</t>
@@ -1819,7 +1816,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N111" sqref="N111"/>
+      <selection pane="bottomLeft" activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1930,7 +1927,7 @@
         <v>270</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K2">
         <v>999</v>
@@ -1971,22 +1968,22 @@
         <v>267</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="V3" t="s">
         <v>32</v>
@@ -1995,7 +1992,7 @@
         <v>33</v>
       </c>
       <c r="Z3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
@@ -2012,31 +2009,31 @@
         <v>269</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="6" t="s">
+      <c r="O4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="V4" t="s">
         <v>42</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="V4" t="s">
-        <v>43</v>
       </c>
       <c r="W4" t="s">
         <v>33</v>
       </c>
       <c r="Z4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
@@ -2049,29 +2046,29 @@
       <c r="D5">
         <v>271</v>
       </c>
-      <c r="E5" t="s">
-        <v>35</v>
+      <c r="E5">
+        <v>346</v>
       </c>
       <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V5" t="s">
         <v>48</v>
-      </c>
-      <c r="K5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="V5" t="s">
-        <v>49</v>
       </c>
       <c r="W5" t="s">
         <v>31</v>
@@ -2091,25 +2088,25 @@
         <v>276</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" t="s">
         <v>51</v>
       </c>
-      <c r="M6" t="s">
-        <v>52</v>
-      </c>
       <c r="N6" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W6" t="s">
         <v>33</v>
@@ -2129,34 +2126,34 @@
         <v>274</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="L7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" s="5" t="s">
+      <c r="O7" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="O7" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="P7" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V7" t="s">
+        <v>55</v>
+      </c>
+      <c r="W7" t="s">
         <v>56</v>
-      </c>
-      <c r="W7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
@@ -2173,28 +2170,28 @@
         <v>276</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
@@ -2211,25 +2208,25 @@
         <v>289</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O9" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="L9" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="V9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W9" t="s">
         <v>33</v>
@@ -2249,28 +2246,28 @@
         <v>278</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="L10" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" s="5" t="s">
+      <c r="O10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="O10" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="V10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
@@ -2287,28 +2284,28 @@
         <v>279</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O11" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="L11" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" t="s">
-        <v>38</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="V11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
@@ -2325,28 +2322,28 @@
         <v>289</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="L12" t="s">
-        <v>51</v>
-      </c>
-      <c r="M12" t="s">
-        <v>52</v>
-      </c>
-      <c r="N12" s="5" t="s">
+      <c r="O12" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="O12" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="V12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
@@ -2363,28 +2360,28 @@
         <v>281</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O13" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="O13" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="V13" t="s">
+        <v>80</v>
+      </c>
+      <c r="W13" t="s">
         <v>81</v>
-      </c>
-      <c r="W13" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
@@ -2401,28 +2398,28 @@
         <v>283</v>
       </c>
       <c r="J14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K14" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="O14" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L14" t="s">
-        <v>51</v>
-      </c>
-      <c r="M14" t="s">
-        <v>42</v>
-      </c>
-      <c r="N14" s="5" t="s">
+      <c r="V14" t="s">
         <v>89</v>
       </c>
-      <c r="O14" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="V14" t="s">
-        <v>90</v>
-      </c>
       <c r="W14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
@@ -2439,28 +2436,28 @@
         <v>284</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K15" t="s">
+        <v>91</v>
+      </c>
+      <c r="L15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O15" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="L15" t="s">
-        <v>51</v>
-      </c>
-      <c r="M15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="V15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
@@ -2477,28 +2474,28 @@
         <v>286</v>
       </c>
       <c r="J16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.2">
@@ -2515,28 +2512,28 @@
         <v>288</v>
       </c>
       <c r="J17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K17" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="L17" t="s">
-        <v>51</v>
-      </c>
-      <c r="M17" t="s">
-        <v>38</v>
-      </c>
-      <c r="N17" s="5" t="s">
+      <c r="O17" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="O17" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="V17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.2">
@@ -2553,28 +2550,28 @@
         <v>289</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K18" t="s">
+        <v>103</v>
+      </c>
+      <c r="L18" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="O18" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="L18" t="s">
-        <v>51</v>
-      </c>
-      <c r="M18" t="s">
-        <v>42</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="V18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="W18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.2">
@@ -2591,25 +2588,25 @@
         <v>293</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N19" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="L19" t="s">
-        <v>51</v>
-      </c>
-      <c r="M19" t="s">
-        <v>52</v>
-      </c>
-      <c r="N19" s="5" t="s">
+      <c r="O19" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="O19" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="V19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="W19" t="s">
         <v>33</v>
@@ -2629,28 +2626,28 @@
         <v>291</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N20" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="O20" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="O20" s="5" t="s">
+      <c r="V20" t="s">
         <v>110</v>
       </c>
-      <c r="V20" t="s">
-        <v>111</v>
-      </c>
       <c r="W20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.2">
@@ -2667,28 +2664,28 @@
         <v>293</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K21" t="s">
+        <v>116</v>
+      </c>
+      <c r="L21" t="s">
+        <v>50</v>
+      </c>
+      <c r="M21" t="s">
+        <v>41</v>
+      </c>
+      <c r="N21" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="L21" t="s">
-        <v>51</v>
-      </c>
-      <c r="M21" t="s">
-        <v>42</v>
-      </c>
-      <c r="N21" s="5" t="s">
+      <c r="O21" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="O21" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="V21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.2">
@@ -2705,25 +2702,25 @@
         <v>294</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K22" t="s">
+        <v>120</v>
+      </c>
+      <c r="L22" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" t="s">
+        <v>37</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="O22" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L22" t="s">
-        <v>51</v>
-      </c>
-      <c r="M22" t="s">
-        <v>38</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="V22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W22" t="s">
         <v>33</v>
@@ -2743,28 +2740,28 @@
         <v>294</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K23" t="s">
+        <v>124</v>
+      </c>
+      <c r="L23" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N23" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="L23" t="s">
-        <v>51</v>
-      </c>
-      <c r="M23" t="s">
-        <v>38</v>
-      </c>
-      <c r="N23" s="5" t="s">
+      <c r="O23" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="O23" s="5" t="s">
-        <v>127</v>
-      </c>
       <c r="V23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.2">
@@ -2781,25 +2778,25 @@
         <v>296</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K24" t="s">
+        <v>128</v>
+      </c>
+      <c r="L24" t="s">
+        <v>50</v>
+      </c>
+      <c r="M24" t="s">
+        <v>37</v>
+      </c>
+      <c r="N24" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="L24" t="s">
-        <v>51</v>
-      </c>
-      <c r="M24" t="s">
-        <v>38</v>
-      </c>
-      <c r="N24" s="5" t="s">
+      <c r="O24" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="O24" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="V24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W24" t="s">
         <v>33</v>
@@ -2819,28 +2816,28 @@
         <v>296</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K25" t="s">
+        <v>132</v>
+      </c>
+      <c r="L25" t="s">
+        <v>50</v>
+      </c>
+      <c r="M25" t="s">
+        <v>41</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="O25" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="L25" t="s">
-        <v>51</v>
-      </c>
-      <c r="M25" t="s">
-        <v>42</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="O25" s="5" t="s">
-        <v>134</v>
-      </c>
       <c r="V25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.2">
@@ -2857,25 +2854,25 @@
         <v>300</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K26" t="s">
+        <v>135</v>
+      </c>
+      <c r="L26" t="s">
+        <v>50</v>
+      </c>
+      <c r="M26" t="s">
+        <v>37</v>
+      </c>
+      <c r="N26" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="L26" t="s">
-        <v>51</v>
-      </c>
-      <c r="M26" t="s">
-        <v>38</v>
-      </c>
-      <c r="N26" s="5" t="s">
+      <c r="O26" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="O26" s="5" t="s">
-        <v>138</v>
-      </c>
       <c r="V26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W26" t="s">
         <v>33</v>
@@ -2895,28 +2892,28 @@
         <v>298</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K27" t="s">
+        <v>138</v>
+      </c>
+      <c r="L27" t="s">
+        <v>50</v>
+      </c>
+      <c r="M27" t="s">
+        <v>37</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="O27" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="L27" t="s">
-        <v>51</v>
-      </c>
-      <c r="M27" t="s">
-        <v>38</v>
-      </c>
-      <c r="N27" s="5" t="s">
+      <c r="V27" t="s">
         <v>141</v>
       </c>
-      <c r="O27" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="V27" t="s">
-        <v>142</v>
-      </c>
       <c r="W27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.2">
@@ -2933,28 +2930,28 @@
         <v>300</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K28" t="s">
+        <v>143</v>
+      </c>
+      <c r="L28" t="s">
+        <v>50</v>
+      </c>
+      <c r="M28" t="s">
+        <v>37</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="O28" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="L28" t="s">
-        <v>51</v>
-      </c>
-      <c r="M28" t="s">
-        <v>38</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>145</v>
-      </c>
       <c r="V28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="W28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.2">
@@ -2971,25 +2968,25 @@
         <v>302</v>
       </c>
       <c r="J29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K29" t="s">
+        <v>147</v>
+      </c>
+      <c r="L29" t="s">
+        <v>50</v>
+      </c>
+      <c r="M29" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="L29" t="s">
-        <v>51</v>
-      </c>
-      <c r="M29" t="s">
-        <v>38</v>
-      </c>
-      <c r="N29" s="5" t="s">
+      <c r="O29" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="O29" s="5" t="s">
-        <v>150</v>
-      </c>
       <c r="V29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W29" t="s">
         <v>33</v>
@@ -3009,34 +3006,34 @@
         <v>302</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K30" t="s">
+        <v>151</v>
+      </c>
+      <c r="L30" t="s">
+        <v>50</v>
+      </c>
+      <c r="M30" t="s">
+        <v>37</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="O30" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="L30" t="s">
-        <v>51</v>
-      </c>
-      <c r="M30" t="s">
-        <v>38</v>
-      </c>
-      <c r="N30" s="5" t="s">
+      <c r="P30" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q30" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="O30" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="P30" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q30" s="5" t="s">
-        <v>155</v>
-      </c>
       <c r="V30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.2">
@@ -3053,25 +3050,25 @@
         <v>304</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N31" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="O31" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="O31" s="5" t="s">
-        <v>159</v>
-      </c>
       <c r="V31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="W31" t="s">
         <v>33</v>
@@ -3091,28 +3088,28 @@
         <v>304</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N32" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="O32" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="O32" s="5" t="s">
+      <c r="V32" t="s">
         <v>159</v>
       </c>
-      <c r="V32" t="s">
-        <v>160</v>
-      </c>
       <c r="W32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.2">
@@ -3129,25 +3126,25 @@
         <v>307</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33" t="s">
+        <v>163</v>
+      </c>
+      <c r="L33" t="s">
+        <v>50</v>
+      </c>
+      <c r="M33" t="s">
+        <v>37</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="O33" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="L33" t="s">
-        <v>51</v>
-      </c>
-      <c r="M33" t="s">
-        <v>38</v>
-      </c>
-      <c r="N33" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="O33" s="5" t="s">
-        <v>165</v>
-      </c>
       <c r="V33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W33" t="s">
         <v>33</v>
@@ -3167,28 +3164,28 @@
         <v>305</v>
       </c>
       <c r="J34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K34" t="s">
+        <v>167</v>
+      </c>
+      <c r="L34" t="s">
+        <v>50</v>
+      </c>
+      <c r="M34" t="s">
+        <v>37</v>
+      </c>
+      <c r="N34" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="L34" t="s">
-        <v>51</v>
-      </c>
-      <c r="M34" t="s">
-        <v>38</v>
-      </c>
-      <c r="N34" s="5" t="s">
+      <c r="O34" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="O34" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="V34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.2">
@@ -3205,28 +3202,28 @@
         <v>307</v>
       </c>
       <c r="J35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K35" t="s">
+        <v>171</v>
+      </c>
+      <c r="L35" t="s">
+        <v>50</v>
+      </c>
+      <c r="M35" t="s">
+        <v>37</v>
+      </c>
+      <c r="N35" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="L35" t="s">
-        <v>51</v>
-      </c>
-      <c r="M35" t="s">
-        <v>38</v>
-      </c>
-      <c r="N35" s="5" t="s">
+      <c r="O35" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="O35" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="V35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.2">
@@ -3243,25 +3240,25 @@
         <v>309</v>
       </c>
       <c r="J36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K36" t="s">
+        <v>174</v>
+      </c>
+      <c r="L36" t="s">
+        <v>50</v>
+      </c>
+      <c r="M36" t="s">
+        <v>51</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="V36" t="s">
         <v>175</v>
-      </c>
-      <c r="L36" t="s">
-        <v>51</v>
-      </c>
-      <c r="M36" t="s">
-        <v>52</v>
-      </c>
-      <c r="N36" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="O36" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="V36" t="s">
-        <v>176</v>
       </c>
       <c r="W36" t="s">
         <v>33</v>
@@ -3281,28 +3278,28 @@
         <v>309</v>
       </c>
       <c r="J37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N37" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="O37" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="O37" s="5" t="s">
+      <c r="V37" t="s">
         <v>178</v>
       </c>
-      <c r="V37" t="s">
-        <v>179</v>
-      </c>
       <c r="W37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="2:26" x14ac:dyDescent="0.2">
@@ -3319,25 +3316,25 @@
         <v>310</v>
       </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K38" t="s">
+        <v>181</v>
+      </c>
+      <c r="L38" t="s">
+        <v>50</v>
+      </c>
+      <c r="M38" t="s">
+        <v>37</v>
+      </c>
+      <c r="N38" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="L38" t="s">
-        <v>51</v>
-      </c>
-      <c r="M38" t="s">
-        <v>38</v>
-      </c>
-      <c r="N38" s="5" t="s">
+      <c r="O38" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="O38" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="V38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W38" t="s">
         <v>33</v>
@@ -3357,28 +3354,28 @@
         <v>310</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N39" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="O39" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="O39" s="5" t="s">
+      <c r="V39" t="s">
         <v>184</v>
       </c>
-      <c r="V39" t="s">
-        <v>185</v>
-      </c>
       <c r="W39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.2">
@@ -3395,31 +3392,31 @@
         <v>312</v>
       </c>
       <c r="J40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="W40" t="s">
         <v>33</v>
       </c>
       <c r="Z40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.2">
@@ -3436,31 +3433,31 @@
         <v>312</v>
       </c>
       <c r="J41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N41" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="V41" t="s">
+        <v>187</v>
+      </c>
+      <c r="W41" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z41" t="s">
         <v>194</v>
-      </c>
-      <c r="O41" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="V41" t="s">
-        <v>188</v>
-      </c>
-      <c r="W41" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.2">
@@ -3477,25 +3474,25 @@
         <v>314</v>
       </c>
       <c r="J42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K42" t="s">
+        <v>197</v>
+      </c>
+      <c r="L42" t="s">
+        <v>50</v>
+      </c>
+      <c r="M42" t="s">
+        <v>37</v>
+      </c>
+      <c r="N42" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="L42" t="s">
-        <v>51</v>
-      </c>
-      <c r="M42" t="s">
-        <v>38</v>
-      </c>
-      <c r="N42" s="5" t="s">
+      <c r="O42" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="O42" s="5" t="s">
-        <v>200</v>
-      </c>
       <c r="V42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W42" t="s">
         <v>33</v>
@@ -3515,28 +3512,28 @@
         <v>314</v>
       </c>
       <c r="J43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K43" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N43" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="O43" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="O43" s="5" t="s">
-        <v>200</v>
-      </c>
       <c r="V43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="2:26" x14ac:dyDescent="0.2">
@@ -3553,25 +3550,25 @@
         <v>323</v>
       </c>
       <c r="J44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K44" t="s">
+        <v>202</v>
+      </c>
+      <c r="L44" t="s">
+        <v>50</v>
+      </c>
+      <c r="M44" t="s">
+        <v>51</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="O44" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="L44" t="s">
-        <v>51</v>
-      </c>
-      <c r="M44" t="s">
-        <v>52</v>
-      </c>
-      <c r="N44" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="O44" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="V44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W44" t="s">
         <v>33</v>
@@ -3591,34 +3588,34 @@
         <v>316</v>
       </c>
       <c r="J45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K45" t="s">
+        <v>206</v>
+      </c>
+      <c r="L45" t="s">
+        <v>38</v>
+      </c>
+      <c r="M45" t="s">
+        <v>37</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q45" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="L45" t="s">
-        <v>39</v>
-      </c>
-      <c r="M45" t="s">
-        <v>38</v>
-      </c>
-      <c r="N45" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O45" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="P45" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q45" s="5" t="s">
-        <v>208</v>
-      </c>
       <c r="V45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.2">
@@ -3635,28 +3632,28 @@
         <v>323</v>
       </c>
       <c r="J46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N46" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="O46" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="O46" s="5" t="s">
-        <v>215</v>
-      </c>
       <c r="V46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="W46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.2">
@@ -3673,28 +3670,28 @@
         <v>317</v>
       </c>
       <c r="J47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="W47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.2">
@@ -3711,28 +3708,28 @@
         <v>319</v>
       </c>
       <c r="J48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K48" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V48" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="W48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.2">
@@ -3749,28 +3746,28 @@
         <v>321</v>
       </c>
       <c r="J49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K49" t="s">
+        <v>221</v>
+      </c>
+      <c r="L49" t="s">
+        <v>50</v>
+      </c>
+      <c r="M49" t="s">
+        <v>37</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="O49" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="L49" t="s">
-        <v>51</v>
-      </c>
-      <c r="M49" t="s">
-        <v>38</v>
-      </c>
-      <c r="N49" s="5" t="s">
+      <c r="V49" t="s">
         <v>224</v>
       </c>
-      <c r="O49" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="V49" t="s">
-        <v>225</v>
-      </c>
       <c r="W49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.2">
@@ -3787,28 +3784,28 @@
         <v>323</v>
       </c>
       <c r="J50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K50" t="s">
+        <v>226</v>
+      </c>
+      <c r="L50" t="s">
+        <v>50</v>
+      </c>
+      <c r="M50" t="s">
+        <v>37</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="O50" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="L50" t="s">
-        <v>51</v>
-      </c>
-      <c r="M50" t="s">
-        <v>38</v>
-      </c>
-      <c r="N50" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="O50" s="5" t="s">
-        <v>228</v>
-      </c>
       <c r="V50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="W50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.2">
@@ -3825,25 +3822,25 @@
         <v>328</v>
       </c>
       <c r="J51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K51" t="s">
+        <v>230</v>
+      </c>
+      <c r="L51" t="s">
+        <v>50</v>
+      </c>
+      <c r="M51" t="s">
+        <v>51</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="O51" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="L51" t="s">
-        <v>51</v>
-      </c>
-      <c r="M51" t="s">
-        <v>52</v>
-      </c>
-      <c r="N51" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="O51" s="5" t="s">
-        <v>232</v>
-      </c>
       <c r="V51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="W51" t="s">
         <v>33</v>
@@ -3863,28 +3860,28 @@
         <v>324</v>
       </c>
       <c r="J52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K52" t="s">
+        <v>234</v>
+      </c>
+      <c r="L52" t="s">
+        <v>50</v>
+      </c>
+      <c r="M52" t="s">
+        <v>37</v>
+      </c>
+      <c r="N52" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="L52" t="s">
-        <v>51</v>
-      </c>
-      <c r="M52" t="s">
-        <v>38</v>
-      </c>
-      <c r="N52" s="5" t="s">
+      <c r="O52" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="O52" s="5" t="s">
-        <v>237</v>
-      </c>
       <c r="V52" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="W52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.2">
@@ -3901,28 +3898,28 @@
         <v>326</v>
       </c>
       <c r="J53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K53" t="s">
+        <v>237</v>
+      </c>
+      <c r="L53" t="s">
+        <v>50</v>
+      </c>
+      <c r="M53" t="s">
+        <v>37</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="V53" t="s">
         <v>238</v>
       </c>
-      <c r="L53" t="s">
-        <v>51</v>
-      </c>
-      <c r="M53" t="s">
-        <v>38</v>
-      </c>
-      <c r="N53" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="O53" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="V53" t="s">
-        <v>239</v>
-      </c>
       <c r="W53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.2">
@@ -3939,28 +3936,28 @@
         <v>328</v>
       </c>
       <c r="J54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K54" t="s">
+        <v>242</v>
+      </c>
+      <c r="L54" t="s">
+        <v>50</v>
+      </c>
+      <c r="M54" t="s">
+        <v>37</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="O54" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="L54" t="s">
-        <v>51</v>
-      </c>
-      <c r="M54" t="s">
-        <v>38</v>
-      </c>
-      <c r="N54" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="O54" s="5" t="s">
-        <v>244</v>
-      </c>
       <c r="V54" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="W54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.2">
@@ -3977,25 +3974,25 @@
         <v>335</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K55" t="s">
+        <v>246</v>
+      </c>
+      <c r="L55" t="s">
+        <v>50</v>
+      </c>
+      <c r="M55" t="s">
+        <v>37</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="O55" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="L55" t="s">
-        <v>51</v>
-      </c>
-      <c r="M55" t="s">
-        <v>38</v>
-      </c>
-      <c r="N55" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="O55" s="5" t="s">
-        <v>248</v>
-      </c>
       <c r="V55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="W55" t="s">
         <v>33</v>
@@ -4015,28 +4012,28 @@
         <v>331</v>
       </c>
       <c r="J56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K56" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N56" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="V56" t="s">
         <v>249</v>
       </c>
-      <c r="O56" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="V56" t="s">
-        <v>250</v>
-      </c>
       <c r="W56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.2">
@@ -4053,34 +4050,34 @@
         <v>329</v>
       </c>
       <c r="J57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K57" t="s">
+        <v>252</v>
+      </c>
+      <c r="L57" t="s">
+        <v>50</v>
+      </c>
+      <c r="M57" t="s">
+        <v>37</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="O57" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="P57" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q57" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="L57" t="s">
-        <v>51</v>
-      </c>
-      <c r="M57" t="s">
-        <v>38</v>
-      </c>
-      <c r="N57" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="O57" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="P57" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q57" s="5" t="s">
-        <v>254</v>
-      </c>
       <c r="V57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="W57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.2">
@@ -4097,28 +4094,28 @@
         <v>331</v>
       </c>
       <c r="J58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K58" t="s">
+        <v>258</v>
+      </c>
+      <c r="L58" t="s">
+        <v>50</v>
+      </c>
+      <c r="M58" t="s">
+        <v>37</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="O58" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="L58" t="s">
-        <v>51</v>
-      </c>
-      <c r="M58" t="s">
-        <v>38</v>
-      </c>
-      <c r="N58" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="O58" s="5" t="s">
-        <v>260</v>
-      </c>
       <c r="V58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.2">
@@ -4135,28 +4132,28 @@
         <v>333</v>
       </c>
       <c r="J59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K59" t="s">
+        <v>262</v>
+      </c>
+      <c r="L59" t="s">
+        <v>50</v>
+      </c>
+      <c r="M59" t="s">
+        <v>37</v>
+      </c>
+      <c r="N59" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="O59" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="L59" t="s">
-        <v>51</v>
-      </c>
-      <c r="M59" t="s">
-        <v>38</v>
-      </c>
-      <c r="N59" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="O59" s="5" t="s">
-        <v>264</v>
-      </c>
       <c r="V59" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.2">
@@ -4173,28 +4170,28 @@
         <v>335</v>
       </c>
       <c r="J60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K60" t="s">
+        <v>266</v>
+      </c>
+      <c r="L60" t="s">
+        <v>50</v>
+      </c>
+      <c r="M60" t="s">
+        <v>37</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="O60" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="L60" t="s">
-        <v>51</v>
-      </c>
-      <c r="M60" t="s">
-        <v>38</v>
-      </c>
-      <c r="N60" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="O60" s="5" t="s">
-        <v>268</v>
-      </c>
       <c r="V60" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="W60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.2">
@@ -4211,25 +4208,25 @@
         <v>339</v>
       </c>
       <c r="J61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K61" t="s">
+        <v>270</v>
+      </c>
+      <c r="L61" t="s">
+        <v>50</v>
+      </c>
+      <c r="M61" t="s">
+        <v>37</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="O61" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="L61" t="s">
-        <v>51</v>
-      </c>
-      <c r="M61" t="s">
-        <v>38</v>
-      </c>
-      <c r="N61" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="O61" s="5" t="s">
-        <v>272</v>
-      </c>
       <c r="V61" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W61" t="s">
         <v>33</v>
@@ -4249,28 +4246,28 @@
         <v>337</v>
       </c>
       <c r="J62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K62" t="s">
+        <v>274</v>
+      </c>
+      <c r="L62" t="s">
+        <v>50</v>
+      </c>
+      <c r="M62" t="s">
+        <v>37</v>
+      </c>
+      <c r="N62" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="L62" t="s">
-        <v>51</v>
-      </c>
-      <c r="M62" t="s">
-        <v>38</v>
-      </c>
-      <c r="N62" s="5" t="s">
+      <c r="O62" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="O62" s="5" t="s">
-        <v>277</v>
-      </c>
       <c r="V62" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="W62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.2">
@@ -4287,34 +4284,34 @@
         <v>339</v>
       </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K63" t="s">
+        <v>278</v>
+      </c>
+      <c r="L63" t="s">
+        <v>50</v>
+      </c>
+      <c r="M63" t="s">
+        <v>37</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="O63" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="L63" t="s">
-        <v>51</v>
-      </c>
-      <c r="M63" t="s">
-        <v>38</v>
-      </c>
-      <c r="N63" s="5" t="s">
+      <c r="P63" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q63" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="O63" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="P63" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q63" s="5" t="s">
-        <v>282</v>
-      </c>
       <c r="V63" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.2">
@@ -4331,25 +4328,25 @@
         <v>346</v>
       </c>
       <c r="J64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K64" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L64" t="s">
+        <v>50</v>
+      </c>
+      <c r="M64" t="s">
         <v>51</v>
       </c>
-      <c r="M64" t="s">
-        <v>52</v>
-      </c>
       <c r="N64" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O64" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="V64" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W64" t="s">
         <v>33</v>
@@ -4369,28 +4366,28 @@
         <v>340</v>
       </c>
       <c r="J65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K65" t="s">
+        <v>286</v>
+      </c>
+      <c r="L65" t="s">
+        <v>50</v>
+      </c>
+      <c r="M65" t="s">
+        <v>37</v>
+      </c>
+      <c r="N65" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="L65" t="s">
-        <v>51</v>
-      </c>
-      <c r="M65" t="s">
-        <v>38</v>
-      </c>
-      <c r="N65" s="5" t="s">
+      <c r="O65" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="O65" s="5" t="s">
-        <v>289</v>
-      </c>
       <c r="V65" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="2:26" x14ac:dyDescent="0.2">
@@ -4407,34 +4404,34 @@
         <v>342</v>
       </c>
       <c r="J66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K66" t="s">
+        <v>292</v>
+      </c>
+      <c r="L66" t="s">
+        <v>50</v>
+      </c>
+      <c r="M66" t="s">
+        <v>37</v>
+      </c>
+      <c r="N66" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="L66" t="s">
-        <v>51</v>
-      </c>
-      <c r="M66" t="s">
-        <v>38</v>
-      </c>
-      <c r="N66" s="5" t="s">
+      <c r="O66" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="O66" s="5" t="s">
+      <c r="P66" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="P66" s="5" t="s">
+      <c r="Q66" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="Q66" s="5" t="s">
-        <v>297</v>
-      </c>
       <c r="V66" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="2:26" x14ac:dyDescent="0.2">
@@ -4451,28 +4448,28 @@
         <v>344</v>
       </c>
       <c r="J67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K67" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O67" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="V67" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="W67" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="2:26" x14ac:dyDescent="0.2">
@@ -4489,28 +4486,28 @@
         <v>346</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K68" t="s">
+        <v>302</v>
+      </c>
+      <c r="L68" t="s">
+        <v>50</v>
+      </c>
+      <c r="M68" t="s">
+        <v>37</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="O68" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="L68" t="s">
-        <v>51</v>
-      </c>
-      <c r="M68" t="s">
-        <v>38</v>
-      </c>
-      <c r="N68" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="O68" s="5" t="s">
-        <v>304</v>
-      </c>
       <c r="V68" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="2:26" x14ac:dyDescent="0.2">
@@ -4527,7 +4524,7 @@
         <v>360</v>
       </c>
       <c r="J69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K69">
         <v>999</v>
@@ -4539,13 +4536,13 @@
         <v>999</v>
       </c>
       <c r="N69" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O69" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="V69" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="W69" t="s">
         <v>31</v>
@@ -4565,25 +4562,25 @@
         <v>360</v>
       </c>
       <c r="J70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K70" t="s">
+        <v>230</v>
+      </c>
+      <c r="L70" t="s">
+        <v>50</v>
+      </c>
+      <c r="M70" t="s">
+        <v>51</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="O70" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="L70" t="s">
-        <v>51</v>
-      </c>
-      <c r="M70" t="s">
-        <v>52</v>
-      </c>
-      <c r="N70" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="O70" s="5" t="s">
-        <v>232</v>
-      </c>
       <c r="V70" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="W70" t="s">
         <v>33</v>
@@ -4603,28 +4600,28 @@
         <v>353</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K71" t="s">
+        <v>77</v>
+      </c>
+      <c r="L71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M71" t="s">
+        <v>51</v>
+      </c>
+      <c r="N71" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="L71" t="s">
-        <v>51</v>
-      </c>
-      <c r="M71" t="s">
-        <v>52</v>
-      </c>
-      <c r="N71" s="5" t="s">
+      <c r="O71" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="O71" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="V71" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="W71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="2:26" x14ac:dyDescent="0.2">
@@ -4641,31 +4638,31 @@
         <v>351</v>
       </c>
       <c r="J72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K72" t="s">
+        <v>77</v>
+      </c>
+      <c r="L72" t="s">
+        <v>50</v>
+      </c>
+      <c r="M72" t="s">
+        <v>51</v>
+      </c>
+      <c r="N72" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="L72" t="s">
-        <v>51</v>
-      </c>
-      <c r="M72" t="s">
-        <v>52</v>
-      </c>
-      <c r="N72" s="5" t="s">
+      <c r="O72" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="O72" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="V72" t="s">
+        <v>308</v>
+      </c>
+      <c r="W72" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z72" t="s">
         <v>309</v>
-      </c>
-      <c r="W72" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z72" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="73" spans="2:26" x14ac:dyDescent="0.2">
@@ -4682,28 +4679,28 @@
         <v>353</v>
       </c>
       <c r="J73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K73" t="s">
+        <v>77</v>
+      </c>
+      <c r="L73" t="s">
+        <v>50</v>
+      </c>
+      <c r="M73" t="s">
+        <v>51</v>
+      </c>
+      <c r="N73" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="L73" t="s">
-        <v>51</v>
-      </c>
-      <c r="M73" t="s">
-        <v>52</v>
-      </c>
-      <c r="N73" s="5" t="s">
+      <c r="O73" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="O73" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="V73" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="W73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="2:26" x14ac:dyDescent="0.2">
@@ -4720,28 +4717,28 @@
         <v>354</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K74" t="s">
+        <v>312</v>
+      </c>
+      <c r="L74" t="s">
+        <v>50</v>
+      </c>
+      <c r="M74" t="s">
+        <v>41</v>
+      </c>
+      <c r="N74" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="O74" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="L74" t="s">
-        <v>51</v>
-      </c>
-      <c r="M74" t="s">
-        <v>42</v>
-      </c>
-      <c r="N74" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="O74" s="5" t="s">
-        <v>314</v>
-      </c>
       <c r="V74" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="W74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="2:26" x14ac:dyDescent="0.2">
@@ -4758,28 +4755,28 @@
         <v>355</v>
       </c>
       <c r="J75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K75" t="s">
+        <v>316</v>
+      </c>
+      <c r="L75" t="s">
+        <v>50</v>
+      </c>
+      <c r="M75" t="s">
+        <v>37</v>
+      </c>
+      <c r="N75" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="O75" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="L75" t="s">
-        <v>51</v>
-      </c>
-      <c r="M75" t="s">
-        <v>38</v>
-      </c>
-      <c r="N75" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="O75" s="5" t="s">
-        <v>318</v>
-      </c>
       <c r="V75" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="W75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="2:26" x14ac:dyDescent="0.2">
@@ -4796,28 +4793,28 @@
         <v>360</v>
       </c>
       <c r="J76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K76" t="s">
+        <v>321</v>
+      </c>
+      <c r="L76" t="s">
+        <v>50</v>
+      </c>
+      <c r="M76" t="s">
+        <v>51</v>
+      </c>
+      <c r="N76" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="O76" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="L76" t="s">
-        <v>51</v>
-      </c>
-      <c r="M76" t="s">
-        <v>52</v>
-      </c>
-      <c r="N76" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="O76" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="V76" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="W76" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="2:26" x14ac:dyDescent="0.2">
@@ -4834,28 +4831,28 @@
         <v>357</v>
       </c>
       <c r="J77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K77" t="s">
+        <v>324</v>
+      </c>
+      <c r="L77" t="s">
+        <v>50</v>
+      </c>
+      <c r="M77" t="s">
+        <v>37</v>
+      </c>
+      <c r="N77" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="O77" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="L77" t="s">
-        <v>51</v>
-      </c>
-      <c r="M77" t="s">
-        <v>38</v>
-      </c>
-      <c r="N77" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="O77" s="5" t="s">
-        <v>326</v>
-      </c>
       <c r="V77" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="W77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="2:26" x14ac:dyDescent="0.2">
@@ -4872,28 +4869,28 @@
         <v>360</v>
       </c>
       <c r="J78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K78" t="s">
+        <v>328</v>
+      </c>
+      <c r="L78" t="s">
+        <v>50</v>
+      </c>
+      <c r="M78" t="s">
+        <v>37</v>
+      </c>
+      <c r="N78" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="O78" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="L78" t="s">
-        <v>51</v>
-      </c>
-      <c r="M78" t="s">
-        <v>38</v>
-      </c>
-      <c r="N78" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="O78" s="5" t="s">
-        <v>330</v>
-      </c>
       <c r="V78" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="W78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="2:26" x14ac:dyDescent="0.2">
@@ -4910,25 +4907,25 @@
         <v>404</v>
       </c>
       <c r="J79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K79" t="s">
+        <v>332</v>
+      </c>
+      <c r="L79" t="s">
+        <v>50</v>
+      </c>
+      <c r="M79" t="s">
+        <v>51</v>
+      </c>
+      <c r="N79" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="O79" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="L79" t="s">
-        <v>51</v>
-      </c>
-      <c r="M79" t="s">
-        <v>52</v>
-      </c>
-      <c r="N79" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="O79" s="5" t="s">
-        <v>334</v>
-      </c>
       <c r="V79" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="W79" t="s">
         <v>31</v>
@@ -4948,25 +4945,25 @@
         <v>374</v>
       </c>
       <c r="J80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K80" t="s">
+        <v>64</v>
+      </c>
+      <c r="L80" t="s">
+        <v>50</v>
+      </c>
+      <c r="M80" t="s">
+        <v>51</v>
+      </c>
+      <c r="N80" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O80" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="L80" t="s">
-        <v>51</v>
-      </c>
-      <c r="M80" t="s">
-        <v>52</v>
-      </c>
-      <c r="N80" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O80" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="V80" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W80" t="s">
         <v>33</v>
@@ -4986,31 +4983,31 @@
         <v>366</v>
       </c>
       <c r="J81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K81" t="s">
+        <v>335</v>
+      </c>
+      <c r="L81" t="s">
+        <v>50</v>
+      </c>
+      <c r="M81" t="s">
+        <v>37</v>
+      </c>
+      <c r="N81" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="O81" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="L81" t="s">
-        <v>51</v>
-      </c>
-      <c r="M81" t="s">
-        <v>38</v>
-      </c>
-      <c r="N81" s="5" t="s">
+      <c r="V81" t="s">
+        <v>367</v>
+      </c>
+      <c r="W81" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z81" t="s">
         <v>338</v>
-      </c>
-      <c r="O81" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="V81" t="s">
-        <v>368</v>
-      </c>
-      <c r="W81" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z81" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="82" spans="2:26" x14ac:dyDescent="0.2">
@@ -5027,28 +5024,28 @@
         <v>369</v>
       </c>
       <c r="J82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K82" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N82" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O82" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="V82" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="W82" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83" spans="2:26" x14ac:dyDescent="0.2">
@@ -5065,31 +5062,31 @@
         <v>372</v>
       </c>
       <c r="J83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K83" t="s">
+        <v>342</v>
+      </c>
+      <c r="L83" t="s">
+        <v>50</v>
+      </c>
+      <c r="M83" t="s">
+        <v>37</v>
+      </c>
+      <c r="N83" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="O83" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="L83" t="s">
-        <v>51</v>
-      </c>
-      <c r="M83" t="s">
-        <v>38</v>
-      </c>
-      <c r="N83" s="5" t="s">
+      <c r="V83" t="s">
+        <v>365</v>
+      </c>
+      <c r="W83" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z83" t="s">
         <v>345</v>
-      </c>
-      <c r="O83" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="V83" t="s">
-        <v>366</v>
-      </c>
-      <c r="W83" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z83" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="84" spans="2:26" x14ac:dyDescent="0.2">
@@ -5106,31 +5103,31 @@
         <v>374</v>
       </c>
       <c r="J84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K84" t="s">
+        <v>346</v>
+      </c>
+      <c r="L84" t="s">
+        <v>50</v>
+      </c>
+      <c r="M84" t="s">
+        <v>37</v>
+      </c>
+      <c r="N84" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="O84" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="L84" t="s">
-        <v>51</v>
-      </c>
-      <c r="M84" t="s">
-        <v>38</v>
-      </c>
-      <c r="N84" s="5" t="s">
+      <c r="V84" t="s">
+        <v>368</v>
+      </c>
+      <c r="W84" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z84" t="s">
         <v>349</v>
-      </c>
-      <c r="O84" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="V84" t="s">
-        <v>369</v>
-      </c>
-      <c r="W84" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z84" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="85" spans="2:26" x14ac:dyDescent="0.2">
@@ -5147,25 +5144,25 @@
         <v>388</v>
       </c>
       <c r="J85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K85" t="s">
+        <v>163</v>
+      </c>
+      <c r="L85" t="s">
+        <v>50</v>
+      </c>
+      <c r="M85" t="s">
+        <v>37</v>
+      </c>
+      <c r="N85" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="O85" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="L85" t="s">
-        <v>51</v>
-      </c>
-      <c r="M85" t="s">
-        <v>38</v>
-      </c>
-      <c r="N85" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="O85" s="5" t="s">
-        <v>165</v>
-      </c>
       <c r="V85" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="W85" t="s">
         <v>33</v>
@@ -5185,31 +5182,31 @@
         <v>380</v>
       </c>
       <c r="J86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K86" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L86" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N86" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="O86" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="V86" t="s">
         <v>353</v>
       </c>
-      <c r="O86" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="V86" t="s">
-        <v>354</v>
-      </c>
       <c r="W86" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z86" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="87" spans="2:26" x14ac:dyDescent="0.2">
@@ -5226,31 +5223,31 @@
         <v>384</v>
       </c>
       <c r="J87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K87" t="s">
+        <v>357</v>
+      </c>
+      <c r="L87" t="s">
+        <v>50</v>
+      </c>
+      <c r="M87" t="s">
+        <v>37</v>
+      </c>
+      <c r="N87" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="O87" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="V87" t="s">
+        <v>364</v>
+      </c>
+      <c r="W87" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z87" t="s">
         <v>358</v>
-      </c>
-      <c r="L87" t="s">
-        <v>51</v>
-      </c>
-      <c r="M87" t="s">
-        <v>38</v>
-      </c>
-      <c r="N87" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="O87" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="V87" t="s">
-        <v>365</v>
-      </c>
-      <c r="W87" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z87" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="88" spans="2:26" x14ac:dyDescent="0.2">
@@ -5267,31 +5264,31 @@
         <v>388</v>
       </c>
       <c r="J88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K88" t="s">
+        <v>359</v>
+      </c>
+      <c r="L88" t="s">
+        <v>50</v>
+      </c>
+      <c r="M88" t="s">
+        <v>37</v>
+      </c>
+      <c r="N88" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="O88" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="L88" t="s">
-        <v>51</v>
-      </c>
-      <c r="M88" t="s">
-        <v>38</v>
-      </c>
-      <c r="N88" s="5" t="s">
+      <c r="V88" t="s">
+        <v>363</v>
+      </c>
+      <c r="W88" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z88" t="s">
         <v>362</v>
-      </c>
-      <c r="O88" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="V88" t="s">
-        <v>364</v>
-      </c>
-      <c r="W88" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z88" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="89" spans="2:26" x14ac:dyDescent="0.2">
@@ -5308,25 +5305,25 @@
         <v>399</v>
       </c>
       <c r="J89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K89" t="s">
+        <v>376</v>
+      </c>
+      <c r="L89" t="s">
+        <v>50</v>
+      </c>
+      <c r="M89" t="s">
+        <v>51</v>
+      </c>
+      <c r="N89" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="O89" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="L89" t="s">
-        <v>51</v>
-      </c>
-      <c r="M89" t="s">
-        <v>52</v>
-      </c>
-      <c r="N89" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="O89" s="5" t="s">
-        <v>378</v>
-      </c>
       <c r="V89" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="W89" t="s">
         <v>33</v>
@@ -5346,34 +5343,34 @@
         <v>391</v>
       </c>
       <c r="J90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K90" t="s">
+        <v>371</v>
+      </c>
+      <c r="L90" t="s">
+        <v>50</v>
+      </c>
+      <c r="M90" t="s">
+        <v>41</v>
+      </c>
+      <c r="N90" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="O90" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="L90" t="s">
-        <v>51</v>
-      </c>
-      <c r="M90" t="s">
-        <v>42</v>
-      </c>
-      <c r="N90" s="5" t="s">
+      <c r="P90" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q90" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="O90" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="P90" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q90" s="5" t="s">
-        <v>375</v>
-      </c>
       <c r="V90" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="W90" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" spans="2:26" x14ac:dyDescent="0.2">
@@ -5390,28 +5387,28 @@
         <v>394</v>
       </c>
       <c r="J91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K91" t="s">
+        <v>380</v>
+      </c>
+      <c r="L91" t="s">
+        <v>50</v>
+      </c>
+      <c r="M91" t="s">
+        <v>37</v>
+      </c>
+      <c r="N91" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="O91" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="L91" t="s">
-        <v>51</v>
-      </c>
-      <c r="M91" t="s">
-        <v>38</v>
-      </c>
-      <c r="N91" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="O91" s="5" t="s">
-        <v>382</v>
-      </c>
       <c r="V91" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W91" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92" spans="2:26" x14ac:dyDescent="0.2">
@@ -5428,31 +5425,31 @@
         <v>396</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K92" t="s">
+        <v>384</v>
+      </c>
+      <c r="L92" t="s">
+        <v>50</v>
+      </c>
+      <c r="M92" t="s">
+        <v>41</v>
+      </c>
+      <c r="N92" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="O92" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="L92" t="s">
-        <v>51</v>
-      </c>
-      <c r="M92" t="s">
-        <v>42</v>
-      </c>
-      <c r="N92" s="5" t="s">
+      <c r="V92" t="s">
+        <v>383</v>
+      </c>
+      <c r="W92" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z92" t="s">
         <v>387</v>
-      </c>
-      <c r="O92" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="V92" t="s">
-        <v>384</v>
-      </c>
-      <c r="W92" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z92" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="93" spans="2:26" x14ac:dyDescent="0.2">
@@ -5469,28 +5466,28 @@
         <v>398</v>
       </c>
       <c r="J93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K93" t="s">
+        <v>389</v>
+      </c>
+      <c r="L93" t="s">
+        <v>50</v>
+      </c>
+      <c r="M93" t="s">
+        <v>41</v>
+      </c>
+      <c r="N93" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="O93" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="L93" t="s">
-        <v>51</v>
-      </c>
-      <c r="M93" t="s">
-        <v>42</v>
-      </c>
-      <c r="N93" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="O93" s="5" t="s">
-        <v>391</v>
-      </c>
       <c r="V93" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="W93" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" spans="2:26" x14ac:dyDescent="0.2">
@@ -5507,31 +5504,31 @@
         <v>399</v>
       </c>
       <c r="J94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K94" t="s">
+        <v>392</v>
+      </c>
+      <c r="L94" t="s">
+        <v>50</v>
+      </c>
+      <c r="M94" t="s">
+        <v>41</v>
+      </c>
+      <c r="N94" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="O94" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="V94" t="s">
         <v>393</v>
       </c>
-      <c r="L94" t="s">
-        <v>51</v>
-      </c>
-      <c r="M94" t="s">
-        <v>42</v>
-      </c>
-      <c r="N94" s="5" t="s">
+      <c r="W94" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z94" t="s">
         <v>396</v>
-      </c>
-      <c r="O94" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="V94" t="s">
-        <v>394</v>
-      </c>
-      <c r="W94" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z94" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="95" spans="2:26" x14ac:dyDescent="0.2">
@@ -5548,31 +5545,31 @@
         <v>401</v>
       </c>
       <c r="J95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K95" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L95" t="s">
+        <v>50</v>
+      </c>
+      <c r="M95" t="s">
         <v>51</v>
       </c>
-      <c r="M95" t="s">
-        <v>52</v>
-      </c>
       <c r="N95" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O95" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="V95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W95" t="s">
         <v>33</v>
       </c>
       <c r="Z95" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="96" spans="2:26" x14ac:dyDescent="0.2">
@@ -5589,31 +5586,31 @@
         <v>401</v>
       </c>
       <c r="J96" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K96" t="s">
+        <v>398</v>
+      </c>
+      <c r="L96" t="s">
+        <v>50</v>
+      </c>
+      <c r="M96" t="s">
+        <v>37</v>
+      </c>
+      <c r="N96" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="O96" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="L96" t="s">
-        <v>51</v>
-      </c>
-      <c r="M96" t="s">
-        <v>38</v>
-      </c>
-      <c r="N96" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="O96" s="5" t="s">
-        <v>400</v>
-      </c>
       <c r="V96" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="W96" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z96" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="97" spans="2:26" x14ac:dyDescent="0.2">
@@ -5630,31 +5627,31 @@
         <v>402</v>
       </c>
       <c r="J97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K97" t="s">
+        <v>401</v>
+      </c>
+      <c r="L97" t="s">
+        <v>50</v>
+      </c>
+      <c r="M97" t="s">
+        <v>37</v>
+      </c>
+      <c r="N97" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="O97" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="V97" t="s">
         <v>402</v>
-      </c>
-      <c r="L97" t="s">
-        <v>51</v>
-      </c>
-      <c r="M97" t="s">
-        <v>38</v>
-      </c>
-      <c r="N97" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="O97" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="V97" t="s">
-        <v>403</v>
       </c>
       <c r="W97" t="s">
         <v>33</v>
       </c>
       <c r="Z97" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="98" spans="2:26" x14ac:dyDescent="0.2">
@@ -5671,31 +5668,31 @@
         <v>402</v>
       </c>
       <c r="J98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K98" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L98" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N98" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O98" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="V98" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="W98" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z98" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="99" spans="2:26" x14ac:dyDescent="0.2">
@@ -5712,31 +5709,31 @@
         <v>404</v>
       </c>
       <c r="J99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K99" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L99" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M99" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N99" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O99" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="V99" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="W99" t="s">
         <v>33</v>
       </c>
       <c r="Z99" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="100" spans="2:26" x14ac:dyDescent="0.2">
@@ -5753,31 +5750,31 @@
         <v>404</v>
       </c>
       <c r="J100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K100" t="s">
+        <v>412</v>
+      </c>
+      <c r="L100" t="s">
+        <v>50</v>
+      </c>
+      <c r="M100" t="s">
+        <v>41</v>
+      </c>
+      <c r="N100" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="O100" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="L100" t="s">
-        <v>51</v>
-      </c>
-      <c r="M100" t="s">
-        <v>42</v>
-      </c>
-      <c r="N100" s="5" t="s">
+      <c r="V100" t="s">
+        <v>410</v>
+      </c>
+      <c r="W100" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z100" t="s">
         <v>415</v>
-      </c>
-      <c r="O100" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="V100" t="s">
-        <v>411</v>
-      </c>
-      <c r="W100" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z100" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="101" spans="2:26" x14ac:dyDescent="0.2">
@@ -5794,25 +5791,25 @@
         <v>418</v>
       </c>
       <c r="J101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K101" t="s">
+        <v>418</v>
+      </c>
+      <c r="L101" t="s">
+        <v>50</v>
+      </c>
+      <c r="M101" t="s">
+        <v>51</v>
+      </c>
+      <c r="N101" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="O101" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="L101" t="s">
-        <v>51</v>
-      </c>
-      <c r="M101" t="s">
-        <v>52</v>
-      </c>
-      <c r="N101" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="O101" s="5" t="s">
-        <v>420</v>
-      </c>
       <c r="V101" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="W101" t="s">
         <v>31</v>
@@ -5832,25 +5829,25 @@
         <v>408</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K102" t="s">
+        <v>230</v>
+      </c>
+      <c r="L102" t="s">
+        <v>50</v>
+      </c>
+      <c r="M102" t="s">
+        <v>51</v>
+      </c>
+      <c r="N102" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="O102" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="L102" t="s">
-        <v>51</v>
-      </c>
-      <c r="M102" t="s">
-        <v>52</v>
-      </c>
-      <c r="N102" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="O102" s="5" t="s">
-        <v>232</v>
-      </c>
       <c r="V102" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="W102" t="s">
         <v>33</v>
@@ -5870,28 +5867,28 @@
         <v>408</v>
       </c>
       <c r="J103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K103" t="s">
+        <v>421</v>
+      </c>
+      <c r="L103" t="s">
+        <v>50</v>
+      </c>
+      <c r="M103" t="s">
+        <v>37</v>
+      </c>
+      <c r="N103" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="O103" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="L103" t="s">
-        <v>51</v>
-      </c>
-      <c r="M103" t="s">
-        <v>38</v>
-      </c>
-      <c r="N103" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="O103" s="5" t="s">
-        <v>423</v>
-      </c>
       <c r="V103" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="W103" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="104" spans="2:26" x14ac:dyDescent="0.2">
@@ -5908,25 +5905,25 @@
         <v>418</v>
       </c>
       <c r="J104" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K104" t="s">
+        <v>425</v>
+      </c>
+      <c r="L104" t="s">
+        <v>50</v>
+      </c>
+      <c r="M104" t="s">
+        <v>37</v>
+      </c>
+      <c r="N104" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="O104" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="L104" t="s">
-        <v>51</v>
-      </c>
-      <c r="M104" t="s">
-        <v>38</v>
-      </c>
-      <c r="N104" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="O104" s="5" t="s">
-        <v>427</v>
-      </c>
       <c r="V104" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="W104" t="s">
         <v>33</v>
@@ -5946,28 +5943,28 @@
         <v>409</v>
       </c>
       <c r="J105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K105" t="s">
+        <v>428</v>
+      </c>
+      <c r="L105" t="s">
+        <v>50</v>
+      </c>
+      <c r="M105" t="s">
+        <v>37</v>
+      </c>
+      <c r="N105" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="O105" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="L105" t="s">
-        <v>51</v>
-      </c>
-      <c r="M105" t="s">
-        <v>38</v>
-      </c>
-      <c r="N105" s="5" t="s">
+      <c r="V105" t="s">
         <v>431</v>
       </c>
-      <c r="O105" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="V105" t="s">
-        <v>432</v>
-      </c>
       <c r="W105" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="106" spans="2:26" x14ac:dyDescent="0.2">
@@ -5984,31 +5981,31 @@
         <v>411</v>
       </c>
       <c r="J106" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K106" t="s">
+        <v>433</v>
+      </c>
+      <c r="L106" t="s">
+        <v>50</v>
+      </c>
+      <c r="M106" t="s">
+        <v>37</v>
+      </c>
+      <c r="N106" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="O106" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="L106" t="s">
-        <v>51</v>
-      </c>
-      <c r="M106" t="s">
-        <v>38</v>
-      </c>
-      <c r="N106" s="5" t="s">
+      <c r="V106" t="s">
+        <v>432</v>
+      </c>
+      <c r="W106" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z106" t="s">
         <v>436</v>
-      </c>
-      <c r="O106" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="V106" t="s">
-        <v>433</v>
-      </c>
-      <c r="W106" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z106" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="107" spans="2:26" x14ac:dyDescent="0.2">
@@ -6025,28 +6022,28 @@
         <v>412</v>
       </c>
       <c r="J107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K107" t="s">
+        <v>438</v>
+      </c>
+      <c r="L107" t="s">
+        <v>50</v>
+      </c>
+      <c r="M107" t="s">
+        <v>37</v>
+      </c>
+      <c r="N107" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="O107" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="L107" t="s">
-        <v>51</v>
-      </c>
-      <c r="M107" t="s">
-        <v>38</v>
-      </c>
-      <c r="N107" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="O107" s="5" t="s">
-        <v>440</v>
-      </c>
       <c r="V107" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="W107" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="108" spans="2:26" x14ac:dyDescent="0.2">
@@ -6063,28 +6060,28 @@
         <v>413</v>
       </c>
       <c r="J108" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K108" t="s">
+        <v>442</v>
+      </c>
+      <c r="L108" t="s">
+        <v>50</v>
+      </c>
+      <c r="M108" t="s">
+        <v>37</v>
+      </c>
+      <c r="N108" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="O108" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="L108" t="s">
-        <v>51</v>
-      </c>
-      <c r="M108" t="s">
-        <v>38</v>
-      </c>
-      <c r="N108" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="O108" s="5" t="s">
-        <v>444</v>
-      </c>
       <c r="V108" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="W108" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="109" spans="2:26" x14ac:dyDescent="0.2">
@@ -6101,31 +6098,31 @@
         <v>415</v>
       </c>
       <c r="J109" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K109" t="s">
+        <v>446</v>
+      </c>
+      <c r="L109" t="s">
+        <v>50</v>
+      </c>
+      <c r="M109" t="s">
+        <v>37</v>
+      </c>
+      <c r="N109" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="O109" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="L109" t="s">
-        <v>51</v>
-      </c>
-      <c r="M109" t="s">
-        <v>38</v>
-      </c>
-      <c r="N109" s="5" t="s">
+      <c r="V109" t="s">
+        <v>445</v>
+      </c>
+      <c r="W109" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z109" t="s">
         <v>449</v>
-      </c>
-      <c r="O109" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="V109" t="s">
-        <v>446</v>
-      </c>
-      <c r="W109" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z109" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="110" spans="2:26" x14ac:dyDescent="0.2">
@@ -6142,28 +6139,28 @@
         <v>416</v>
       </c>
       <c r="J110" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K110" t="s">
+        <v>451</v>
+      </c>
+      <c r="L110" t="s">
+        <v>50</v>
+      </c>
+      <c r="M110" t="s">
+        <v>37</v>
+      </c>
+      <c r="N110" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="O110" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="L110" t="s">
-        <v>51</v>
-      </c>
-      <c r="M110" t="s">
-        <v>38</v>
-      </c>
-      <c r="N110" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="O110" s="5" t="s">
-        <v>453</v>
-      </c>
       <c r="V110" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="W110" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="111" spans="2:26" x14ac:dyDescent="0.2">
@@ -6180,28 +6177,28 @@
         <v>418</v>
       </c>
       <c r="J111" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K111" t="s">
+        <v>455</v>
+      </c>
+      <c r="L111" t="s">
+        <v>50</v>
+      </c>
+      <c r="M111" t="s">
+        <v>37</v>
+      </c>
+      <c r="N111" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="O111" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="L111" t="s">
-        <v>51</v>
-      </c>
-      <c r="M111" t="s">
-        <v>38</v>
-      </c>
-      <c r="N111" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="O111" s="5" t="s">
-        <v>457</v>
-      </c>
       <c r="V111" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="W111" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Datasets/Stalder/Data/Stalder_JR.xlsx
+++ b/Datasets/Stalder/Data/Stalder_JR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julerickert/Documents/Akademie_Projekt/Datasets/Stalder/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C580C1FB-856E-F347-97BE-4A1872897709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D794EBF6-8873-974A-9CCF-EB128283DC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{83D778BB-B2D8-FD4F-A694-2AEDDD4D8C05}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="456">
   <si>
     <t>ID</t>
   </si>
@@ -122,9 +122,6 @@
     <t>Kommentar_Lvl3</t>
   </si>
   <si>
-    <t>stal1</t>
-  </si>
-  <si>
     <t>Die Parabel von dem verlorenen Sohne. Luk. 15, 11-32.</t>
   </si>
   <si>
@@ -146,21 +143,12 @@
     <t>Nicht unbedingt zeitlich relevant / Der Althochdeutsche Tatian ist eine Übersetzung der Evangelienharmonie Tatians ins Althochdeutsche. Die Übersetzung wurde um das Jahr 830 im Kloster Fulda unter der Leitung von Hrabanus Maurus angefertigt und befindet sich seit dem 10. Jahrhundert im Kloster St. Gallen (Cod. Sang. 56) {-Wikipedia}</t>
   </si>
   <si>
-    <t>Fulda</t>
-  </si>
-  <si>
     <t>Kleinregional</t>
   </si>
   <si>
     <t>j</t>
   </si>
   <si>
-    <t>50.5577668</t>
-  </si>
-  <si>
-    <t>9.6845458</t>
-  </si>
-  <si>
     <t>Lokal</t>
   </si>
   <si>
@@ -1410,13 +1398,19 @@
   </si>
   <si>
     <t>46.0040189</t>
+  </si>
+  <si>
+    <t>[stal1]</t>
+  </si>
+  <si>
+    <t>Vergleich</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1436,12 +1430,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1496,8 +1484,8 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1812,11 +1800,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677BF33D-024D-394D-9965-483490377549}">
-  <dimension ref="A1:AB111"/>
+  <dimension ref="A1:AC111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z4" sqref="Z4"/>
+      <selection pane="bottomLeft" activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1827,7 +1815,7 @@
     <col min="15" max="21" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1898,27 +1886,30 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>259</v>
@@ -1927,7 +1918,7 @@
         <v>270</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K2">
         <v>999</v>
@@ -1945,21 +1936,24 @@
         <v>-1</v>
       </c>
       <c r="V2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2" t="s">
         <v>30</v>
       </c>
-      <c r="W2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>261</v>
@@ -1968,39 +1962,42 @@
         <v>267</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>40</v>
+      <c r="O3" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="V3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" t="s">
         <v>32</v>
       </c>
-      <c r="W3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <v>267</v>
@@ -2009,39 +2006,42 @@
         <v>269</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="V4" t="s">
-        <v>42</v>
-      </c>
       <c r="W4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="X4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>271</v>
@@ -2050,36 +2050,39 @@
         <v>346</v>
       </c>
       <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" t="s">
         <v>47</v>
       </c>
-      <c r="K5" t="s">
+      <c r="N5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="V5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="W5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="X5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6">
         <v>273</v>
@@ -2088,36 +2091,39 @@
         <v>276</v>
       </c>
       <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" t="s">
         <v>47</v>
       </c>
-      <c r="K6" t="s">
+      <c r="N6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V6" t="s">
         <v>50</v>
       </c>
-      <c r="M6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="V6" t="s">
-        <v>54</v>
-      </c>
       <c r="W6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="X6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>273</v>
@@ -2126,42 +2132,45 @@
         <v>274</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="V7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="W7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8">
         <v>274</v>
@@ -2170,36 +2179,39 @@
         <v>276</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="V8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="W8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>276</v>
@@ -2208,36 +2220,39 @@
         <v>289</v>
       </c>
       <c r="J9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" t="s">
         <v>47</v>
       </c>
-      <c r="K9" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" t="s">
-        <v>50</v>
-      </c>
-      <c r="M9" t="s">
-        <v>51</v>
-      </c>
       <c r="N9" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="V9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="W9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="X9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>276</v>
@@ -2246,36 +2261,39 @@
         <v>278</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="V10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="W10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11">
         <v>278</v>
@@ -2284,36 +2302,39 @@
         <v>279</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="V11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="W11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12">
         <v>280</v>
@@ -2322,36 +2343,39 @@
         <v>289</v>
       </c>
       <c r="J12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" t="s">
         <v>47</v>
       </c>
-      <c r="K12" t="s">
-        <v>77</v>
-      </c>
-      <c r="L12" t="s">
-        <v>50</v>
-      </c>
-      <c r="M12" t="s">
-        <v>51</v>
-      </c>
       <c r="N12" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="V12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13">
         <v>280</v>
@@ -2360,36 +2384,39 @@
         <v>281</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="V13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="X13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14">
         <v>281</v>
@@ -2398,36 +2425,39 @@
         <v>283</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="V14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="W14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="X14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15">
         <v>283</v>
@@ -2436,36 +2466,39 @@
         <v>284</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="V15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="W15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="X15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16">
         <v>284</v>
@@ -2474,36 +2507,39 @@
         <v>286</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="V16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="W16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="X16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17">
         <v>286</v>
@@ -2512,36 +2548,39 @@
         <v>288</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="V17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="W17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="X17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18">
         <v>288</v>
@@ -2550,36 +2589,39 @@
         <v>289</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="V18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="W18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19">
         <v>289</v>
@@ -2588,36 +2630,39 @@
         <v>293</v>
       </c>
       <c r="J19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" t="s">
+        <v>103</v>
+      </c>
+      <c r="L19" t="s">
+        <v>46</v>
+      </c>
+      <c r="M19" t="s">
         <v>47</v>
       </c>
-      <c r="K19" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" t="s">
-        <v>51</v>
-      </c>
       <c r="N19" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="V19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="W19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="X19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20">
         <v>289</v>
@@ -2626,36 +2671,39 @@
         <v>291</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="V20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="W20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21">
         <v>291</v>
@@ -2664,36 +2712,39 @@
         <v>293</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K21" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="V21" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="W21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22">
         <v>293</v>
@@ -2702,36 +2753,39 @@
         <v>294</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="V22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="W22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="X22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23">
         <v>293</v>
@@ -2740,36 +2794,39 @@
         <v>294</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="V23" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="W23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24">
         <v>295</v>
@@ -2778,36 +2835,39 @@
         <v>296</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K24" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="V24" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="W24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="X24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25">
         <v>295</v>
@@ -2816,36 +2876,39 @@
         <v>296</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K25" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="V25" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="W25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26">
         <v>297</v>
@@ -2854,36 +2917,39 @@
         <v>300</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K26" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="V26" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="W26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="X26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27">
         <v>297</v>
@@ -2892,36 +2958,39 @@
         <v>298</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K27" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="V27" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28">
         <v>299</v>
@@ -2930,36 +2999,39 @@
         <v>300</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="V28" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="W28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29">
         <v>300</v>
@@ -2968,36 +3040,39 @@
         <v>302</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K29" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L29" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="V29" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="W29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="X29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30">
         <v>300</v>
@@ -3006,42 +3081,45 @@
         <v>302</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K30" t="s">
+        <v>147</v>
+      </c>
+      <c r="L30" t="s">
+        <v>46</v>
+      </c>
+      <c r="M30" t="s">
+        <v>35</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="P30" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="L30" t="s">
-        <v>50</v>
-      </c>
-      <c r="M30" t="s">
-        <v>37</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="P30" s="5" t="s">
-        <v>155</v>
-      </c>
       <c r="Q30" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="V30" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="W30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31">
         <v>302</v>
@@ -3050,36 +3128,39 @@
         <v>304</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K31" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L31" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="V31" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="W31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="X31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32">
         <v>302</v>
@@ -3088,36 +3169,39 @@
         <v>304</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K32" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M32" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="V32" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="W32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33">
         <v>304</v>
@@ -3126,36 +3210,39 @@
         <v>307</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K33" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="V33" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="W33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="X33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34">
         <v>304</v>
@@ -3164,36 +3251,39 @@
         <v>305</v>
       </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K34" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="V34" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="W34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D35">
         <v>305</v>
@@ -3202,36 +3292,39 @@
         <v>307</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K35" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L35" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="V35" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="W35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36">
         <v>307</v>
@@ -3240,36 +3333,39 @@
         <v>309</v>
       </c>
       <c r="J36" t="s">
+        <v>43</v>
+      </c>
+      <c r="K36" t="s">
+        <v>170</v>
+      </c>
+      <c r="L36" t="s">
+        <v>46</v>
+      </c>
+      <c r="M36" t="s">
         <v>47</v>
       </c>
-      <c r="K36" t="s">
-        <v>174</v>
-      </c>
-      <c r="L36" t="s">
-        <v>50</v>
-      </c>
-      <c r="M36" t="s">
-        <v>51</v>
-      </c>
       <c r="N36" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="V36" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="W36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="X36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37">
         <v>307</v>
@@ -3278,36 +3374,39 @@
         <v>309</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K37" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L37" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M37" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="V37" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="W37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38">
         <v>309</v>
@@ -3316,36 +3415,39 @@
         <v>310</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L38" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="V38" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="W38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="X38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D39">
         <v>309</v>
@@ -3354,36 +3456,39 @@
         <v>310</v>
       </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K39" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L39" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M39" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="V39" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="W39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D40">
         <v>311</v>
@@ -3392,39 +3497,42 @@
         <v>312</v>
       </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K40" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L40" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="O40" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="V40" t="s">
+        <v>182</v>
+      </c>
+      <c r="W40" t="s">
+        <v>32</v>
+      </c>
+      <c r="X40" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA40" t="s">
         <v>190</v>
       </c>
-      <c r="V40" t="s">
-        <v>186</v>
-      </c>
-      <c r="W40" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D41">
         <v>311</v>
@@ -3433,39 +3541,42 @@
         <v>312</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K41" t="s">
+        <v>185</v>
+      </c>
+      <c r="L41" t="s">
+        <v>36</v>
+      </c>
+      <c r="M41" t="s">
+        <v>37</v>
+      </c>
+      <c r="N41" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="L41" t="s">
-        <v>38</v>
-      </c>
-      <c r="M41" t="s">
-        <v>41</v>
-      </c>
-      <c r="N41" s="5" t="s">
-        <v>193</v>
-      </c>
       <c r="O41" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="V41" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="W41" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X41" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D42">
         <v>312</v>
@@ -3474,36 +3585,39 @@
         <v>314</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K42" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L42" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M42" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V42" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="W42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="X42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D43">
         <v>312</v>
@@ -3512,36 +3626,39 @@
         <v>314</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K43" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L43" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="V43" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D44">
         <v>314</v>
@@ -3550,36 +3667,39 @@
         <v>323</v>
       </c>
       <c r="J44" t="s">
+        <v>43</v>
+      </c>
+      <c r="K44" t="s">
+        <v>198</v>
+      </c>
+      <c r="L44" t="s">
+        <v>46</v>
+      </c>
+      <c r="M44" t="s">
         <v>47</v>
       </c>
-      <c r="K44" t="s">
-        <v>202</v>
-      </c>
-      <c r="L44" t="s">
-        <v>50</v>
-      </c>
-      <c r="M44" t="s">
-        <v>51</v>
-      </c>
       <c r="N44" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="V44" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="W44" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="X44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D45">
         <v>314</v>
@@ -3588,42 +3708,45 @@
         <v>316</v>
       </c>
       <c r="J45" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K45" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M45" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q45" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="V45" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="W45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D46">
         <v>316</v>
@@ -3632,36 +3755,39 @@
         <v>323</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K46" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L46" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="V46" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="W46" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D47">
         <v>316</v>
@@ -3670,36 +3796,39 @@
         <v>317</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K47" t="s">
+        <v>208</v>
+      </c>
+      <c r="L47" t="s">
+        <v>46</v>
+      </c>
+      <c r="M47" t="s">
+        <v>35</v>
+      </c>
+      <c r="N47" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="L47" t="s">
-        <v>50</v>
-      </c>
-      <c r="M47" t="s">
-        <v>37</v>
-      </c>
-      <c r="N47" s="5" t="s">
-        <v>216</v>
-      </c>
       <c r="O47" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="V47" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="W47" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="X47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D48">
         <v>318</v>
@@ -3708,36 +3837,39 @@
         <v>319</v>
       </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K48" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L48" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="V48" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="W48" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="X48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B49" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D49">
         <v>319</v>
@@ -3746,36 +3878,39 @@
         <v>321</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K49" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L49" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M49" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="V49" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="W49" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="X49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D50">
         <v>321</v>
@@ -3784,36 +3919,39 @@
         <v>323</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K50" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L50" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M50" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="V50" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="W50" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D51">
         <v>323</v>
@@ -3822,36 +3960,39 @@
         <v>328</v>
       </c>
       <c r="J51" t="s">
+        <v>43</v>
+      </c>
+      <c r="K51" t="s">
+        <v>226</v>
+      </c>
+      <c r="L51" t="s">
+        <v>46</v>
+      </c>
+      <c r="M51" t="s">
         <v>47</v>
       </c>
-      <c r="K51" t="s">
-        <v>230</v>
-      </c>
-      <c r="L51" t="s">
-        <v>50</v>
-      </c>
-      <c r="M51" t="s">
-        <v>51</v>
-      </c>
       <c r="N51" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="V51" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="W51" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="X51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B52" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D52">
         <v>323</v>
@@ -3860,36 +4001,39 @@
         <v>324</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K52" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L52" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M52" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="V52" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="W52" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D53">
         <v>324</v>
@@ -3898,36 +4042,39 @@
         <v>326</v>
       </c>
       <c r="J53" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K53" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="L53" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M53" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="V53" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="W53" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B54" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D54">
         <v>326</v>
@@ -3936,36 +4083,39 @@
         <v>328</v>
       </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K54" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L54" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="V54" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="W54" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B55" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D55">
         <v>328</v>
@@ -3974,36 +4124,39 @@
         <v>335</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K55" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L55" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M55" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="V55" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="W55" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="X55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B56" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D56">
         <v>328</v>
@@ -4012,36 +4165,39 @@
         <v>331</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K56" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L56" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M56" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="V56" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="W56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B57" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D57">
         <v>328</v>
@@ -4050,42 +4206,45 @@
         <v>329</v>
       </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K57" t="s">
+        <v>248</v>
+      </c>
+      <c r="L57" t="s">
+        <v>46</v>
+      </c>
+      <c r="M57" t="s">
+        <v>35</v>
+      </c>
+      <c r="N57" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="L57" t="s">
-        <v>50</v>
-      </c>
-      <c r="M57" t="s">
-        <v>37</v>
-      </c>
-      <c r="N57" s="5" t="s">
-        <v>256</v>
-      </c>
       <c r="O57" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P57" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q57" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="V57" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="W57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="X57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D58">
         <v>329</v>
@@ -4094,36 +4253,39 @@
         <v>331</v>
       </c>
       <c r="J58" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K58" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L58" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M58" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="V58" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="W58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="X58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B59" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D59">
         <v>331</v>
@@ -4132,36 +4294,39 @@
         <v>333</v>
       </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K59" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L59" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M59" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="V59" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="W59" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X59" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D60">
         <v>333</v>
@@ -4170,36 +4335,39 @@
         <v>335</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K60" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L60" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M60" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="O60" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="V60" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="W60" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D61">
         <v>335</v>
@@ -4208,36 +4376,39 @@
         <v>339</v>
       </c>
       <c r="J61" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K61" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L61" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M61" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N61" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="V61" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="W61" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="X61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B62" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D62">
         <v>335</v>
@@ -4246,36 +4417,39 @@
         <v>337</v>
       </c>
       <c r="J62" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K62" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L62" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M62" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N62" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="V62" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="W62" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B63" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D63">
         <v>337</v>
@@ -4284,42 +4458,45 @@
         <v>339</v>
       </c>
       <c r="J63" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K63" t="s">
+        <v>274</v>
+      </c>
+      <c r="L63" t="s">
+        <v>46</v>
+      </c>
+      <c r="M63" t="s">
+        <v>35</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="O63" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="P63" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="L63" t="s">
-        <v>50</v>
-      </c>
-      <c r="M63" t="s">
-        <v>37</v>
-      </c>
-      <c r="N63" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="O63" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="P63" s="5" t="s">
-        <v>282</v>
-      </c>
       <c r="Q63" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="V63" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="W63" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B64" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D64">
         <v>339</v>
@@ -4328,36 +4505,39 @@
         <v>346</v>
       </c>
       <c r="J64" t="s">
+        <v>43</v>
+      </c>
+      <c r="K64" t="s">
+        <v>281</v>
+      </c>
+      <c r="L64" t="s">
+        <v>46</v>
+      </c>
+      <c r="M64" t="s">
         <v>47</v>
       </c>
-      <c r="K64" t="s">
+      <c r="N64" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="O64" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="L64" t="s">
-        <v>50</v>
-      </c>
-      <c r="M64" t="s">
-        <v>51</v>
-      </c>
-      <c r="N64" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="O64" s="5" t="s">
-        <v>289</v>
-      </c>
       <c r="V64" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="W64" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="X64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B65" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D65">
         <v>339</v>
@@ -4366,36 +4546,39 @@
         <v>340</v>
       </c>
       <c r="J65" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K65" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L65" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M65" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="O65" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="V65" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="W65" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B66" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D66">
         <v>340</v>
@@ -4404,42 +4587,45 @@
         <v>342</v>
       </c>
       <c r="J66" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K66" t="s">
+        <v>288</v>
+      </c>
+      <c r="L66" t="s">
+        <v>46</v>
+      </c>
+      <c r="M66" t="s">
+        <v>35</v>
+      </c>
+      <c r="N66" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="O66" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="P66" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q66" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="L66" t="s">
-        <v>50</v>
-      </c>
-      <c r="M66" t="s">
-        <v>37</v>
-      </c>
-      <c r="N66" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="O66" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="P66" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q66" s="5" t="s">
-        <v>296</v>
-      </c>
       <c r="V66" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="W66" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X66" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B67" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D67">
         <v>342</v>
@@ -4448,36 +4634,39 @@
         <v>344</v>
       </c>
       <c r="J67" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K67" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L67" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M67" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="O67" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="V67" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="W67" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X67" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B68" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D68">
         <v>344</v>
@@ -4486,36 +4675,39 @@
         <v>346</v>
       </c>
       <c r="J68" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K68" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L68" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M68" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N68" s="5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="O68" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="V68" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="W68" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X68" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B69" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D69">
         <v>347</v>
@@ -4524,7 +4716,7 @@
         <v>360</v>
       </c>
       <c r="J69" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K69">
         <v>999</v>
@@ -4536,24 +4728,27 @@
         <v>999</v>
       </c>
       <c r="N69" s="5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="O69" s="5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="V69" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="W69" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="X69" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B70" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D70">
         <v>349</v>
@@ -4562,36 +4757,39 @@
         <v>360</v>
       </c>
       <c r="J70" t="s">
+        <v>43</v>
+      </c>
+      <c r="K70" t="s">
+        <v>226</v>
+      </c>
+      <c r="L70" t="s">
+        <v>46</v>
+      </c>
+      <c r="M70" t="s">
         <v>47</v>
       </c>
-      <c r="K70" t="s">
-        <v>230</v>
-      </c>
-      <c r="L70" t="s">
-        <v>50</v>
-      </c>
-      <c r="M70" t="s">
-        <v>51</v>
-      </c>
       <c r="N70" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O70" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="V70" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="W70" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="X70" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B71" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D71">
         <v>350</v>
@@ -4600,36 +4798,39 @@
         <v>353</v>
       </c>
       <c r="J71" t="s">
+        <v>43</v>
+      </c>
+      <c r="K71" t="s">
+        <v>73</v>
+      </c>
+      <c r="L71" t="s">
+        <v>46</v>
+      </c>
+      <c r="M71" t="s">
         <v>47</v>
       </c>
-      <c r="K71" t="s">
-        <v>77</v>
-      </c>
-      <c r="L71" t="s">
-        <v>50</v>
-      </c>
-      <c r="M71" t="s">
-        <v>51</v>
-      </c>
       <c r="N71" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O71" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="V71" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="W71" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X71" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B72" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D72">
         <v>350</v>
@@ -4638,39 +4839,42 @@
         <v>351</v>
       </c>
       <c r="J72" t="s">
+        <v>43</v>
+      </c>
+      <c r="K72" t="s">
+        <v>73</v>
+      </c>
+      <c r="L72" t="s">
+        <v>46</v>
+      </c>
+      <c r="M72" t="s">
         <v>47</v>
       </c>
-      <c r="K72" t="s">
+      <c r="N72" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O72" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V72" t="s">
+        <v>304</v>
+      </c>
+      <c r="W72" t="s">
         <v>77</v>
       </c>
-      <c r="L72" t="s">
-        <v>50</v>
-      </c>
-      <c r="M72" t="s">
-        <v>51</v>
-      </c>
-      <c r="N72" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="O72" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="V72" t="s">
-        <v>308</v>
-      </c>
-      <c r="W72" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z72" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="X72" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B73" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D73">
         <v>351</v>
@@ -4679,36 +4883,39 @@
         <v>353</v>
       </c>
       <c r="J73" t="s">
+        <v>43</v>
+      </c>
+      <c r="K73" t="s">
+        <v>73</v>
+      </c>
+      <c r="L73" t="s">
+        <v>46</v>
+      </c>
+      <c r="M73" t="s">
         <v>47</v>
       </c>
-      <c r="K73" t="s">
+      <c r="N73" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O73" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V73" t="s">
+        <v>306</v>
+      </c>
+      <c r="W73" t="s">
         <v>77</v>
       </c>
-      <c r="L73" t="s">
-        <v>50</v>
-      </c>
-      <c r="M73" t="s">
-        <v>51</v>
-      </c>
-      <c r="N73" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="O73" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="V73" t="s">
-        <v>310</v>
-      </c>
-      <c r="W73" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="X73" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B74" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D74">
         <v>353</v>
@@ -4717,36 +4924,39 @@
         <v>354</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K74" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L74" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M74" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N74" s="5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="O74" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="V74" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="W74" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="X74" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B75" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D75">
         <v>354</v>
@@ -4755,36 +4965,39 @@
         <v>355</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K75" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L75" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M75" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N75" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="O75" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="V75" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="W75" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="X75" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B76" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D76">
         <v>356</v>
@@ -4793,36 +5006,39 @@
         <v>360</v>
       </c>
       <c r="J76" t="s">
+        <v>43</v>
+      </c>
+      <c r="K76" t="s">
+        <v>317</v>
+      </c>
+      <c r="L76" t="s">
+        <v>46</v>
+      </c>
+      <c r="M76" t="s">
         <v>47</v>
       </c>
-      <c r="K76" t="s">
-        <v>321</v>
-      </c>
-      <c r="L76" t="s">
-        <v>50</v>
-      </c>
-      <c r="M76" t="s">
-        <v>51</v>
-      </c>
       <c r="N76" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="O76" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="V76" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="W76" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X76" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B77" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D77">
         <v>356</v>
@@ -4831,36 +5047,39 @@
         <v>357</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K77" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="L77" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N77" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="O77" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="V77" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="W77" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="78" spans="2:26" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="X77" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B78" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D78">
         <v>357</v>
@@ -4869,36 +5088,39 @@
         <v>360</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K78" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L78" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M78" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N78" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="O78" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="V78" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="W78" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="X78" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D79">
         <v>361</v>
@@ -4907,36 +5129,39 @@
         <v>404</v>
       </c>
       <c r="J79" t="s">
+        <v>43</v>
+      </c>
+      <c r="K79" t="s">
+        <v>328</v>
+      </c>
+      <c r="L79" t="s">
+        <v>46</v>
+      </c>
+      <c r="M79" t="s">
         <v>47</v>
       </c>
-      <c r="K79" t="s">
-        <v>332</v>
-      </c>
-      <c r="L79" t="s">
-        <v>50</v>
-      </c>
-      <c r="M79" t="s">
-        <v>51</v>
-      </c>
       <c r="N79" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="O79" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="V79" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="W79" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="X79" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B80" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D80">
         <v>363</v>
@@ -4945,36 +5170,39 @@
         <v>374</v>
       </c>
       <c r="J80" t="s">
+        <v>43</v>
+      </c>
+      <c r="K80" t="s">
+        <v>60</v>
+      </c>
+      <c r="L80" t="s">
+        <v>46</v>
+      </c>
+      <c r="M80" t="s">
         <v>47</v>
       </c>
-      <c r="K80" t="s">
-        <v>64</v>
-      </c>
-      <c r="L80" t="s">
-        <v>50</v>
-      </c>
-      <c r="M80" t="s">
-        <v>51</v>
-      </c>
       <c r="N80" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O80" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="V80" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="W80" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="81" spans="2:26" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="X80" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B81" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D81">
         <v>364</v>
@@ -4983,39 +5211,42 @@
         <v>366</v>
       </c>
       <c r="J81" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K81" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L81" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M81" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N81" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="O81" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="V81" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="W81" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z81" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="82" spans="2:26" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X81" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="82" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B82" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D82">
         <v>366</v>
@@ -5024,36 +5255,39 @@
         <v>369</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K82" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="L82" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M82" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N82" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="O82" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="V82" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="W82" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="83" spans="2:26" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X82" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B83" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D83">
         <v>369</v>
@@ -5062,39 +5296,42 @@
         <v>372</v>
       </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K83" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L83" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M83" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N83" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="O83" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="V83" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="W83" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z83" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="84" spans="2:26" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X83" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="84" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B84" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D84">
         <v>372</v>
@@ -5103,39 +5340,42 @@
         <v>374</v>
       </c>
       <c r="J84" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K84" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="L84" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N84" s="5" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="O84" s="5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="V84" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="W84" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z84" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="85" spans="2:26" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X84" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="85" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B85" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D85">
         <v>374</v>
@@ -5144,36 +5384,39 @@
         <v>388</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K85" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L85" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M85" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N85" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O85" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="V85" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="W85" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="86" spans="2:26" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="X85" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B86" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D86">
         <v>377</v>
@@ -5182,39 +5425,42 @@
         <v>380</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K86" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L86" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M86" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N86" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="O86" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="V86" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="W86" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z86" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="87" spans="2:26" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X86" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="87" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B87" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D87">
         <v>381</v>
@@ -5223,39 +5469,42 @@
         <v>384</v>
       </c>
       <c r="J87" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K87" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L87" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N87" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="O87" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="V87" t="s">
+        <v>360</v>
+      </c>
+      <c r="W87" t="s">
+        <v>52</v>
+      </c>
+      <c r="X87" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA87" t="s">
         <v>354</v>
       </c>
-      <c r="V87" t="s">
-        <v>364</v>
-      </c>
-      <c r="W87" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z87" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="88" spans="2:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B88" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D88">
         <v>384</v>
@@ -5264,39 +5513,42 @@
         <v>388</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K88" t="s">
+        <v>355</v>
+      </c>
+      <c r="L88" t="s">
+        <v>46</v>
+      </c>
+      <c r="M88" t="s">
+        <v>35</v>
+      </c>
+      <c r="N88" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="O88" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="V88" t="s">
         <v>359</v>
       </c>
-      <c r="L88" t="s">
-        <v>50</v>
-      </c>
-      <c r="M88" t="s">
-        <v>37</v>
-      </c>
-      <c r="N88" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="O88" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="V88" t="s">
-        <v>363</v>
-      </c>
       <c r="W88" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z88" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="89" spans="2:26" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X88" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="89" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B89" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D89">
         <v>388</v>
@@ -5305,36 +5557,39 @@
         <v>399</v>
       </c>
       <c r="J89" t="s">
+        <v>43</v>
+      </c>
+      <c r="K89" t="s">
+        <v>372</v>
+      </c>
+      <c r="L89" t="s">
+        <v>46</v>
+      </c>
+      <c r="M89" t="s">
         <v>47</v>
       </c>
-      <c r="K89" t="s">
-        <v>376</v>
-      </c>
-      <c r="L89" t="s">
-        <v>50</v>
-      </c>
-      <c r="M89" t="s">
-        <v>51</v>
-      </c>
       <c r="N89" s="5" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="O89" s="5" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="V89" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="W89" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="90" spans="2:26" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="X89" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B90" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D90">
         <v>388</v>
@@ -5343,42 +5598,45 @@
         <v>391</v>
       </c>
       <c r="J90" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K90" t="s">
+        <v>367</v>
+      </c>
+      <c r="L90" t="s">
+        <v>46</v>
+      </c>
+      <c r="M90" t="s">
+        <v>37</v>
+      </c>
+      <c r="N90" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="O90" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="P90" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="L90" t="s">
-        <v>50</v>
-      </c>
-      <c r="M90" t="s">
-        <v>41</v>
-      </c>
-      <c r="N90" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="O90" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="P90" s="5" t="s">
-        <v>375</v>
-      </c>
       <c r="Q90" s="5" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="V90" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="W90" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="91" spans="2:26" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X90" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B91" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D91">
         <v>391</v>
@@ -5387,36 +5645,39 @@
         <v>394</v>
       </c>
       <c r="J91" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K91" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L91" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N91" s="5" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="O91" s="5" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="V91" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="W91" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="92" spans="2:26" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X91" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B92" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D92">
         <v>394</v>
@@ -5425,39 +5686,42 @@
         <v>396</v>
       </c>
       <c r="J92" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K92" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="L92" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M92" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N92" s="5" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="O92" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="V92" t="s">
+        <v>379</v>
+      </c>
+      <c r="W92" t="s">
+        <v>52</v>
+      </c>
+      <c r="X92" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA92" t="s">
         <v>383</v>
       </c>
-      <c r="W92" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z92" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="93" spans="2:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B93" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D93">
         <v>397</v>
@@ -5466,36 +5730,39 @@
         <v>398</v>
       </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K93" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="L93" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M93" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N93" s="5" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="O93" s="5" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="V93" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="W93" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="94" spans="2:26" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X93" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B94" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D94">
         <v>398</v>
@@ -5504,39 +5771,42 @@
         <v>399</v>
       </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K94" t="s">
+        <v>388</v>
+      </c>
+      <c r="L94" t="s">
+        <v>46</v>
+      </c>
+      <c r="M94" t="s">
+        <v>37</v>
+      </c>
+      <c r="N94" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="O94" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="V94" t="s">
+        <v>389</v>
+      </c>
+      <c r="W94" t="s">
+        <v>52</v>
+      </c>
+      <c r="X94" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA94" t="s">
         <v>392</v>
       </c>
-      <c r="L94" t="s">
-        <v>50</v>
-      </c>
-      <c r="M94" t="s">
-        <v>41</v>
-      </c>
-      <c r="N94" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="O94" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="V94" t="s">
-        <v>393</v>
-      </c>
-      <c r="W94" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z94" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="95" spans="2:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B95" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D95">
         <v>400</v>
@@ -5545,39 +5815,42 @@
         <v>401</v>
       </c>
       <c r="J95" t="s">
+        <v>43</v>
+      </c>
+      <c r="K95" t="s">
+        <v>281</v>
+      </c>
+      <c r="L95" t="s">
+        <v>46</v>
+      </c>
+      <c r="M95" t="s">
         <v>47</v>
       </c>
-      <c r="K95" t="s">
+      <c r="N95" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="O95" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="L95" t="s">
-        <v>50</v>
-      </c>
-      <c r="M95" t="s">
-        <v>51</v>
-      </c>
-      <c r="N95" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="O95" s="5" t="s">
-        <v>289</v>
-      </c>
       <c r="V95" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="W95" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z95" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="96" spans="2:26" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="X95" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="96" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B96" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D96">
         <v>400</v>
@@ -5586,39 +5859,42 @@
         <v>401</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K96" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="L96" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M96" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N96" s="5" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="O96" s="5" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="V96" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="W96" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z96" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="97" spans="2:26" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X96" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="97" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B97" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D97">
         <v>401</v>
@@ -5627,39 +5903,42 @@
         <v>402</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K97" t="s">
+        <v>397</v>
+      </c>
+      <c r="L97" t="s">
+        <v>46</v>
+      </c>
+      <c r="M97" t="s">
+        <v>35</v>
+      </c>
+      <c r="N97" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="O97" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="L97" t="s">
-        <v>50</v>
-      </c>
-      <c r="M97" t="s">
-        <v>37</v>
-      </c>
-      <c r="N97" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="O97" s="5" t="s">
-        <v>405</v>
-      </c>
       <c r="V97" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="W97" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z97" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="98" spans="2:26" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="X97" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA97" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="98" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B98" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D98">
         <v>401</v>
@@ -5668,39 +5947,42 @@
         <v>402</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K98" t="s">
+        <v>400</v>
+      </c>
+      <c r="L98" t="s">
+        <v>46</v>
+      </c>
+      <c r="M98" t="s">
+        <v>35</v>
+      </c>
+      <c r="N98" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="L98" t="s">
-        <v>50</v>
-      </c>
-      <c r="M98" t="s">
-        <v>37</v>
-      </c>
-      <c r="N98" s="5" t="s">
-        <v>408</v>
-      </c>
       <c r="O98" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="V98" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="W98" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z98" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="99" spans="2:26" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X98" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="99" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B99" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C99" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D99">
         <v>403</v>
@@ -5709,39 +5991,42 @@
         <v>404</v>
       </c>
       <c r="J99" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K99" t="s">
+        <v>407</v>
+      </c>
+      <c r="L99" t="s">
+        <v>46</v>
+      </c>
+      <c r="M99" t="s">
+        <v>35</v>
+      </c>
+      <c r="N99" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="O99" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="V99" t="s">
+        <v>405</v>
+      </c>
+      <c r="W99" t="s">
+        <v>32</v>
+      </c>
+      <c r="X99" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA99" t="s">
         <v>411</v>
       </c>
-      <c r="L99" t="s">
-        <v>50</v>
-      </c>
-      <c r="M99" t="s">
-        <v>37</v>
-      </c>
-      <c r="N99" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="O99" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="V99" t="s">
-        <v>409</v>
-      </c>
-      <c r="W99" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z99" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="100" spans="2:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B100" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D100">
         <v>403</v>
@@ -5750,39 +6035,42 @@
         <v>404</v>
       </c>
       <c r="J100" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K100" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="L100" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M100" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N100" s="5" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="O100" s="5" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="V100" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="W100" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z100" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="101" spans="2:26" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X100" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="101" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B101" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D101">
         <v>405</v>
@@ -5791,36 +6079,39 @@
         <v>418</v>
       </c>
       <c r="J101" t="s">
+        <v>43</v>
+      </c>
+      <c r="K101" t="s">
+        <v>414</v>
+      </c>
+      <c r="L101" t="s">
+        <v>46</v>
+      </c>
+      <c r="M101" t="s">
         <v>47</v>
       </c>
-      <c r="K101" t="s">
-        <v>418</v>
-      </c>
-      <c r="L101" t="s">
-        <v>50</v>
-      </c>
-      <c r="M101" t="s">
-        <v>51</v>
-      </c>
       <c r="N101" s="5" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="O101" s="5" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="V101" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="W101" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="102" spans="2:26" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="X101" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B102" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D102">
         <v>407</v>
@@ -5829,36 +6120,39 @@
         <v>408</v>
       </c>
       <c r="J102" t="s">
+        <v>43</v>
+      </c>
+      <c r="K102" t="s">
+        <v>226</v>
+      </c>
+      <c r="L102" t="s">
+        <v>46</v>
+      </c>
+      <c r="M102" t="s">
         <v>47</v>
       </c>
-      <c r="K102" t="s">
-        <v>230</v>
-      </c>
-      <c r="L102" t="s">
-        <v>50</v>
-      </c>
-      <c r="M102" t="s">
-        <v>51</v>
-      </c>
       <c r="N102" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O102" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="V102" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="W102" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="103" spans="2:26" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="X102" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B103" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D103">
         <v>407</v>
@@ -5867,36 +6161,39 @@
         <v>408</v>
       </c>
       <c r="J103" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K103" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="L103" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M103" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N103" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O103" s="5" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="V103" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="W103" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="104" spans="2:26" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X103" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="104" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B104" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C104" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D104">
         <v>408</v>
@@ -5905,36 +6202,39 @@
         <v>418</v>
       </c>
       <c r="J104" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K104" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="L104" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M104" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N104" s="5" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="O104" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="V104" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="W104" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="105" spans="2:26" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="X104" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="105" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B105" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C105" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D105">
         <v>408</v>
@@ -5943,36 +6243,39 @@
         <v>409</v>
       </c>
       <c r="J105" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K105" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L105" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M105" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N105" s="5" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="O105" s="5" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="V105" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="W105" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="106" spans="2:26" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X105" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="106" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B106" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D106">
         <v>410</v>
@@ -5981,39 +6284,42 @@
         <v>411</v>
       </c>
       <c r="J106" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K106" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="L106" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M106" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N106" s="5" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="O106" s="5" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="V106" t="s">
+        <v>428</v>
+      </c>
+      <c r="W106" t="s">
+        <v>52</v>
+      </c>
+      <c r="X106" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA106" t="s">
         <v>432</v>
       </c>
-      <c r="W106" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z106" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="107" spans="2:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B107" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C107" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D107">
         <v>411</v>
@@ -6022,36 +6328,39 @@
         <v>412</v>
       </c>
       <c r="J107" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K107" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L107" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M107" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N107" s="5" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="O107" s="5" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="V107" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="W107" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="108" spans="2:26" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X107" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="108" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B108" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D108">
         <v>412</v>
@@ -6060,36 +6369,39 @@
         <v>413</v>
       </c>
       <c r="J108" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K108" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L108" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M108" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N108" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="O108" s="5" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="V108" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="W108" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="109" spans="2:26" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X108" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="109" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B109" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D109">
         <v>414</v>
@@ -6098,39 +6410,42 @@
         <v>415</v>
       </c>
       <c r="J109" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K109" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="L109" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M109" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N109" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="O109" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="V109" t="s">
+        <v>441</v>
+      </c>
+      <c r="W109" t="s">
+        <v>77</v>
+      </c>
+      <c r="X109" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA109" t="s">
         <v>445</v>
       </c>
-      <c r="W109" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z109" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="110" spans="2:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B110" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D110">
         <v>415</v>
@@ -6139,36 +6454,39 @@
         <v>416</v>
       </c>
       <c r="J110" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K110" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L110" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M110" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N110" s="5" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="O110" s="5" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="V110" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="W110" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="111" spans="2:26" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="X110" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B111" s="6" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D111">
         <v>416</v>
@@ -6177,32 +6495,35 @@
         <v>418</v>
       </c>
       <c r="J111" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K111" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L111" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M111" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N111" s="5" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="O111" s="5" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="V111" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="W111" t="s">
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="X111" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Datasets/Stalder/Data/Stalder_JR.xlsx
+++ b/Datasets/Stalder/Data/Stalder_JR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julerickert/Documents/Akademie_Projekt/Datasets/Stalder/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D794EBF6-8873-974A-9CCF-EB128283DC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911976F2-4EA6-374E-8BC9-084AE04B6E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{83D778BB-B2D8-FD4F-A694-2AEDDD4D8C05}"/>
   </bookViews>
@@ -1476,7 +1476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1484,8 +1484,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1802,9 +1800,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677BF33D-024D-394D-9965-483490377549}">
   <dimension ref="A1:AC111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC2" sqref="AC2:AC111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1917,9 +1915,6 @@
       <c r="E2">
         <v>270</v>
       </c>
-      <c r="J2" t="s">
-        <v>43</v>
-      </c>
       <c r="K2">
         <v>999</v>
       </c>
@@ -1944,7 +1939,10 @@
       <c r="X2" t="s">
         <v>36</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1961,22 +1959,19 @@
       <c r="E3">
         <v>267</v>
       </c>
-      <c r="J3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="5" t="s">
         <v>42</v>
       </c>
       <c r="V3" t="s">
@@ -1988,7 +1983,10 @@
       <c r="X3" t="s">
         <v>36</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2005,22 +2003,19 @@
       <c r="E4">
         <v>269</v>
       </c>
-      <c r="J4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="7" t="s">
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="5" t="s">
         <v>42</v>
       </c>
       <c r="V4" t="s">
@@ -2032,7 +2027,10 @@
       <c r="X4" t="s">
         <v>36</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2049,9 +2047,6 @@
       <c r="E5">
         <v>346</v>
       </c>
-      <c r="J5" t="s">
-        <v>43</v>
-      </c>
       <c r="K5" t="s">
         <v>45</v>
       </c>
@@ -2076,6 +2071,9 @@
       <c r="X5" t="s">
         <v>36</v>
       </c>
+      <c r="AB5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
@@ -2090,9 +2088,6 @@
       <c r="E6">
         <v>276</v>
       </c>
-      <c r="J6" t="s">
-        <v>43</v>
-      </c>
       <c r="K6" t="s">
         <v>50</v>
       </c>
@@ -2117,6 +2112,9 @@
       <c r="X6" t="s">
         <v>36</v>
       </c>
+      <c r="AB6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
@@ -2131,9 +2129,6 @@
       <c r="E7">
         <v>274</v>
       </c>
-      <c r="J7" t="s">
-        <v>43</v>
-      </c>
       <c r="K7" t="s">
         <v>107</v>
       </c>
@@ -2164,6 +2159,9 @@
       <c r="X7" t="s">
         <v>36</v>
       </c>
+      <c r="AB7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
@@ -2178,9 +2176,6 @@
       <c r="E8">
         <v>276</v>
       </c>
-      <c r="J8" t="s">
-        <v>43</v>
-      </c>
       <c r="K8" t="s">
         <v>79</v>
       </c>
@@ -2205,6 +2200,9 @@
       <c r="X8" t="s">
         <v>36</v>
       </c>
+      <c r="AB8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
@@ -2219,9 +2217,6 @@
       <c r="E9">
         <v>289</v>
       </c>
-      <c r="J9" t="s">
-        <v>43</v>
-      </c>
       <c r="K9" t="s">
         <v>60</v>
       </c>
@@ -2246,6 +2241,9 @@
       <c r="X9" t="s">
         <v>36</v>
       </c>
+      <c r="AB9" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
@@ -2260,9 +2258,6 @@
       <c r="E10">
         <v>278</v>
       </c>
-      <c r="J10" t="s">
-        <v>43</v>
-      </c>
       <c r="K10" t="s">
         <v>65</v>
       </c>
@@ -2287,6 +2282,9 @@
       <c r="X10" t="s">
         <v>36</v>
       </c>
+      <c r="AB10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
@@ -2301,9 +2299,6 @@
       <c r="E11">
         <v>279</v>
       </c>
-      <c r="J11" t="s">
-        <v>43</v>
-      </c>
       <c r="K11" t="s">
         <v>69</v>
       </c>
@@ -2328,6 +2323,9 @@
       <c r="X11" t="s">
         <v>36</v>
       </c>
+      <c r="AB11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
@@ -2342,9 +2340,6 @@
       <c r="E12">
         <v>289</v>
       </c>
-      <c r="J12" t="s">
-        <v>43</v>
-      </c>
       <c r="K12" t="s">
         <v>73</v>
       </c>
@@ -2369,6 +2364,9 @@
       <c r="X12" t="s">
         <v>36</v>
       </c>
+      <c r="AB12" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
@@ -2383,9 +2381,6 @@
       <c r="E13">
         <v>281</v>
       </c>
-      <c r="J13" t="s">
-        <v>43</v>
-      </c>
       <c r="K13" t="s">
         <v>78</v>
       </c>
@@ -2410,6 +2405,9 @@
       <c r="X13" t="s">
         <v>36</v>
       </c>
+      <c r="AB13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
@@ -2424,9 +2422,6 @@
       <c r="E14">
         <v>283</v>
       </c>
-      <c r="J14" t="s">
-        <v>43</v>
-      </c>
       <c r="K14" t="s">
         <v>82</v>
       </c>
@@ -2451,6 +2446,9 @@
       <c r="X14" t="s">
         <v>36</v>
       </c>
+      <c r="AB14" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
@@ -2465,9 +2463,6 @@
       <c r="E15">
         <v>284</v>
       </c>
-      <c r="J15" t="s">
-        <v>43</v>
-      </c>
       <c r="K15" t="s">
         <v>87</v>
       </c>
@@ -2492,6 +2487,9 @@
       <c r="X15" t="s">
         <v>36</v>
       </c>
+      <c r="AB15" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
@@ -2506,9 +2504,6 @@
       <c r="E16">
         <v>286</v>
       </c>
-      <c r="J16" t="s">
-        <v>43</v>
-      </c>
       <c r="K16" t="s">
         <v>93</v>
       </c>
@@ -2533,8 +2528,11 @@
       <c r="X16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
         <v>454</v>
       </c>
@@ -2547,9 +2545,6 @@
       <c r="E17">
         <v>288</v>
       </c>
-      <c r="J17" t="s">
-        <v>43</v>
-      </c>
       <c r="K17" t="s">
         <v>95</v>
       </c>
@@ -2574,8 +2569,11 @@
       <c r="X17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
         <v>454</v>
       </c>
@@ -2588,9 +2586,6 @@
       <c r="E18">
         <v>289</v>
       </c>
-      <c r="J18" t="s">
-        <v>43</v>
-      </c>
       <c r="K18" t="s">
         <v>99</v>
       </c>
@@ -2615,8 +2610,11 @@
       <c r="X18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
         <v>454</v>
       </c>
@@ -2629,9 +2627,6 @@
       <c r="E19">
         <v>293</v>
       </c>
-      <c r="J19" t="s">
-        <v>43</v>
-      </c>
       <c r="K19" t="s">
         <v>103</v>
       </c>
@@ -2656,8 +2651,11 @@
       <c r="X19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
         <v>454</v>
       </c>
@@ -2670,9 +2668,6 @@
       <c r="E20">
         <v>291</v>
       </c>
-      <c r="J20" t="s">
-        <v>43</v>
-      </c>
       <c r="K20" t="s">
         <v>110</v>
       </c>
@@ -2697,8 +2692,11 @@
       <c r="X20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
         <v>454</v>
       </c>
@@ -2711,9 +2709,6 @@
       <c r="E21">
         <v>293</v>
       </c>
-      <c r="J21" t="s">
-        <v>43</v>
-      </c>
       <c r="K21" t="s">
         <v>112</v>
       </c>
@@ -2738,8 +2733,11 @@
       <c r="X21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
         <v>454</v>
       </c>
@@ -2752,9 +2750,6 @@
       <c r="E22">
         <v>294</v>
       </c>
-      <c r="J22" t="s">
-        <v>43</v>
-      </c>
       <c r="K22" t="s">
         <v>116</v>
       </c>
@@ -2779,8 +2774,11 @@
       <c r="X22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
         <v>454</v>
       </c>
@@ -2793,9 +2791,6 @@
       <c r="E23">
         <v>294</v>
       </c>
-      <c r="J23" t="s">
-        <v>43</v>
-      </c>
       <c r="K23" t="s">
         <v>120</v>
       </c>
@@ -2820,8 +2815,11 @@
       <c r="X23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
         <v>454</v>
       </c>
@@ -2834,9 +2832,6 @@
       <c r="E24">
         <v>296</v>
       </c>
-      <c r="J24" t="s">
-        <v>43</v>
-      </c>
       <c r="K24" t="s">
         <v>124</v>
       </c>
@@ -2861,8 +2856,11 @@
       <c r="X24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
         <v>454</v>
       </c>
@@ -2875,9 +2873,6 @@
       <c r="E25">
         <v>296</v>
       </c>
-      <c r="J25" t="s">
-        <v>43</v>
-      </c>
       <c r="K25" t="s">
         <v>128</v>
       </c>
@@ -2902,8 +2897,11 @@
       <c r="X25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
         <v>454</v>
       </c>
@@ -2916,9 +2914,6 @@
       <c r="E26">
         <v>300</v>
       </c>
-      <c r="J26" t="s">
-        <v>43</v>
-      </c>
       <c r="K26" t="s">
         <v>131</v>
       </c>
@@ -2943,8 +2938,11 @@
       <c r="X26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
         <v>454</v>
       </c>
@@ -2957,9 +2955,6 @@
       <c r="E27">
         <v>298</v>
       </c>
-      <c r="J27" t="s">
-        <v>43</v>
-      </c>
       <c r="K27" t="s">
         <v>134</v>
       </c>
@@ -2984,8 +2979,11 @@
       <c r="X27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
         <v>454</v>
       </c>
@@ -2998,9 +2996,6 @@
       <c r="E28">
         <v>300</v>
       </c>
-      <c r="J28" t="s">
-        <v>43</v>
-      </c>
       <c r="K28" t="s">
         <v>139</v>
       </c>
@@ -3025,8 +3020,11 @@
       <c r="X28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
         <v>454</v>
       </c>
@@ -3039,9 +3037,6 @@
       <c r="E29">
         <v>302</v>
       </c>
-      <c r="J29" t="s">
-        <v>43</v>
-      </c>
       <c r="K29" t="s">
         <v>143</v>
       </c>
@@ -3066,8 +3061,11 @@
       <c r="X29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
         <v>454</v>
       </c>
@@ -3080,9 +3078,6 @@
       <c r="E30">
         <v>302</v>
       </c>
-      <c r="J30" t="s">
-        <v>43</v>
-      </c>
       <c r="K30" t="s">
         <v>147</v>
       </c>
@@ -3113,8 +3108,11 @@
       <c r="X30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
         <v>454</v>
       </c>
@@ -3127,9 +3125,6 @@
       <c r="E31">
         <v>304</v>
       </c>
-      <c r="J31" t="s">
-        <v>43</v>
-      </c>
       <c r="K31" t="s">
         <v>157</v>
       </c>
@@ -3154,8 +3149,11 @@
       <c r="X31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
         <v>454</v>
       </c>
@@ -3168,9 +3166,6 @@
       <c r="E32">
         <v>304</v>
       </c>
-      <c r="J32" t="s">
-        <v>43</v>
-      </c>
       <c r="K32" t="s">
         <v>156</v>
       </c>
@@ -3195,8 +3190,11 @@
       <c r="X32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
         <v>454</v>
       </c>
@@ -3209,9 +3207,6 @@
       <c r="E33">
         <v>307</v>
       </c>
-      <c r="J33" t="s">
-        <v>43</v>
-      </c>
       <c r="K33" t="s">
         <v>159</v>
       </c>
@@ -3236,8 +3231,11 @@
       <c r="X33" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
         <v>454</v>
       </c>
@@ -3250,9 +3248,6 @@
       <c r="E34">
         <v>305</v>
       </c>
-      <c r="J34" t="s">
-        <v>43</v>
-      </c>
       <c r="K34" t="s">
         <v>163</v>
       </c>
@@ -3277,8 +3272,11 @@
       <c r="X34" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
         <v>454</v>
       </c>
@@ -3291,9 +3289,6 @@
       <c r="E35">
         <v>307</v>
       </c>
-      <c r="J35" t="s">
-        <v>43</v>
-      </c>
       <c r="K35" t="s">
         <v>167</v>
       </c>
@@ -3318,8 +3313,11 @@
       <c r="X35" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
         <v>454</v>
       </c>
@@ -3332,9 +3330,6 @@
       <c r="E36">
         <v>309</v>
       </c>
-      <c r="J36" t="s">
-        <v>43</v>
-      </c>
       <c r="K36" t="s">
         <v>170</v>
       </c>
@@ -3359,8 +3354,11 @@
       <c r="X36" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
         <v>454</v>
       </c>
@@ -3373,9 +3371,6 @@
       <c r="E37">
         <v>309</v>
       </c>
-      <c r="J37" t="s">
-        <v>43</v>
-      </c>
       <c r="K37" t="s">
         <v>175</v>
       </c>
@@ -3400,8 +3395,11 @@
       <c r="X37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
         <v>454</v>
       </c>
@@ -3414,9 +3412,6 @@
       <c r="E38">
         <v>310</v>
       </c>
-      <c r="J38" t="s">
-        <v>43</v>
-      </c>
       <c r="K38" t="s">
         <v>177</v>
       </c>
@@ -3441,8 +3436,11 @@
       <c r="X38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
         <v>454</v>
       </c>
@@ -3455,9 +3453,6 @@
       <c r="E39">
         <v>310</v>
       </c>
-      <c r="J39" t="s">
-        <v>43</v>
-      </c>
       <c r="K39" t="s">
         <v>181</v>
       </c>
@@ -3482,8 +3477,11 @@
       <c r="X39" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
         <v>454</v>
       </c>
@@ -3496,9 +3494,6 @@
       <c r="E40">
         <v>312</v>
       </c>
-      <c r="J40" t="s">
-        <v>43</v>
-      </c>
       <c r="K40" t="s">
         <v>184</v>
       </c>
@@ -3523,11 +3518,14 @@
       <c r="X40" t="s">
         <v>36</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC40" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
         <v>454</v>
       </c>
@@ -3540,9 +3538,6 @@
       <c r="E41">
         <v>312</v>
       </c>
-      <c r="J41" t="s">
-        <v>43</v>
-      </c>
       <c r="K41" t="s">
         <v>185</v>
       </c>
@@ -3567,11 +3562,14 @@
       <c r="X41" t="s">
         <v>36</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC41" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
         <v>454</v>
       </c>
@@ -3584,9 +3582,6 @@
       <c r="E42">
         <v>314</v>
       </c>
-      <c r="J42" t="s">
-        <v>43</v>
-      </c>
       <c r="K42" t="s">
         <v>193</v>
       </c>
@@ -3611,8 +3606,11 @@
       <c r="X42" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
         <v>454</v>
       </c>
@@ -3625,9 +3623,6 @@
       <c r="E43">
         <v>314</v>
       </c>
-      <c r="J43" t="s">
-        <v>43</v>
-      </c>
       <c r="K43" t="s">
         <v>196</v>
       </c>
@@ -3652,8 +3647,11 @@
       <c r="X43" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
         <v>454</v>
       </c>
@@ -3666,9 +3664,6 @@
       <c r="E44">
         <v>323</v>
       </c>
-      <c r="J44" t="s">
-        <v>43</v>
-      </c>
       <c r="K44" t="s">
         <v>198</v>
       </c>
@@ -3693,8 +3688,11 @@
       <c r="X44" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
         <v>454</v>
       </c>
@@ -3707,9 +3705,6 @@
       <c r="E45">
         <v>316</v>
       </c>
-      <c r="J45" t="s">
-        <v>43</v>
-      </c>
       <c r="K45" t="s">
         <v>202</v>
       </c>
@@ -3740,8 +3735,11 @@
       <c r="X45" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
         <v>454</v>
       </c>
@@ -3754,9 +3752,6 @@
       <c r="E46">
         <v>323</v>
       </c>
-      <c r="J46" t="s">
-        <v>43</v>
-      </c>
       <c r="K46" t="s">
         <v>207</v>
       </c>
@@ -3781,8 +3776,11 @@
       <c r="X46" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
         <v>454</v>
       </c>
@@ -3795,9 +3793,6 @@
       <c r="E47">
         <v>317</v>
       </c>
-      <c r="J47" t="s">
-        <v>43</v>
-      </c>
       <c r="K47" t="s">
         <v>208</v>
       </c>
@@ -3822,8 +3817,11 @@
       <c r="X47" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
         <v>454</v>
       </c>
@@ -3836,9 +3834,6 @@
       <c r="E48">
         <v>319</v>
       </c>
-      <c r="J48" t="s">
-        <v>43</v>
-      </c>
       <c r="K48" t="s">
         <v>216</v>
       </c>
@@ -3863,8 +3858,11 @@
       <c r="X48" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B49" s="6" t="s">
         <v>454</v>
       </c>
@@ -3877,9 +3875,6 @@
       <c r="E49">
         <v>321</v>
       </c>
-      <c r="J49" t="s">
-        <v>43</v>
-      </c>
       <c r="K49" t="s">
         <v>217</v>
       </c>
@@ -3904,8 +3899,11 @@
       <c r="X49" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
         <v>454</v>
       </c>
@@ -3918,9 +3916,6 @@
       <c r="E50">
         <v>323</v>
       </c>
-      <c r="J50" t="s">
-        <v>43</v>
-      </c>
       <c r="K50" t="s">
         <v>222</v>
       </c>
@@ -3945,8 +3940,11 @@
       <c r="X50" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
         <v>454</v>
       </c>
@@ -3959,9 +3957,6 @@
       <c r="E51">
         <v>328</v>
       </c>
-      <c r="J51" t="s">
-        <v>43</v>
-      </c>
       <c r="K51" t="s">
         <v>226</v>
       </c>
@@ -3986,8 +3981,11 @@
       <c r="X51" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B52" s="6" t="s">
         <v>454</v>
       </c>
@@ -4000,9 +3998,6 @@
       <c r="E52">
         <v>324</v>
       </c>
-      <c r="J52" t="s">
-        <v>43</v>
-      </c>
       <c r="K52" t="s">
         <v>230</v>
       </c>
@@ -4027,8 +4022,11 @@
       <c r="X52" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
         <v>454</v>
       </c>
@@ -4041,9 +4039,6 @@
       <c r="E53">
         <v>326</v>
       </c>
-      <c r="J53" t="s">
-        <v>43</v>
-      </c>
       <c r="K53" t="s">
         <v>233</v>
       </c>
@@ -4068,8 +4063,11 @@
       <c r="X53" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B54" s="6" t="s">
         <v>454</v>
       </c>
@@ -4082,9 +4080,6 @@
       <c r="E54">
         <v>328</v>
       </c>
-      <c r="J54" t="s">
-        <v>43</v>
-      </c>
       <c r="K54" t="s">
         <v>238</v>
       </c>
@@ -4109,8 +4104,11 @@
       <c r="X54" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B55" s="6" t="s">
         <v>454</v>
       </c>
@@ -4123,9 +4121,6 @@
       <c r="E55">
         <v>335</v>
       </c>
-      <c r="J55" t="s">
-        <v>43</v>
-      </c>
       <c r="K55" t="s">
         <v>242</v>
       </c>
@@ -4150,8 +4145,11 @@
       <c r="X55" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB55" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B56" s="6" t="s">
         <v>454</v>
       </c>
@@ -4164,9 +4162,6 @@
       <c r="E56">
         <v>331</v>
       </c>
-      <c r="J56" t="s">
-        <v>43</v>
-      </c>
       <c r="K56" t="s">
         <v>246</v>
       </c>
@@ -4191,8 +4186,11 @@
       <c r="X56" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B57" s="6" t="s">
         <v>454</v>
       </c>
@@ -4205,9 +4203,6 @@
       <c r="E57">
         <v>329</v>
       </c>
-      <c r="J57" t="s">
-        <v>43</v>
-      </c>
       <c r="K57" t="s">
         <v>248</v>
       </c>
@@ -4238,8 +4233,11 @@
       <c r="X57" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB57" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
         <v>454</v>
       </c>
@@ -4252,9 +4250,6 @@
       <c r="E58">
         <v>331</v>
       </c>
-      <c r="J58" t="s">
-        <v>43</v>
-      </c>
       <c r="K58" t="s">
         <v>254</v>
       </c>
@@ -4279,8 +4274,11 @@
       <c r="X58" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB58" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B59" s="6" t="s">
         <v>454</v>
       </c>
@@ -4293,9 +4291,6 @@
       <c r="E59">
         <v>333</v>
       </c>
-      <c r="J59" t="s">
-        <v>43</v>
-      </c>
       <c r="K59" t="s">
         <v>258</v>
       </c>
@@ -4320,8 +4315,11 @@
       <c r="X59" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB59" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
         <v>454</v>
       </c>
@@ -4334,9 +4332,6 @@
       <c r="E60">
         <v>335</v>
       </c>
-      <c r="J60" t="s">
-        <v>43</v>
-      </c>
       <c r="K60" t="s">
         <v>262</v>
       </c>
@@ -4361,8 +4356,11 @@
       <c r="X60" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB60" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
         <v>454</v>
       </c>
@@ -4375,9 +4373,6 @@
       <c r="E61">
         <v>339</v>
       </c>
-      <c r="J61" t="s">
-        <v>43</v>
-      </c>
       <c r="K61" t="s">
         <v>266</v>
       </c>
@@ -4402,8 +4397,11 @@
       <c r="X61" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB61" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B62" s="6" t="s">
         <v>454</v>
       </c>
@@ -4416,9 +4414,6 @@
       <c r="E62">
         <v>337</v>
       </c>
-      <c r="J62" t="s">
-        <v>43</v>
-      </c>
       <c r="K62" t="s">
         <v>270</v>
       </c>
@@ -4443,8 +4438,11 @@
       <c r="X62" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB62" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B63" s="6" t="s">
         <v>454</v>
       </c>
@@ -4457,9 +4455,6 @@
       <c r="E63">
         <v>339</v>
       </c>
-      <c r="J63" t="s">
-        <v>43</v>
-      </c>
       <c r="K63" t="s">
         <v>274</v>
       </c>
@@ -4490,8 +4485,11 @@
       <c r="X63" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AB63" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B64" s="6" t="s">
         <v>454</v>
       </c>
@@ -4504,9 +4502,6 @@
       <c r="E64">
         <v>346</v>
       </c>
-      <c r="J64" t="s">
-        <v>43</v>
-      </c>
       <c r="K64" t="s">
         <v>281</v>
       </c>
@@ -4531,8 +4526,11 @@
       <c r="X64" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B65" s="6" t="s">
         <v>454</v>
       </c>
@@ -4545,9 +4543,6 @@
       <c r="E65">
         <v>340</v>
       </c>
-      <c r="J65" t="s">
-        <v>43</v>
-      </c>
       <c r="K65" t="s">
         <v>282</v>
       </c>
@@ -4572,8 +4567,11 @@
       <c r="X65" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B66" s="6" t="s">
         <v>454</v>
       </c>
@@ -4586,9 +4584,6 @@
       <c r="E66">
         <v>342</v>
       </c>
-      <c r="J66" t="s">
-        <v>43</v>
-      </c>
       <c r="K66" t="s">
         <v>288</v>
       </c>
@@ -4619,8 +4614,11 @@
       <c r="X66" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B67" s="6" t="s">
         <v>454</v>
       </c>
@@ -4633,9 +4631,6 @@
       <c r="E67">
         <v>344</v>
       </c>
-      <c r="J67" t="s">
-        <v>43</v>
-      </c>
       <c r="K67" t="s">
         <v>296</v>
       </c>
@@ -4660,8 +4655,11 @@
       <c r="X67" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B68" s="6" t="s">
         <v>454</v>
       </c>
@@ -4674,9 +4672,6 @@
       <c r="E68">
         <v>346</v>
       </c>
-      <c r="J68" t="s">
-        <v>43</v>
-      </c>
       <c r="K68" t="s">
         <v>298</v>
       </c>
@@ -4701,8 +4696,11 @@
       <c r="X68" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B69" s="6" t="s">
         <v>454</v>
       </c>
@@ -4715,9 +4713,6 @@
       <c r="E69">
         <v>360</v>
       </c>
-      <c r="J69" t="s">
-        <v>43</v>
-      </c>
       <c r="K69">
         <v>999</v>
       </c>
@@ -4742,8 +4737,11 @@
       <c r="X69" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B70" s="6" t="s">
         <v>454</v>
       </c>
@@ -4756,9 +4754,6 @@
       <c r="E70">
         <v>360</v>
       </c>
-      <c r="J70" t="s">
-        <v>43</v>
-      </c>
       <c r="K70" t="s">
         <v>226</v>
       </c>
@@ -4783,8 +4778,11 @@
       <c r="X70" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B71" s="6" t="s">
         <v>454</v>
       </c>
@@ -4797,9 +4795,6 @@
       <c r="E71">
         <v>353</v>
       </c>
-      <c r="J71" t="s">
-        <v>43</v>
-      </c>
       <c r="K71" t="s">
         <v>73</v>
       </c>
@@ -4824,8 +4819,11 @@
       <c r="X71" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B72" s="6" t="s">
         <v>454</v>
       </c>
@@ -4838,9 +4836,6 @@
       <c r="E72">
         <v>351</v>
       </c>
-      <c r="J72" t="s">
-        <v>43</v>
-      </c>
       <c r="K72" t="s">
         <v>73</v>
       </c>
@@ -4865,11 +4860,14 @@
       <c r="X72" t="s">
         <v>36</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="AB72" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC72" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B73" s="6" t="s">
         <v>454</v>
       </c>
@@ -4882,9 +4880,6 @@
       <c r="E73">
         <v>353</v>
       </c>
-      <c r="J73" t="s">
-        <v>43</v>
-      </c>
       <c r="K73" t="s">
         <v>73</v>
       </c>
@@ -4909,8 +4904,11 @@
       <c r="X73" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B74" s="6" t="s">
         <v>454</v>
       </c>
@@ -4923,9 +4921,6 @@
       <c r="E74">
         <v>354</v>
       </c>
-      <c r="J74" t="s">
-        <v>43</v>
-      </c>
       <c r="K74" t="s">
         <v>308</v>
       </c>
@@ -4950,8 +4945,11 @@
       <c r="X74" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B75" s="6" t="s">
         <v>454</v>
       </c>
@@ -4964,9 +4962,6 @@
       <c r="E75">
         <v>355</v>
       </c>
-      <c r="J75" t="s">
-        <v>43</v>
-      </c>
       <c r="K75" t="s">
         <v>312</v>
       </c>
@@ -4991,8 +4986,11 @@
       <c r="X75" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B76" s="6" t="s">
         <v>454</v>
       </c>
@@ -5005,9 +5003,6 @@
       <c r="E76">
         <v>360</v>
       </c>
-      <c r="J76" t="s">
-        <v>43</v>
-      </c>
       <c r="K76" t="s">
         <v>317</v>
       </c>
@@ -5032,8 +5027,11 @@
       <c r="X76" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B77" s="6" t="s">
         <v>454</v>
       </c>
@@ -5046,9 +5044,6 @@
       <c r="E77">
         <v>357</v>
       </c>
-      <c r="J77" t="s">
-        <v>43</v>
-      </c>
       <c r="K77" t="s">
         <v>320</v>
       </c>
@@ -5073,8 +5068,11 @@
       <c r="X77" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="78" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B78" s="6" t="s">
         <v>454</v>
       </c>
@@ -5087,9 +5085,6 @@
       <c r="E78">
         <v>360</v>
       </c>
-      <c r="J78" t="s">
-        <v>43</v>
-      </c>
       <c r="K78" t="s">
         <v>324</v>
       </c>
@@ -5114,8 +5109,11 @@
       <c r="X78" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB78" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="6" t="s">
         <v>454</v>
       </c>
@@ -5128,9 +5126,6 @@
       <c r="E79">
         <v>404</v>
       </c>
-      <c r="J79" t="s">
-        <v>43</v>
-      </c>
       <c r="K79" t="s">
         <v>328</v>
       </c>
@@ -5155,8 +5150,11 @@
       <c r="X79" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB79" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B80" s="6" t="s">
         <v>454</v>
       </c>
@@ -5169,9 +5167,6 @@
       <c r="E80">
         <v>374</v>
       </c>
-      <c r="J80" t="s">
-        <v>43</v>
-      </c>
       <c r="K80" t="s">
         <v>60</v>
       </c>
@@ -5196,8 +5191,11 @@
       <c r="X80" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="81" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB80" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B81" s="6" t="s">
         <v>454</v>
       </c>
@@ -5210,9 +5208,6 @@
       <c r="E81">
         <v>366</v>
       </c>
-      <c r="J81" t="s">
-        <v>43</v>
-      </c>
       <c r="K81" t="s">
         <v>331</v>
       </c>
@@ -5237,11 +5232,14 @@
       <c r="X81" t="s">
         <v>36</v>
       </c>
-      <c r="AA81" t="s">
+      <c r="AB81" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC81" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="82" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B82" s="6" t="s">
         <v>454</v>
       </c>
@@ -5254,9 +5252,6 @@
       <c r="E82">
         <v>369</v>
       </c>
-      <c r="J82" t="s">
-        <v>43</v>
-      </c>
       <c r="K82" t="s">
         <v>337</v>
       </c>
@@ -5281,8 +5276,11 @@
       <c r="X82" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="83" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB82" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B83" s="6" t="s">
         <v>454</v>
       </c>
@@ -5295,9 +5293,6 @@
       <c r="E83">
         <v>372</v>
       </c>
-      <c r="J83" t="s">
-        <v>43</v>
-      </c>
       <c r="K83" t="s">
         <v>338</v>
       </c>
@@ -5322,11 +5317,14 @@
       <c r="X83" t="s">
         <v>36</v>
       </c>
-      <c r="AA83" t="s">
+      <c r="AB83" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC83" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="84" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B84" s="6" t="s">
         <v>454</v>
       </c>
@@ -5339,9 +5337,6 @@
       <c r="E84">
         <v>374</v>
       </c>
-      <c r="J84" t="s">
-        <v>43</v>
-      </c>
       <c r="K84" t="s">
         <v>342</v>
       </c>
@@ -5366,11 +5361,14 @@
       <c r="X84" t="s">
         <v>36</v>
       </c>
-      <c r="AA84" t="s">
+      <c r="AB84" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC84" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="85" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B85" s="6" t="s">
         <v>454</v>
       </c>
@@ -5383,9 +5381,6 @@
       <c r="E85">
         <v>388</v>
       </c>
-      <c r="J85" t="s">
-        <v>43</v>
-      </c>
       <c r="K85" t="s">
         <v>159</v>
       </c>
@@ -5410,8 +5405,11 @@
       <c r="X85" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="86" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB85" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B86" s="6" t="s">
         <v>454</v>
       </c>
@@ -5424,9 +5422,6 @@
       <c r="E86">
         <v>380</v>
       </c>
-      <c r="J86" t="s">
-        <v>43</v>
-      </c>
       <c r="K86" t="s">
         <v>352</v>
       </c>
@@ -5451,11 +5446,14 @@
       <c r="X86" t="s">
         <v>36</v>
       </c>
-      <c r="AA86" t="s">
+      <c r="AB86" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC86" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="87" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B87" s="6" t="s">
         <v>454</v>
       </c>
@@ -5468,9 +5466,6 @@
       <c r="E87">
         <v>384</v>
       </c>
-      <c r="J87" t="s">
-        <v>43</v>
-      </c>
       <c r="K87" t="s">
         <v>353</v>
       </c>
@@ -5495,11 +5490,14 @@
       <c r="X87" t="s">
         <v>36</v>
       </c>
-      <c r="AA87" t="s">
+      <c r="AB87" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC87" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="88" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B88" s="6" t="s">
         <v>454</v>
       </c>
@@ -5512,9 +5510,6 @@
       <c r="E88">
         <v>388</v>
       </c>
-      <c r="J88" t="s">
-        <v>43</v>
-      </c>
       <c r="K88" t="s">
         <v>355</v>
       </c>
@@ -5539,11 +5534,14 @@
       <c r="X88" t="s">
         <v>36</v>
       </c>
-      <c r="AA88" t="s">
+      <c r="AB88" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC88" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="89" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B89" s="6" t="s">
         <v>454</v>
       </c>
@@ -5556,9 +5554,6 @@
       <c r="E89">
         <v>399</v>
       </c>
-      <c r="J89" t="s">
-        <v>43</v>
-      </c>
       <c r="K89" t="s">
         <v>372</v>
       </c>
@@ -5583,8 +5578,11 @@
       <c r="X89" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB89" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B90" s="6" t="s">
         <v>454</v>
       </c>
@@ -5597,9 +5595,6 @@
       <c r="E90">
         <v>391</v>
       </c>
-      <c r="J90" t="s">
-        <v>43</v>
-      </c>
       <c r="K90" t="s">
         <v>367</v>
       </c>
@@ -5630,8 +5625,11 @@
       <c r="X90" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="91" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB90" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B91" s="6" t="s">
         <v>454</v>
       </c>
@@ -5644,9 +5642,6 @@
       <c r="E91">
         <v>394</v>
       </c>
-      <c r="J91" t="s">
-        <v>43</v>
-      </c>
       <c r="K91" t="s">
         <v>376</v>
       </c>
@@ -5671,8 +5666,11 @@
       <c r="X91" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="92" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB91" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B92" s="6" t="s">
         <v>454</v>
       </c>
@@ -5685,9 +5683,6 @@
       <c r="E92">
         <v>396</v>
       </c>
-      <c r="J92" t="s">
-        <v>43</v>
-      </c>
       <c r="K92" t="s">
         <v>380</v>
       </c>
@@ -5712,11 +5707,14 @@
       <c r="X92" t="s">
         <v>36</v>
       </c>
-      <c r="AA92" t="s">
+      <c r="AB92" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC92" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="93" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B93" s="6" t="s">
         <v>454</v>
       </c>
@@ -5729,9 +5727,6 @@
       <c r="E93">
         <v>398</v>
       </c>
-      <c r="J93" t="s">
-        <v>43</v>
-      </c>
       <c r="K93" t="s">
         <v>385</v>
       </c>
@@ -5756,8 +5751,11 @@
       <c r="X93" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="94" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB93" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B94" s="6" t="s">
         <v>454</v>
       </c>
@@ -5770,9 +5768,6 @@
       <c r="E94">
         <v>399</v>
       </c>
-      <c r="J94" t="s">
-        <v>43</v>
-      </c>
       <c r="K94" t="s">
         <v>388</v>
       </c>
@@ -5797,11 +5792,14 @@
       <c r="X94" t="s">
         <v>36</v>
       </c>
-      <c r="AA94" t="s">
+      <c r="AB94" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC94" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="95" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B95" s="6" t="s">
         <v>454</v>
       </c>
@@ -5814,9 +5812,6 @@
       <c r="E95">
         <v>401</v>
       </c>
-      <c r="J95" t="s">
-        <v>43</v>
-      </c>
       <c r="K95" t="s">
         <v>281</v>
       </c>
@@ -5841,11 +5836,14 @@
       <c r="X95" t="s">
         <v>36</v>
       </c>
-      <c r="AA95" t="s">
+      <c r="AB95" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC95" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="96" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B96" s="6" t="s">
         <v>454</v>
       </c>
@@ -5858,9 +5856,6 @@
       <c r="E96">
         <v>401</v>
       </c>
-      <c r="J96" t="s">
-        <v>43</v>
-      </c>
       <c r="K96" t="s">
         <v>394</v>
       </c>
@@ -5885,11 +5880,14 @@
       <c r="X96" t="s">
         <v>36</v>
       </c>
-      <c r="AA96" t="s">
+      <c r="AB96" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC96" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="97" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B97" s="6" t="s">
         <v>454</v>
       </c>
@@ -5902,9 +5900,6 @@
       <c r="E97">
         <v>402</v>
       </c>
-      <c r="J97" t="s">
-        <v>43</v>
-      </c>
       <c r="K97" t="s">
         <v>397</v>
       </c>
@@ -5929,11 +5924,14 @@
       <c r="X97" t="s">
         <v>36</v>
       </c>
-      <c r="AA97" t="s">
+      <c r="AB97" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC97" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="98" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B98" s="6" t="s">
         <v>454</v>
       </c>
@@ -5946,9 +5944,6 @@
       <c r="E98">
         <v>402</v>
       </c>
-      <c r="J98" t="s">
-        <v>43</v>
-      </c>
       <c r="K98" t="s">
         <v>400</v>
       </c>
@@ -5973,11 +5968,14 @@
       <c r="X98" t="s">
         <v>36</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="AB98" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC98" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="99" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B99" s="6" t="s">
         <v>454</v>
       </c>
@@ -5990,9 +5988,6 @@
       <c r="E99">
         <v>404</v>
       </c>
-      <c r="J99" t="s">
-        <v>43</v>
-      </c>
       <c r="K99" t="s">
         <v>407</v>
       </c>
@@ -6017,11 +6012,14 @@
       <c r="X99" t="s">
         <v>36</v>
       </c>
-      <c r="AA99" t="s">
+      <c r="AB99" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC99" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B100" s="6" t="s">
         <v>454</v>
       </c>
@@ -6034,9 +6032,6 @@
       <c r="E100">
         <v>404</v>
       </c>
-      <c r="J100" t="s">
-        <v>43</v>
-      </c>
       <c r="K100" t="s">
         <v>408</v>
       </c>
@@ -6061,11 +6056,14 @@
       <c r="X100" t="s">
         <v>36</v>
       </c>
-      <c r="AA100" t="s">
+      <c r="AB100" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC100" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="101" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B101" s="6" t="s">
         <v>454</v>
       </c>
@@ -6078,9 +6076,6 @@
       <c r="E101">
         <v>418</v>
       </c>
-      <c r="J101" t="s">
-        <v>43</v>
-      </c>
       <c r="K101" t="s">
         <v>414</v>
       </c>
@@ -6105,8 +6100,11 @@
       <c r="X101" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="102" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB101" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="102" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B102" s="6" t="s">
         <v>454</v>
       </c>
@@ -6119,9 +6117,6 @@
       <c r="E102">
         <v>408</v>
       </c>
-      <c r="J102" t="s">
-        <v>43</v>
-      </c>
       <c r="K102" t="s">
         <v>226</v>
       </c>
@@ -6146,8 +6141,11 @@
       <c r="X102" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="103" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB102" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="103" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B103" s="6" t="s">
         <v>454</v>
       </c>
@@ -6160,9 +6158,6 @@
       <c r="E103">
         <v>408</v>
       </c>
-      <c r="J103" t="s">
-        <v>43</v>
-      </c>
       <c r="K103" t="s">
         <v>417</v>
       </c>
@@ -6187,8 +6182,11 @@
       <c r="X103" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="104" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB103" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="104" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B104" s="6" t="s">
         <v>454</v>
       </c>
@@ -6201,9 +6199,6 @@
       <c r="E104">
         <v>418</v>
       </c>
-      <c r="J104" t="s">
-        <v>43</v>
-      </c>
       <c r="K104" t="s">
         <v>421</v>
       </c>
@@ -6228,8 +6223,11 @@
       <c r="X104" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="105" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB104" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="105" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B105" s="6" t="s">
         <v>454</v>
       </c>
@@ -6242,9 +6240,6 @@
       <c r="E105">
         <v>409</v>
       </c>
-      <c r="J105" t="s">
-        <v>43</v>
-      </c>
       <c r="K105" t="s">
         <v>424</v>
       </c>
@@ -6269,8 +6264,11 @@
       <c r="X105" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="106" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB105" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="106" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B106" s="6" t="s">
         <v>454</v>
       </c>
@@ -6283,9 +6281,6 @@
       <c r="E106">
         <v>411</v>
       </c>
-      <c r="J106" t="s">
-        <v>43</v>
-      </c>
       <c r="K106" t="s">
         <v>429</v>
       </c>
@@ -6310,11 +6305,14 @@
       <c r="X106" t="s">
         <v>36</v>
       </c>
-      <c r="AA106" t="s">
+      <c r="AB106" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC106" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="107" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B107" s="6" t="s">
         <v>454</v>
       </c>
@@ -6327,9 +6325,6 @@
       <c r="E107">
         <v>412</v>
       </c>
-      <c r="J107" t="s">
-        <v>43</v>
-      </c>
       <c r="K107" t="s">
         <v>434</v>
       </c>
@@ -6354,8 +6349,11 @@
       <c r="X107" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="108" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB107" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="108" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B108" s="6" t="s">
         <v>454</v>
       </c>
@@ -6368,9 +6366,6 @@
       <c r="E108">
         <v>413</v>
       </c>
-      <c r="J108" t="s">
-        <v>43</v>
-      </c>
       <c r="K108" t="s">
         <v>438</v>
       </c>
@@ -6395,8 +6390,11 @@
       <c r="X108" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="109" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB108" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="109" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B109" s="6" t="s">
         <v>454</v>
       </c>
@@ -6409,9 +6407,6 @@
       <c r="E109">
         <v>415</v>
       </c>
-      <c r="J109" t="s">
-        <v>43</v>
-      </c>
       <c r="K109" t="s">
         <v>442</v>
       </c>
@@ -6436,11 +6431,14 @@
       <c r="X109" t="s">
         <v>36</v>
       </c>
-      <c r="AA109" t="s">
+      <c r="AB109" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC109" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B110" s="6" t="s">
         <v>454</v>
       </c>
@@ -6453,9 +6451,6 @@
       <c r="E110">
         <v>416</v>
       </c>
-      <c r="J110" t="s">
-        <v>43</v>
-      </c>
       <c r="K110" t="s">
         <v>447</v>
       </c>
@@ -6480,8 +6475,11 @@
       <c r="X110" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="111" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB110" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="111" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B111" s="6" t="s">
         <v>454</v>
       </c>
@@ -6494,9 +6492,6 @@
       <c r="E111">
         <v>418</v>
       </c>
-      <c r="J111" t="s">
-        <v>43</v>
-      </c>
       <c r="K111" t="s">
         <v>451</v>
       </c>
@@ -6520,6 +6515,9 @@
       </c>
       <c r="X111" t="s">
         <v>36</v>
+      </c>
+      <c r="AB111" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
